--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,235 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11613500</v>
+        <v>11512400</v>
       </c>
       <c r="E8" s="3">
-        <v>22589200</v>
+        <v>23996200</v>
       </c>
       <c r="F8" s="3">
-        <v>11183100</v>
+        <v>11715100</v>
       </c>
       <c r="G8" s="3">
-        <v>23188700</v>
+        <v>22786700</v>
       </c>
       <c r="H8" s="3">
-        <v>11317100</v>
+        <v>11280900</v>
       </c>
       <c r="I8" s="3">
+        <v>23391400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11416000</v>
+      </c>
+      <c r="K8" s="3">
         <v>22247700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11197400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>23304900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>11527300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>22538500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>11820300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>24461000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>12117200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4882800</v>
+        <v>4855700</v>
       </c>
       <c r="E9" s="3">
-        <v>9401100</v>
+        <v>10339400</v>
       </c>
       <c r="F9" s="3">
-        <v>4692900</v>
+        <v>4925500</v>
       </c>
       <c r="G9" s="3">
-        <v>10511200</v>
+        <v>9483300</v>
       </c>
       <c r="H9" s="3">
-        <v>4925600</v>
+        <v>4733900</v>
       </c>
       <c r="I9" s="3">
+        <v>10603100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4968700</v>
+      </c>
+      <c r="K9" s="3">
         <v>9871000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4695000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10603900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5053400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>10019400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5232800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>10430500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5278600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6730700</v>
+        <v>6656700</v>
       </c>
       <c r="E10" s="3">
-        <v>13188100</v>
+        <v>13656700</v>
       </c>
       <c r="F10" s="3">
-        <v>6490300</v>
+        <v>6789600</v>
       </c>
       <c r="G10" s="3">
-        <v>12677500</v>
+        <v>13303400</v>
       </c>
       <c r="H10" s="3">
-        <v>6391500</v>
+        <v>6547000</v>
       </c>
       <c r="I10" s="3">
+        <v>12788300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6447300</v>
+      </c>
+      <c r="K10" s="3">
         <v>12376700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6502400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>12700900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6473900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>12519200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>6587400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>14030600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6838600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +910,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +956,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,96 +1006,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-22000</v>
+        <v>27700</v>
       </c>
       <c r="E14" s="3">
-        <v>214100</v>
+        <v>196000</v>
       </c>
       <c r="F14" s="3">
-        <v>113100</v>
+        <v>-22200</v>
       </c>
       <c r="G14" s="3">
-        <v>203100</v>
+        <v>216000</v>
       </c>
       <c r="H14" s="3">
-        <v>16500</v>
+        <v>114100</v>
       </c>
       <c r="I14" s="3">
+        <v>204900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K14" s="3">
         <v>68100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>17600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>824700</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>543000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>5900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1926200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>337100</v>
+        <v>345600</v>
       </c>
       <c r="E15" s="3">
-        <v>4511700</v>
+        <v>4696200</v>
       </c>
       <c r="F15" s="3">
-        <v>326100</v>
+        <v>340000</v>
       </c>
       <c r="G15" s="3">
-        <v>3941800</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+        <v>4551100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>329000</v>
       </c>
       <c r="I15" s="3">
+        <v>3976300</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>3795800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>325000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3921400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>3759800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
         <v>4048500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,8 +1127,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,43 +1138,49 @@
         <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>19967100</v>
+        <v>20076400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="3">
-        <v>20466700</v>
+        <v>20141700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="3">
+        <v>20645700</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>19667400</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>20511100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>19971400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>23072400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,43 +1188,49 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>2622000</v>
+        <v>3919800</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="3">
-        <v>2721900</v>
+        <v>2644900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="3">
+        <v>2745700</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>2580300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>2793800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>2567100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1388600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,8 +1247,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,43 +1258,49 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-113100</v>
+        <v>88600</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="3">
-        <v>163600</v>
+        <v>-114100</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="3">
+        <v>165000</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>-186700</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>-34800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>-460000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>189000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1234,87 +1308,99 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>7020600</v>
+        <v>8704600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="3">
-        <v>6827400</v>
+        <v>7082000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="3">
+        <v>6887100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>6189400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>6680300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>5866900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>5626100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34000</v>
+        <v>31000</v>
       </c>
       <c r="E22" s="3">
-        <v>697200</v>
+        <v>660100</v>
       </c>
       <c r="F22" s="3">
-        <v>31800</v>
+        <v>34300</v>
       </c>
       <c r="G22" s="3">
-        <v>657700</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+        <v>703300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>32100</v>
       </c>
       <c r="I22" s="3">
+        <v>663500</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>814700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>30700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>736000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>693400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>792300</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1322,43 +1408,49 @@
         <v>8</v>
       </c>
       <c r="E23" s="3">
-        <v>1811700</v>
+        <v>3348300</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="3">
-        <v>2227800</v>
+        <v>1827500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="3">
+        <v>2247300</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>1578900</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>2022900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>1413700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3">
         <v>785300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1366,43 +1458,49 @@
         <v>8</v>
       </c>
       <c r="E24" s="3">
-        <v>563300</v>
+        <v>1034500</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="3">
-        <v>823500</v>
+        <v>568200</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="3">
+        <v>830700</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>613800</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>578900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>601400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
         <v>860400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,8 +1543,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1454,43 +1558,49 @@
         <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>1248400</v>
+        <v>2313800</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="3">
-        <v>1404300</v>
+        <v>1259300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="3">
+        <v>1416600</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>965100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>1444000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>812300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-75100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1498,43 +1608,49 @@
         <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>1140800</v>
+        <v>1881800</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="3">
-        <v>957500</v>
+        <v>1150800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="3">
+        <v>965800</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>866300</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>1061400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>674300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-615100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,52 +1693,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>32500</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>4700</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1793,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,8 +1843,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,43 +1858,49 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>113100</v>
+        <v>-88600</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="3">
-        <v>-163600</v>
+        <v>114100</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>186700</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>34800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>460000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-189000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1762,43 +1908,49 @@
         <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>1140800</v>
+        <v>1881800</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>957500</v>
+        <v>1150800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="3">
+        <v>965800</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>866300</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>1093900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>674300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-610400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,8 +1993,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1850,92 +2008,104 @@
         <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>1140800</v>
+        <v>1881800</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="3">
-        <v>957500</v>
+        <v>1150800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="3">
+        <v>965800</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>866300</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>1093900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>674300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-610400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2122,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,8 +2142,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1979,43 +2153,49 @@
         <v>8</v>
       </c>
       <c r="E41" s="3">
-        <v>6544100</v>
+        <v>7178400</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="3">
-        <v>6186100</v>
+        <v>6601300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="3">
+        <v>6240200</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>5935800</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>6518800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>7637400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>7459600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2023,43 +2203,49 @@
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>3123800</v>
+        <v>5373000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>3099700</v>
+        <v>3151100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I42" s="3">
+        <v>3126800</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>2595700</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>6688200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>4007700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3">
         <v>2185600</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2067,43 +2253,49 @@
         <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>11855100</v>
+        <v>11905600</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="3">
-        <v>11646500</v>
+        <v>11958800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="3">
+        <v>11748300</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>11737600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>8477800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>6644400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>10732100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2111,43 +2303,49 @@
         <v>8</v>
       </c>
       <c r="E44" s="3">
-        <v>1044200</v>
+        <v>1003500</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="3">
-        <v>1059600</v>
+        <v>1053300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="3">
+        <v>1068800</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>950900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>927900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>866200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>961400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,43 +2353,49 @@
         <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>2695600</v>
+        <v>2215200</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>2044500</v>
+        <v>2719200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="3">
+        <v>2062400</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>2082900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>1776100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>2081300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1960300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2199,43 +2403,49 @@
         <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>25262800</v>
+        <v>27675600</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G46" s="3">
-        <v>24036300</v>
+        <v>25483700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="3">
+        <v>24246500</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
         <v>23302900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>24388700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>21237000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>23299000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2243,43 +2453,49 @@
         <v>8</v>
       </c>
       <c r="E47" s="3">
-        <v>3845200</v>
+        <v>2846500</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>4395300</v>
+        <v>3878800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I47" s="3">
+        <v>4433700</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>4475400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>4250100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>5006300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>5912500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2287,43 +2503,49 @@
         <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>37103600</v>
+        <v>38418200</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>30406900</v>
+        <v>37428000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="3">
+        <v>30672800</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>29446200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>29917900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>29300800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>30415800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2331,43 +2553,49 @@
         <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>45863500</v>
+        <v>46941200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>45289200</v>
+        <v>46264500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="3">
+        <v>45685200</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>44900500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>46282100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>46679300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>49016000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2638,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,8 +2688,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2463,43 +2703,49 @@
         <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>2052200</v>
+        <v>1859700</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>1930300</v>
+        <v>2070100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I52" s="3">
+        <v>1947200</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>2103800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>2141900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>3008100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3682200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,8 +2788,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2551,43 +2803,49 @@
         <v>8</v>
       </c>
       <c r="E54" s="3">
-        <v>114127200</v>
+        <v>117741200</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="3">
-        <v>106058000</v>
+        <v>115125100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="3">
+        <v>106985300</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>104228700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>106980600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>105231400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>111122200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2862,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,8 +2882,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2631,43 +2893,49 @@
         <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>7121600</v>
+        <v>7401000</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="3">
-        <v>7396100</v>
+        <v>7183900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="3">
+        <v>7460800</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>6849300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>7323200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>7014700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>7290500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,43 +2943,49 @@
         <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>7571800</v>
+        <v>10490100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>7871600</v>
+        <v>12695300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3">
+        <v>13295600</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>11154600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>12309400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>9679400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>15549500</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2719,43 +2993,49 @@
         <v>8</v>
       </c>
       <c r="E59" s="3">
-        <v>17295700</v>
+        <v>12783900</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="3">
-        <v>17997300</v>
+        <v>12389600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I59" s="3">
+        <v>12799400</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>13019000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>13447100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>12104000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>13152500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2763,43 +3043,49 @@
         <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>31989100</v>
+        <v>30675000</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="3">
-        <v>33265000</v>
+        <v>32268800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="3">
+        <v>33555800</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>31022900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>32601700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>28798100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>30406400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2807,43 +3093,49 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>38938400</v>
+        <v>42501900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>29370400</v>
+        <v>39278800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>29627200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>30594700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>29500500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>32396300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>33933700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2851,43 +3143,49 @@
         <v>8</v>
       </c>
       <c r="E62" s="3">
-        <v>7209500</v>
+        <v>6445100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="3">
-        <v>6915200</v>
+        <v>7272500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="3">
+        <v>6975700</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>6666000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>7278300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>7459000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>7842200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3228,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3278,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,8 +3328,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3027,43 +3343,49 @@
         <v>8</v>
       </c>
       <c r="E66" s="3">
-        <v>80845700</v>
+        <v>82599300</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G66" s="3">
-        <v>72383500</v>
+        <v>81552600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I66" s="3">
+        <v>73016300</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>70930800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>72227000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>71351800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>75100400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3402,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3448,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3498,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3548,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,8 +3598,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3265,43 +3613,49 @@
         <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>-2528700</v>
+        <v>-1188500</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>-2264100</v>
+        <v>-2550800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
+        <v>-2283900</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2560500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>-2076800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-3148300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-3068300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3698,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3748,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,8 +3798,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3441,43 +3813,49 @@
         <v>8</v>
       </c>
       <c r="E76" s="3">
-        <v>33281500</v>
+        <v>35141900</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="3">
-        <v>33674600</v>
+        <v>33572500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I76" s="3">
+        <v>33969000</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
         <v>33297900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>34753600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>33879600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>36021900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,57 +3898,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3578,43 +3968,49 @@
         <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>1140800</v>
+        <v>1881800</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="3">
-        <v>957500</v>
+        <v>1150800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I81" s="3">
+        <v>965800</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>866300</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>1093900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>674300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-610400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,8 +4027,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3640,43 +4038,49 @@
         <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>4511700</v>
+        <v>4696200</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G83" s="3">
-        <v>3941800</v>
+        <v>4551100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="3">
+        <v>3976300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>3795800</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>3921400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>3759800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>4048500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +4123,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +4173,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4223,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4273,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,8 +4323,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3904,43 +4338,49 @@
         <v>8</v>
       </c>
       <c r="E89" s="3">
-        <v>4544600</v>
+        <v>6667800</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G89" s="3">
-        <v>5851200</v>
+        <v>4584400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="3">
+        <v>5902400</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>4586300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>6083400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>5331700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>5744600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,8 +4397,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3966,43 +4408,49 @@
         <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-4556700</v>
+        <v>-4731700</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G91" s="3">
-        <v>-4657700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1911600</v>
+        <v>-4596500</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
+        <v>-4698400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1928300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3733200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-3787800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-5104900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4493,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,8 +4543,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4098,43 +4558,49 @@
         <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>-4565500</v>
+        <v>-5772800</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G94" s="3">
-        <v>-5210000</v>
+        <v>-4605400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="3">
+        <v>-5255600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4180100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-5231800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-3677900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-4880700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4617,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4160,43 +4628,49 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1165000</v>
+        <v>-881600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-874000</v>
+        <v>-1175200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-881600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1168300</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-746100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-624500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4713,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4763,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,8 +4813,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4336,43 +4828,49 @@
         <v>8</v>
       </c>
       <c r="E100" s="3">
-        <v>376600</v>
+        <v>-319000</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G100" s="3">
-        <v>-393100</v>
+        <v>379900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I100" s="3">
+        <v>-396500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>-848800</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1973600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1098400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-103300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4380,7 +4878,7 @@
         <v>8</v>
       </c>
       <c r="E101" s="3">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
@@ -4392,31 +4890,37 @@
         <v>8</v>
       </c>
       <c r="I101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>3400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>-48200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-129100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4424,39 +4928,45 @@
         <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>357900</v>
+        <v>577100</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G102" s="3">
-        <v>250300</v>
+        <v>361100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I102" s="3">
+        <v>252500</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>-443600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>-1118600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>507100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>631500</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11512400</v>
+        <v>24567700</v>
       </c>
       <c r="E8" s="3">
-        <v>23996200</v>
+        <v>12295100</v>
       </c>
       <c r="F8" s="3">
-        <v>11715100</v>
+        <v>25627500</v>
       </c>
       <c r="G8" s="3">
-        <v>22786700</v>
+        <v>12511500</v>
       </c>
       <c r="H8" s="3">
-        <v>11280900</v>
+        <v>24335800</v>
       </c>
       <c r="I8" s="3">
-        <v>23391400</v>
+        <v>12047800</v>
       </c>
       <c r="J8" s="3">
+        <v>24981700</v>
+      </c>
+      <c r="K8" s="3">
         <v>11416000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22247700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11197400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23304900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11527300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22538500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11820300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24461000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12117200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4855700</v>
+        <v>10122100</v>
       </c>
       <c r="E9" s="3">
-        <v>10339400</v>
+        <v>5185800</v>
       </c>
       <c r="F9" s="3">
-        <v>4925500</v>
+        <v>11042400</v>
       </c>
       <c r="G9" s="3">
-        <v>9483300</v>
+        <v>5260400</v>
       </c>
       <c r="H9" s="3">
-        <v>4733900</v>
+        <v>10128000</v>
       </c>
       <c r="I9" s="3">
-        <v>10603100</v>
+        <v>5055700</v>
       </c>
       <c r="J9" s="3">
+        <v>11323900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4968700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9871000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4695000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10603900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5053400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10019400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5232800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10430500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5278600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6656700</v>
+        <v>14445600</v>
       </c>
       <c r="E10" s="3">
-        <v>13656700</v>
+        <v>7109200</v>
       </c>
       <c r="F10" s="3">
-        <v>6789600</v>
+        <v>14585200</v>
       </c>
       <c r="G10" s="3">
-        <v>13303400</v>
+        <v>7251200</v>
       </c>
       <c r="H10" s="3">
-        <v>6547000</v>
+        <v>14207800</v>
       </c>
       <c r="I10" s="3">
-        <v>12788300</v>
+        <v>6992100</v>
       </c>
       <c r="J10" s="3">
+        <v>13657800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6447300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12376700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6502400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12700900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6473900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12519200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6587400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14030600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6838600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,108 +1029,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27700</v>
+        <v>260200</v>
       </c>
       <c r="E14" s="3">
-        <v>196000</v>
+        <v>29600</v>
       </c>
       <c r="F14" s="3">
-        <v>-22200</v>
+        <v>209400</v>
       </c>
       <c r="G14" s="3">
-        <v>216000</v>
+        <v>-23700</v>
       </c>
       <c r="H14" s="3">
-        <v>114100</v>
+        <v>230700</v>
       </c>
       <c r="I14" s="3">
-        <v>204900</v>
+        <v>121800</v>
       </c>
       <c r="J14" s="3">
+        <v>218800</v>
+      </c>
+      <c r="K14" s="3">
         <v>16600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>68100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>824700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>543000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1926200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>345600</v>
+        <v>4957500</v>
       </c>
       <c r="E15" s="3">
-        <v>4696200</v>
+        <v>369100</v>
       </c>
       <c r="F15" s="3">
-        <v>340000</v>
+        <v>5015500</v>
       </c>
       <c r="G15" s="3">
-        <v>4551100</v>
+        <v>363200</v>
       </c>
       <c r="H15" s="3">
-        <v>329000</v>
+        <v>4860500</v>
       </c>
       <c r="I15" s="3">
-        <v>3976300</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
+        <v>351300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4246600</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>3795800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>325000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3921400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>3759800</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3">
         <v>4048500</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20076400</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3">
-        <v>20141700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3">
-        <v>20645700</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>21907300</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>21441200</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>21511000</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
+        <v>22049300</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>19667400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>20511100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3">
         <v>19971400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="3">
         <v>23072400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3919800</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2644900</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2745700</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>2660300</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4186300</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2824800</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2932400</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>2580300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>2793800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
         <v>2567100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
         <v>1388600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,258 +1282,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
-        <v>88600</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-114100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
-        <v>165000</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-137200</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
+        <v>94600</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-121800</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3">
+        <v>176300</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>-186700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>-34800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3">
         <v>-460000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="3">
         <v>189000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3">
-        <v>8704600</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
-        <v>7082000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
-        <v>6887100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>7480700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
+        <v>9296400</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
+        <v>7563500</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7355300</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>6189400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>6680300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>5866900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>5626100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31000</v>
+        <v>740500</v>
       </c>
       <c r="E22" s="3">
-        <v>660100</v>
+        <v>33100</v>
       </c>
       <c r="F22" s="3">
+        <v>705000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>36700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>751100</v>
+      </c>
+      <c r="I22" s="3">
         <v>34300</v>
       </c>
-      <c r="G22" s="3">
-        <v>703300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>32100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>663500</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22" s="3">
+        <v>708600</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>814700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>30700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>736000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>693400</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>792300</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3348300</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1827500</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2247300</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>1782600</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3575900</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1951800</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2400100</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>1578900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>2022900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3">
         <v>1413700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="3">
         <v>785300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1034500</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3">
-        <v>568200</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3">
-        <v>830700</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>580800</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1104800</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>606800</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
+        <v>887200</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
         <v>613800</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
         <v>578900</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
         <v>601400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3">
         <v>860400</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2313800</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1259300</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1416600</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>1201800</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2471100</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1345000</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1512900</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>965100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>1444000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3">
         <v>812300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="3">
         <v>-75100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1881800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1150800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3">
-        <v>965800</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>1096500</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2009700</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1229000</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1031500</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>866300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>1061400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="3">
         <v>674300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="3">
         <v>-615100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,19 +1757,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1719,11 +1780,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1731,26 +1792,29 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>32500</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>4700</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-88600</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>114100</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-165000</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-94600</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3">
+        <v>121800</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-176300</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>186700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>34800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="3">
         <v>460000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="3">
         <v>-189000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1881800</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1150800</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3">
-        <v>965800</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>1096500</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2009700</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1229000</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1031500</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>866300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>1093900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="3">
         <v>674300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="3">
         <v>-610400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1881800</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1150800</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3">
-        <v>965800</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>1096500</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2009700</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1229000</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1031500</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>866300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>1093900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="3">
         <v>674300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" s="3">
         <v>-610400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,458 +2230,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3">
-        <v>7178400</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3">
-        <v>6601300</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3">
-        <v>6240200</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>7528000</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7666400</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7050100</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6664500</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>5935800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>6518800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
         <v>7637400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
         <v>7459600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3">
-        <v>5373000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3151100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3126800</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>5172800</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5738200</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3365400</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3339300</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
         <v>2595700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>6688200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3">
         <v>4007700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>2185600</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3">
-        <v>11905600</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3">
-        <v>11958800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3">
-        <v>11748300</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>11992200</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3">
+        <v>12715000</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
+        <v>12771800</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3">
+        <v>12547000</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>11737600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>8477800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>6644400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
         <v>10732100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1003500</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1053300</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1068800</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>1024400</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1071700</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1124900</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1141500</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>950900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>927900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>866200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>961400</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2215200</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2719200</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2062400</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>2882700</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2365800</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2904000</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2202600</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>2082900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>1776100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>2081300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>1960300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3">
-        <v>27675600</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="3">
-        <v>25483700</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3">
-        <v>24246500</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>28600200</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3">
+        <v>29557100</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3">
+        <v>27216200</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3">
+        <v>25894900</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3">
         <v>23302900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
         <v>24388700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3">
         <v>21237000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3">
         <v>23299000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2846500</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3878800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3">
-        <v>4433700</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>3261300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3040100</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4142500</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4735100</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>4475400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>4250100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
         <v>5006300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>5912500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3">
-        <v>38418200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3">
-        <v>37428000</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
-        <v>30672800</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>40922400</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
+        <v>41030100</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3">
+        <v>39972600</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3">
+        <v>32758000</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>29446200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>29917900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>29300800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>30415800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3">
-        <v>46941200</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3">
-        <v>46264500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
-        <v>45685200</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>49709000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
+        <v>50132500</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
+        <v>49409700</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
+        <v>48791100</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>44900500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>46282100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
         <v>46679300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>49016000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1859700</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2070100</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1947200</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>2217900</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1986100</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2210800</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2079500</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>2103800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>2141900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
         <v>3008100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
         <v>3682200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3">
-        <v>117741200</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="3">
-        <v>115125100</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3">
-        <v>106985300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>124710800</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="3">
+        <v>125745800</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3">
+        <v>122951800</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3">
+        <v>114258700</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>104228700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>106980600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3">
         <v>105231400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>111122200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3">
-        <v>7401000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3">
-        <v>7183900</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3">
-        <v>7460800</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>7567000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3">
+        <v>7904100</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3">
+        <v>7672300</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3">
+        <v>7968000</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>6849300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>7323200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>7014700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>7290500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3">
-        <v>10490100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3">
-        <v>12695300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3">
-        <v>13295600</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>10594100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
+        <v>11203200</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
+        <v>13558400</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
+        <v>14199500</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>11154600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>12309400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>9679400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>15549500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3">
-        <v>12783900</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3">
-        <v>12389600</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
-        <v>12799400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>13599800</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3">
+        <v>13653000</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3">
+        <v>13231900</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3">
+        <v>13669600</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>13019000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>13447100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>12104000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>13152500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="3">
-        <v>30675000</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3">
-        <v>32268800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="3">
-        <v>33555800</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>31760900</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3">
+        <v>32760400</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3">
+        <v>34462600</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3">
+        <v>35837100</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3">
         <v>31022900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3">
         <v>32601700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3">
         <v>28798100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3">
         <v>30406400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>44990400</v>
       </c>
       <c r="E61" s="3">
-        <v>42501900</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>45391400</v>
       </c>
       <c r="G61" s="3">
-        <v>39278800</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>41949200</v>
       </c>
       <c r="I61" s="3">
-        <v>29627200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>31641400</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>30594700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>29500500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>32396300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>33933700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3">
-        <v>6445100</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
-        <v>7272500</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
-        <v>6975700</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>6960200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6883300</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>7766900</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
+        <v>7449900</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>6666000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>7278300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>7459000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>7842200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="3">
-        <v>82599300</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="3">
-        <v>81552600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="3">
-        <v>73016300</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>86731400</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="3">
+        <v>88214800</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3">
+        <v>87096900</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3">
+        <v>77980300</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>70930800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>72227000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3">
         <v>71351800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>75100400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1188500</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-2550800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-2283900</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>-1024400</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1269300</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-2724200</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2439100</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>-2560500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>-2076800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>-3148300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>-3068300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3">
-        <v>35141900</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="3">
-        <v>33572500</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="3">
-        <v>33969000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>37979400</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="3">
+        <v>37531100</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3">
+        <v>35854900</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3">
+        <v>36278400</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>33297900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>34753600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3">
         <v>33879600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>36021900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1881800</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1150800</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="3">
-        <v>965800</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>1096500</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3">
+        <v>2009700</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1229000</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1031500</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>866300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>1093900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P81" s="3">
         <v>674300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R81" s="3">
         <v>-610400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,58 +4227,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3">
-        <v>4696200</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4551100</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3976300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>4957500</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5015500</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4860500</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4246600</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>3795800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>3921400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
         <v>3759800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R83" s="3">
         <v>4048500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3">
-        <v>6667800</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3">
-        <v>4584400</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3">
-        <v>5902400</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>5117200</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3">
+        <v>7121100</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3">
+        <v>4896000</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3">
+        <v>6303700</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>4586300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>6083400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3">
         <v>5331700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R89" s="3">
         <v>5744600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-4731700</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-4596500</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4698400</v>
+      <c r="D91" s="3">
+        <v>-4015900</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-5053300</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4909000</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
+        <v>-5017900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1928300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3733200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
         <v>-3787800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
         <v>-5104900</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-5772800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-4605400</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-5255600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-3955600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-6165300</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-4918500</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-5612900</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-4180100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-5231800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3">
         <v>-3677900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
         <v>-4880700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,58 +4852,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-629300</v>
       </c>
       <c r="E96" s="3">
-        <v>-881600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-941600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1175200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1255100</v>
       </c>
       <c r="I96" s="3">
-        <v>-881600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-941600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1168300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-746100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-624500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,154 +5062,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-319000</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3">
-        <v>379900</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-396500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-1277500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-340700</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3">
+        <v>405700</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-423500</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>-848800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1973600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1098400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3">
         <v>-103300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>3400</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
         <v>-48200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R101" s="3">
         <v>-129100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3">
-        <v>577100</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3">
-        <v>361100</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3">
-        <v>252500</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-138400</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3">
+        <v>616300</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3">
+        <v>385600</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3">
+        <v>269700</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>-443600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>-1118600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3">
         <v>507100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3">
         <v>631500</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24567700</v>
+        <v>12660600</v>
       </c>
       <c r="E8" s="3">
-        <v>12295100</v>
+        <v>24843900</v>
       </c>
       <c r="F8" s="3">
-        <v>25627500</v>
+        <v>12433300</v>
       </c>
       <c r="G8" s="3">
-        <v>12511500</v>
+        <v>25915700</v>
       </c>
       <c r="H8" s="3">
-        <v>24335800</v>
+        <v>12652200</v>
       </c>
       <c r="I8" s="3">
-        <v>12047800</v>
+        <v>24609400</v>
       </c>
       <c r="J8" s="3">
+        <v>12183300</v>
+      </c>
+      <c r="K8" s="3">
         <v>24981700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11416000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22247700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11197400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23304900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11527300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22538500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11820300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>24461000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12117200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10122100</v>
+        <v>5097000</v>
       </c>
       <c r="E9" s="3">
-        <v>5185800</v>
+        <v>10235900</v>
       </c>
       <c r="F9" s="3">
-        <v>11042400</v>
+        <v>5244100</v>
       </c>
       <c r="G9" s="3">
-        <v>5260400</v>
+        <v>11166500</v>
       </c>
       <c r="H9" s="3">
-        <v>10128000</v>
+        <v>5319500</v>
       </c>
       <c r="I9" s="3">
-        <v>5055700</v>
+        <v>10241900</v>
       </c>
       <c r="J9" s="3">
+        <v>5112600</v>
+      </c>
+      <c r="K9" s="3">
         <v>11323900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4968700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9871000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4695000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10603900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5053400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10019400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5232800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10430500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5278600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14445600</v>
+        <v>7563600</v>
       </c>
       <c r="E10" s="3">
-        <v>7109200</v>
+        <v>14608000</v>
       </c>
       <c r="F10" s="3">
-        <v>14585200</v>
+        <v>7189200</v>
       </c>
       <c r="G10" s="3">
-        <v>7251200</v>
+        <v>14749100</v>
       </c>
       <c r="H10" s="3">
-        <v>14207800</v>
+        <v>7332700</v>
       </c>
       <c r="I10" s="3">
-        <v>6992100</v>
+        <v>14367600</v>
       </c>
       <c r="J10" s="3">
+        <v>7070700</v>
+      </c>
+      <c r="K10" s="3">
         <v>13657800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6447300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12376700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6502400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12700900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6473900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12519200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6587400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14030600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6838600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,114 +1049,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>260200</v>
+        <v>-73000</v>
       </c>
       <c r="E14" s="3">
-        <v>29600</v>
+        <v>263200</v>
       </c>
       <c r="F14" s="3">
-        <v>209400</v>
+        <v>29900</v>
       </c>
       <c r="G14" s="3">
-        <v>-23700</v>
+        <v>211700</v>
       </c>
       <c r="H14" s="3">
-        <v>230700</v>
+        <v>-23900</v>
       </c>
       <c r="I14" s="3">
-        <v>121800</v>
+        <v>233300</v>
       </c>
       <c r="J14" s="3">
+        <v>123200</v>
+      </c>
+      <c r="K14" s="3">
         <v>218800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>16600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>68100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>824700</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>543000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1926200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4957500</v>
+        <v>439000</v>
       </c>
       <c r="E15" s="3">
-        <v>369100</v>
+        <v>5013300</v>
       </c>
       <c r="F15" s="3">
-        <v>5015500</v>
+        <v>373200</v>
       </c>
       <c r="G15" s="3">
-        <v>363200</v>
+        <v>5071900</v>
       </c>
       <c r="H15" s="3">
-        <v>4860500</v>
+        <v>367200</v>
       </c>
       <c r="I15" s="3">
-        <v>351300</v>
+        <v>4915200</v>
       </c>
       <c r="J15" s="3">
+        <v>355300</v>
+      </c>
+      <c r="K15" s="3">
         <v>4246600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>3795800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>325000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3921400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
         <v>3759800</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
         <v>4048500</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>21907300</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>21441200</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3">
-        <v>21511000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>22153600</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>21682300</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3">
+        <v>21752900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>22049300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>19667400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>20511100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>19971400</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="3">
         <v>23072400</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>2660300</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4186300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2824800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2690300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4233400</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2856500</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>2932400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>2580300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>2793800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2567100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
         <v>1388600</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,273 +1316,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-137200</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
-        <v>94600</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-121800</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-138800</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>95700</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-123200</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>176300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>-186700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>-34800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-460000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3">
         <v>189000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>7480700</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
-        <v>9296400</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
-        <v>7563500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7564800</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
+        <v>9400900</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
+        <v>7648500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>7355300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>6189400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>6680300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>5866900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>5626100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>740500</v>
+        <v>39500</v>
       </c>
       <c r="E22" s="3">
-        <v>33100</v>
+        <v>748800</v>
       </c>
       <c r="F22" s="3">
-        <v>705000</v>
+        <v>33500</v>
       </c>
       <c r="G22" s="3">
-        <v>36700</v>
+        <v>712900</v>
       </c>
       <c r="H22" s="3">
-        <v>751100</v>
+        <v>37100</v>
       </c>
       <c r="I22" s="3">
-        <v>34300</v>
+        <v>759600</v>
       </c>
       <c r="J22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K22" s="3">
         <v>708600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>814700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>30700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>736000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>693400</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>792300</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>1782600</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3575900</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1951800</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1802700</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3616100</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1973700</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>2400100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>1578900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>2022900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1413700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="3">
         <v>785300</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>580800</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1104800</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3">
-        <v>606800</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
+        <v>587300</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1117300</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
+        <v>613700</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>887200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>613800</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>578900</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
         <v>601400</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
         <v>860400</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>1201800</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2471100</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1345000</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1215300</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2498900</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1360100</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>1512900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>965100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>1444000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>812300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3">
         <v>-75100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>1096500</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2009700</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1229000</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1108900</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2032300</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1242900</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>1031500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>866300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>1061400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>674300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3">
         <v>-615100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1771,11 +1832,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1783,11 +1844,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1795,26 +1856,29 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>32500</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>4700</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>137200</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-94600</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3">
-        <v>121800</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>138800</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
+        <v>123200</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>-176300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>186700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>34800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>460000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="3">
         <v>-189000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>1096500</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2009700</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1229000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1108900</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2032300</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1242900</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>1031500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>866300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>1093900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>674300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3">
         <v>-610400</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>1096500</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2009700</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1229000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1108900</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2032300</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1242900</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>1031500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>866300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>1093900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>674300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="3">
         <v>-610400</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,485 +2317,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>7528000</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3">
-        <v>7666400</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3">
-        <v>7050100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7612600</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7752600</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3">
+        <v>7129400</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>6664500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>5935800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>6518800</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>7637400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>7459600</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>5172800</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3">
-        <v>5738200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3">
-        <v>3365400</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5231000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5802800</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3403200</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>3339300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>2595700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>6688200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3">
         <v>4007700</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>2185600</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>11992200</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3">
-        <v>12715000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3">
-        <v>12771800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12127100</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3">
+        <v>12858000</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
+        <v>12915400</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>12547000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>11737600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>8477800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>6644400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>10732100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>1024400</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1071700</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1124900</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1035900</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1083800</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1137600</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>1141500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>950900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>927900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>866200</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>961400</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>2882700</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2365800</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2904000</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2915100</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2392400</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2936700</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>2202600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>2082900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>1776100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2081300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>1960300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>28600200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="3">
-        <v>29557100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3">
-        <v>27216200</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3">
+        <v>28921700</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3">
+        <v>29889400</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3">
+        <v>27522200</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
         <v>25894900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>23302900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>24388700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>21237000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>23299000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>3261300</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3">
-        <v>3040100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4142500</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3297900</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3074200</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
+        <v>4189100</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>4735100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>4475400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>4250100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>5006300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>5912500</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>40922400</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3">
-        <v>41030100</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3">
-        <v>39972600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
+        <v>41382500</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3">
+        <v>41491400</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3">
+        <v>40422000</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>32758000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>29446200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>29917900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>29300800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>30415800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>49709000</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3">
-        <v>50132500</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3">
-        <v>49409700</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
+        <v>50267900</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
+        <v>50696200</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
+        <v>49965300</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>48791100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>44900500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>46282100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>46679300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>49016000</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>2217900</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1986100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2210800</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2242900</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2008400</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2235700</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>2079500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>2103800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>2141900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3008100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>3682200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>124710800</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="3">
-        <v>125745800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3">
-        <v>122951800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3">
+        <v>126113000</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3">
+        <v>127159600</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3">
+        <v>124334200</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>114258700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>104228700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>106980600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>105231400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>111122200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>7567000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7904100</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3">
-        <v>7672300</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7652100</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3">
+        <v>7993000</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
+        <v>7758600</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>7968000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>6849300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>7323200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>7014700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>7290500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>10594100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3">
-        <v>11203200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3">
-        <v>13558400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10713200</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
+        <v>11329200</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
+        <v>13710800</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>14199500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>11154600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>12309400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>9679400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>15549500</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>13599800</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3">
-        <v>13653000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3">
-        <v>13231900</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13752700</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3">
+        <v>13806500</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3">
+        <v>13380700</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>13669600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>13019000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>13447100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>12104000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>13152500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>31760900</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3">
-        <v>32760400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3">
-        <v>34462600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3">
+        <v>32118000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="3">
+        <v>33128800</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3">
+        <v>34850100</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>35837100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>31022900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>32601700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>28798100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>30406400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>44990400</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>45496300</v>
       </c>
       <c r="F61" s="3">
-        <v>45391400</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>45901800</v>
       </c>
       <c r="H61" s="3">
-        <v>41949200</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>42420800</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>31641400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>30594700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>29500500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>32396300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>33933700</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>6960200</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6883300</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
-        <v>7766900</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7038400</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>6960700</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>7854200</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>7449900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>6666000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>7278300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>7459000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>7842200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>86731400</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="3">
-        <v>88214800</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3">
-        <v>87096900</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="3">
+        <v>87706600</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="3">
+        <v>89206600</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3">
+        <v>88076200</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>77980300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>70930800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>72227000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>71351800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>75100400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-1024400</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1269300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-2724200</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1035900</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1283500</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-2754800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2439100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>-2560500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-2076800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-3148300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-3068300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>37979400</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="3">
-        <v>37531100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="3">
-        <v>35854900</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
+        <v>38406400</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3">
+        <v>37953000</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3">
+        <v>36258000</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
         <v>36278400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>33297900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>34753600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>33879600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>36021900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>1096500</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="3">
-        <v>2009700</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1229000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1108900</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2032300</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1242900</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>1031500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>866300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>1093900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>674300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" s="3">
         <v>-610400</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,61 +4426,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>4957500</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3">
-        <v>5015500</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4860500</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5013300</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3">
+        <v>5071900</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3">
+        <v>4915200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>4246600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>3795800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>3921400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3759800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3">
         <v>4048500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>5117200</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3">
-        <v>7121100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3">
-        <v>4896000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5174800</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3">
+        <v>7201100</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3">
+        <v>4951100</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>6303700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>4586300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>6083400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>5331700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3">
         <v>5744600</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-4015900</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-5053300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-4909000</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4061100</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-5110200</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4964200</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5017900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1928300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3733200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-3787800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
         <v>-5104900</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-3955600</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-6165300</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-4918500</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4000100</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-6234600</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-4973800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5612900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4180100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-5231800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-3677900</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-4880700</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,61 +5086,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-629300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-636400</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-952200</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-1269200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-941600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1255100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-941600</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1168300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-746100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-624500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,163 +5308,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-1277500</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-340700</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3">
-        <v>405700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1291900</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-344500</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3">
+        <v>410300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>-423500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-848800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1973600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1098400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
         <v>-103300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-22500</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3">
         <v>2400</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
         <v>2400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>3400</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-48200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3">
         <v>-129100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-138400</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3">
-        <v>616300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3">
-        <v>385600</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3">
+        <v>623200</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3">
+        <v>390000</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>269700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>-443600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>-1118600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>507100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3">
         <v>631500</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12660600</v>
+        <v>25293800</v>
       </c>
       <c r="E8" s="3">
-        <v>24843900</v>
+        <v>12451000</v>
       </c>
       <c r="F8" s="3">
-        <v>12433300</v>
+        <v>24432700</v>
       </c>
       <c r="G8" s="3">
-        <v>25915700</v>
+        <v>12227500</v>
       </c>
       <c r="H8" s="3">
-        <v>12652200</v>
+        <v>25486700</v>
       </c>
       <c r="I8" s="3">
-        <v>24609400</v>
+        <v>12442800</v>
       </c>
       <c r="J8" s="3">
+        <v>24202100</v>
+      </c>
+      <c r="K8" s="3">
         <v>12183300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24981700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11416000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22247700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11197400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23304900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11527300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22538500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11820300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>24461000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12117200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5097000</v>
+        <v>10745200</v>
       </c>
       <c r="E9" s="3">
-        <v>10235900</v>
+        <v>5012600</v>
       </c>
       <c r="F9" s="3">
-        <v>5244100</v>
+        <v>10066500</v>
       </c>
       <c r="G9" s="3">
-        <v>11166500</v>
+        <v>5157300</v>
       </c>
       <c r="H9" s="3">
-        <v>5319500</v>
+        <v>10938200</v>
       </c>
       <c r="I9" s="3">
-        <v>10241900</v>
+        <v>5231500</v>
       </c>
       <c r="J9" s="3">
+        <v>10072300</v>
+      </c>
+      <c r="K9" s="3">
         <v>5112600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11323900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4968700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9871000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4695000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10603900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5053400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10019400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5232800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10430500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5278600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7563600</v>
+        <v>14548500</v>
       </c>
       <c r="E10" s="3">
-        <v>14608000</v>
+        <v>7438400</v>
       </c>
       <c r="F10" s="3">
-        <v>7189200</v>
+        <v>14366200</v>
       </c>
       <c r="G10" s="3">
-        <v>14749100</v>
+        <v>7070200</v>
       </c>
       <c r="H10" s="3">
-        <v>7332700</v>
+        <v>14548500</v>
       </c>
       <c r="I10" s="3">
-        <v>14367600</v>
+        <v>7211300</v>
       </c>
       <c r="J10" s="3">
+        <v>14129700</v>
+      </c>
+      <c r="K10" s="3">
         <v>7070700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13657800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6447300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12376700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6502400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12700900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6473900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12519200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6587400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>14030600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6838600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,120 +1069,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-73000</v>
+        <v>204700</v>
       </c>
       <c r="E14" s="3">
-        <v>263200</v>
+        <v>-71800</v>
       </c>
       <c r="F14" s="3">
-        <v>29900</v>
+        <v>258800</v>
       </c>
       <c r="G14" s="3">
-        <v>211700</v>
+        <v>29400</v>
       </c>
       <c r="H14" s="3">
-        <v>-23900</v>
+        <v>203500</v>
       </c>
       <c r="I14" s="3">
-        <v>233300</v>
+        <v>-23500</v>
       </c>
       <c r="J14" s="3">
+        <v>229400</v>
+      </c>
+      <c r="K14" s="3">
         <v>123200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>218800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>16600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>68100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>824700</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>543000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1926200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>439000</v>
+        <v>5090300</v>
       </c>
       <c r="E15" s="3">
-        <v>5013300</v>
+        <v>431700</v>
       </c>
       <c r="F15" s="3">
-        <v>373200</v>
+        <v>4930300</v>
       </c>
       <c r="G15" s="3">
-        <v>5071900</v>
+        <v>367000</v>
       </c>
       <c r="H15" s="3">
-        <v>367200</v>
+        <v>5029100</v>
       </c>
       <c r="I15" s="3">
-        <v>4915200</v>
+        <v>361200</v>
       </c>
       <c r="J15" s="3">
+        <v>4833800</v>
+      </c>
+      <c r="K15" s="3">
         <v>355300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4246600</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>3795800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>325000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3921400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3">
         <v>3759800</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="3">
         <v>4048500</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3">
-        <v>22153600</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3">
-        <v>21682300</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3">
-        <v>21752900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>21444600</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>21786900</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>21319900</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
+        <v>21392800</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>22049300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>19667400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3">
         <v>20511100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="3">
         <v>19971400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="3">
         <v>23072400</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2690300</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4233400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2856500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>3849200</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2645700</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4166800</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2809200</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>2932400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>2580300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
         <v>2793800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
         <v>2567100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="3">
         <v>1388600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,288 +1350,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-138800</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>95700</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-123200</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-136500</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3">
+        <v>94100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>176300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>-186700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3">
         <v>-34800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="3">
         <v>-460000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="3">
         <v>189000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3">
-        <v>7564800</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
-        <v>9400900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
-        <v>7648500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>8965300</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
+        <v>7439600</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
+        <v>9291200</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7521900</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>7355300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>6189400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>6680300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>5866900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>5626100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39500</v>
+        <v>698800</v>
       </c>
       <c r="E22" s="3">
-        <v>748800</v>
+        <v>38800</v>
       </c>
       <c r="F22" s="3">
-        <v>33500</v>
+        <v>736400</v>
       </c>
       <c r="G22" s="3">
-        <v>712900</v>
+        <v>32900</v>
       </c>
       <c r="H22" s="3">
-        <v>37100</v>
+        <v>709400</v>
       </c>
       <c r="I22" s="3">
-        <v>759600</v>
+        <v>36500</v>
       </c>
       <c r="J22" s="3">
+        <v>747000</v>
+      </c>
+      <c r="K22" s="3">
         <v>34700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>708600</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>814700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>30700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>736000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>693400</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
         <v>792300</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1802700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3616100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1973700</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>3176300</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1772800</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3551600</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1941100</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>2400100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>1578900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3">
         <v>2022900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="3">
         <v>1413700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23" s="3">
         <v>785300</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3">
-        <v>587300</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1117300</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3">
-        <v>613700</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>-1575200</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>577600</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1098800</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
+        <v>603500</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
         <v>887200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
         <v>613800</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
         <v>578900</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3">
         <v>601400</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="3">
         <v>860400</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1215300</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2498900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1360100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>4751500</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1195200</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2452800</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1337600</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>1512900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>965100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3">
         <v>1444000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="3">
         <v>812300</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="3">
         <v>-75100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1108900</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2032300</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1242900</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>4282100</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1090500</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1996400</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1222300</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>1031500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>866300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="3">
         <v>1061400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="3">
         <v>674300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="3">
         <v>-615100</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1835,11 +1896,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1847,11 +1908,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1859,26 +1920,29 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>32500</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>4700</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>138800</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-95700</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
-        <v>123200</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3">
+        <v>136500</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-94100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3">
+        <v>121200</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>-176300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>186700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="3">
         <v>34800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="3">
         <v>460000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="3">
         <v>-189000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1108900</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2032300</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1242900</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>4282100</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1090500</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1996400</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1222300</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>1031500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>866300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="3">
         <v>1093900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="3">
         <v>674300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" s="3">
         <v>-610400</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1108900</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2032300</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1242900</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>4282100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1090500</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1996400</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1222300</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>1031500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>866300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="3">
         <v>1093900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" s="3">
         <v>674300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="3">
         <v>-610400</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,512 +2404,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3">
-        <v>7612600</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3">
-        <v>7752600</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3">
-        <v>7129400</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>9581800</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7486600</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7624200</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7011300</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>6664500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>5935800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
         <v>6518800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
         <v>7637400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3">
         <v>7459600</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3">
-        <v>5231000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3">
-        <v>5802800</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3403200</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>3826800</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5144400</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
+        <v>5706700</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3346900</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
         <v>3339300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>2595700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3">
         <v>6688200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>4007700</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="3">
         <v>2185600</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3">
-        <v>12127100</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3">
-        <v>12858000</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3">
-        <v>12915400</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>11962800</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3">
+        <v>11926300</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
+        <v>12645100</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3">
+        <v>12701600</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>12547000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>11737600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>8477800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
         <v>6644400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3">
         <v>10732100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1035900</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1083800</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1137600</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>957600</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1018800</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1065800</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1118800</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>1141500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>950900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>927900</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>866200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3">
         <v>961400</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2915100</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2392400</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2936700</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>3191600</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2866900</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2352800</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2888100</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>2202600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>2082900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>1776100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>2081300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>1960300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3">
-        <v>28921700</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="3">
-        <v>29889400</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3">
-        <v>27522200</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>29520600</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3">
+        <v>28443000</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3">
+        <v>29394700</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3">
+        <v>27066600</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3">
         <v>25894900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
         <v>23302900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3">
         <v>24388700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3">
         <v>21237000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3">
         <v>23299000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3297900</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3074200</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3">
-        <v>4189100</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>3322200</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3243300</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3023300</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4119800</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>4735100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>4475400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
         <v>4250100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>5006300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3">
         <v>5912500</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3">
-        <v>41382500</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3">
-        <v>41491400</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
-        <v>40422000</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>42449200</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
+        <v>40697600</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3">
+        <v>82123300</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3">
+        <v>39752900</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>32758000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>29446200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>29917900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>29300800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
         <v>30415800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3">
-        <v>50267900</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3">
-        <v>50696200</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
-        <v>49965300</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>50268700</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
+        <v>49435900</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
+        <v>49857000</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
+        <v>49138200</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>48791100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>44900500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
         <v>46282100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>46679300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3">
         <v>49016000</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3051,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2242900</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2008400</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2235700</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>1176400</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2205800</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1976400</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2198700</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>2079500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>2103800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
         <v>2141900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
         <v>3008100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3">
         <v>3682200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3">
-        <v>126113000</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="3">
-        <v>127159600</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3">
-        <v>124334200</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>126737100</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="3">
+        <v>124025500</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3">
+        <v>125570100</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3">
+        <v>122276200</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>114258700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>104228700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3">
         <v>106980600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>105231400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3">
         <v>111122200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,344 +3276,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3">
-        <v>7652100</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3">
-        <v>7993000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3">
-        <v>7758600</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>7617200</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3">
+        <v>7525400</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3">
+        <v>7860700</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3">
+        <v>7630100</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>7968000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>6849300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>7323200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>7014700</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3">
         <v>7290500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3">
-        <v>10713200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3">
-        <v>11329200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3">
-        <v>13710800</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>11521700</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
+        <v>10535800</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
+        <v>11226400</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
+        <v>13483900</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>14199500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>11154600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>12309400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>9679400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3">
         <v>15549500</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3">
-        <v>13752700</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3">
-        <v>13806500</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
-        <v>13380700</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>14146200</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3">
+        <v>13525100</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3">
+        <v>13578000</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3">
+        <v>13159200</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>13669600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>13019000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>13447100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>12104000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>13152500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="3">
-        <v>32118000</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3">
-        <v>33128800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="3">
-        <v>34850100</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>33285100</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3">
+        <v>31586300</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3">
+        <v>32665100</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3">
+        <v>34273200</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3">
         <v>35837100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3">
         <v>31022900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3">
         <v>32601700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3">
         <v>28798100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3">
         <v>30406400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>42308000</v>
       </c>
       <c r="E61" s="3">
-        <v>45496300</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>44743200</v>
       </c>
       <c r="G61" s="3">
-        <v>45901800</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>45574900</v>
       </c>
       <c r="I61" s="3">
-        <v>42420800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>41718700</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>31641400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>30594700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>29500500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>32396300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>33933700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3">
-        <v>7038400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
-        <v>6960700</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
-        <v>7854200</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>7572500</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6921900</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>6846600</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
+        <v>7724200</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>7449900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>6666000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>7278300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>7459000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>7842200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="3">
-        <v>87706600</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="3">
-        <v>89206600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="3">
-        <v>88076200</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>86274800</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="3">
+        <v>86254800</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3">
+        <v>88248800</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3">
+        <v>86618300</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>77980300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>70930800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3">
         <v>72227000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>71351800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3">
         <v>75100400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1035900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1283500</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-2754800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>2177500</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1018800</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-1264600</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2709200</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>-2439100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>-2560500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>-2076800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>-3148300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3">
         <v>-3068300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3">
-        <v>38406400</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="3">
-        <v>37953000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="3">
-        <v>36258000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>40462300</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="3">
+        <v>37770700</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3">
+        <v>37321300</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3">
+        <v>35657900</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>36278400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>33297900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3">
         <v>34753600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>33879600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3">
         <v>36021900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1108900</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="3">
-        <v>2032300</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1242900</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>4282100</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1090500</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1996400</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1222300</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>1031500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>866300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P81" s="3">
         <v>1093900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R81" s="3">
         <v>674300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T81" s="3">
         <v>-610400</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,64 +4625,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3">
-        <v>5013300</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3">
-        <v>5071900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4915200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>5090300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4930300</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3">
+        <v>5030300</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4833800</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>4246600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>3795800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
         <v>3921400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R83" s="3">
         <v>3759800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T83" s="3">
         <v>4048500</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3">
-        <v>5174800</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3">
-        <v>7201100</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3">
-        <v>4951100</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>9847600</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3">
+        <v>5089100</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3">
+        <v>7118400</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4869100</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>6303700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>4586300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3">
         <v>6083400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R89" s="3">
         <v>5331700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T89" s="3">
         <v>5744600</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5061,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-4061100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-5110200</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4964200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-6059600</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-3993900</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-5025600</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4882100</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-5017900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1928300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3733200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
         <v>-3787800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3">
         <v>-5104900</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-4000100</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-6234600</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-4973800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-2611600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-3933900</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-6131400</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-4891500</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-5612900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-4180100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3">
         <v>-5231800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
         <v>-3677900</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3">
         <v>-4880700</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,64 +5320,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1250500</v>
       </c>
       <c r="E96" s="3">
-        <v>-636400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-625800</v>
       </c>
       <c r="G96" s="3">
-        <v>-952200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-936400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1269200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1248200</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-941600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1168300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-746100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-624500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,172 +5554,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-1291900</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-344500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3">
-        <v>410300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-5093800</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-1270500</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-338800</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3">
+        <v>403500</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>-423500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-848800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1973600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1098400</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" s="3">
         <v>-103300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-22700</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="D101" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3">
         <v>2400</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>2400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
         <v>3400</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R101" s="3">
         <v>-48200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3">
         <v>-129100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-140000</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3">
-        <v>623200</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3">
-        <v>390000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>2095200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3">
+        <v>612900</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3">
+        <v>383500</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>269700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>-443600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3">
         <v>-1118600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3">
         <v>507100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3">
         <v>631500</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,274 +665,287 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25293800</v>
+        <v>12635800</v>
       </c>
       <c r="E8" s="3">
-        <v>12451000</v>
+        <v>26338500</v>
       </c>
       <c r="F8" s="3">
-        <v>24432700</v>
+        <v>12965300</v>
       </c>
       <c r="G8" s="3">
-        <v>12227500</v>
+        <v>25441800</v>
       </c>
       <c r="H8" s="3">
-        <v>25486700</v>
+        <v>12732500</v>
       </c>
       <c r="I8" s="3">
-        <v>12442800</v>
+        <v>26539400</v>
       </c>
       <c r="J8" s="3">
+        <v>12956700</v>
+      </c>
+      <c r="K8" s="3">
         <v>24202100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12183300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24981700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11416000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22247700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11197400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23304900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11527300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22538500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11820300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>24461000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12117200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10745200</v>
+        <v>5321400</v>
       </c>
       <c r="E9" s="3">
-        <v>5012600</v>
+        <v>11189100</v>
       </c>
       <c r="F9" s="3">
-        <v>10066500</v>
+        <v>5219700</v>
       </c>
       <c r="G9" s="3">
-        <v>5157300</v>
+        <v>10482200</v>
       </c>
       <c r="H9" s="3">
-        <v>10938200</v>
+        <v>5370400</v>
       </c>
       <c r="I9" s="3">
-        <v>5231500</v>
+        <v>11390000</v>
       </c>
       <c r="J9" s="3">
+        <v>5447500</v>
+      </c>
+      <c r="K9" s="3">
         <v>10072300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5112600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11323900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4968700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9871000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4695000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10603900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5053400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10019400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5232800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10430500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5278600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14548500</v>
+        <v>7314400</v>
       </c>
       <c r="E10" s="3">
-        <v>7438400</v>
+        <v>15149500</v>
       </c>
       <c r="F10" s="3">
-        <v>14366200</v>
+        <v>7745600</v>
       </c>
       <c r="G10" s="3">
-        <v>7070200</v>
+        <v>14959600</v>
       </c>
       <c r="H10" s="3">
-        <v>14548500</v>
+        <v>7362200</v>
       </c>
       <c r="I10" s="3">
-        <v>7211300</v>
+        <v>15149500</v>
       </c>
       <c r="J10" s="3">
+        <v>7509200</v>
+      </c>
+      <c r="K10" s="3">
         <v>14129700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7070700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13657800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6447300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12376700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6502400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12700900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6473900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12519200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6587400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>14030600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6838600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,8 +967,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,8 +1027,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1072,126 +1089,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>204700</v>
+        <v>309900</v>
       </c>
       <c r="E14" s="3">
-        <v>-71800</v>
+        <v>213100</v>
       </c>
       <c r="F14" s="3">
-        <v>258800</v>
+        <v>-74700</v>
       </c>
       <c r="G14" s="3">
-        <v>29400</v>
+        <v>269500</v>
       </c>
       <c r="H14" s="3">
-        <v>203500</v>
+        <v>30600</v>
       </c>
       <c r="I14" s="3">
-        <v>-23500</v>
+        <v>211900</v>
       </c>
       <c r="J14" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="K14" s="3">
         <v>229400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>123200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>218800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>16600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>68100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>824700</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>543000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1926200</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5090300</v>
+        <v>438500</v>
       </c>
       <c r="E15" s="3">
-        <v>431700</v>
+        <v>5300500</v>
       </c>
       <c r="F15" s="3">
-        <v>4930300</v>
+        <v>449600</v>
       </c>
       <c r="G15" s="3">
-        <v>367000</v>
+        <v>5133900</v>
       </c>
       <c r="H15" s="3">
-        <v>5029100</v>
+        <v>382200</v>
       </c>
       <c r="I15" s="3">
-        <v>361200</v>
+        <v>5236800</v>
       </c>
       <c r="J15" s="3">
+        <v>376100</v>
+      </c>
+      <c r="K15" s="3">
         <v>4833800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>355300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4246600</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>3795800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>325000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3921400</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
         <v>3759800</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3">
         <v>4048500</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1210,126 +1236,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>21444600</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>21786900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3">
-        <v>21319900</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>22330300</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>22686800</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3">
+        <v>22200500</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>21392800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>22049300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>19667400</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>20511100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="3">
         <v>19971400</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="3">
         <v>23072400</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>3849200</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2645700</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4166800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4008200</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2755000</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4338900</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>2809200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>2932400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>2580300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2793800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
         <v>2567100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="3">
         <v>1388600</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1351,303 +1384,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>25900</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-136500</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
-        <v>94100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-142100</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
+        <v>98000</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>-121200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>176300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>-186700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3">
         <v>-460000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="3">
         <v>189000</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>8965300</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
-        <v>7439600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
-        <v>9291200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9335600</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
+        <v>7746800</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
+        <v>9675000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>7521900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>7355300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>6189400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>6680300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>5866900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>5626100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>698800</v>
+        <v>33100</v>
       </c>
       <c r="E22" s="3">
-        <v>38800</v>
+        <v>727600</v>
       </c>
       <c r="F22" s="3">
-        <v>736400</v>
+        <v>40400</v>
       </c>
       <c r="G22" s="3">
-        <v>32900</v>
+        <v>766800</v>
       </c>
       <c r="H22" s="3">
-        <v>709400</v>
+        <v>34300</v>
       </c>
       <c r="I22" s="3">
-        <v>36500</v>
+        <v>738700</v>
       </c>
       <c r="J22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K22" s="3">
         <v>747000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>708600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>814700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>30700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>736000</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>693400</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>792300</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>3176300</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1772800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3551600</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3307500</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1846100</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3698200</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>1941100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>2400100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>1578900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3">
         <v>2022900</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="3">
         <v>1413700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="3">
         <v>785300</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>-1575200</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
-        <v>577600</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1098800</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1640300</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>601500</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1144100</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>603500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>887200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>613800</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
         <v>578900</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
         <v>601400</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="3">
         <v>860400</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1705,126 +1754,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>4751500</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1195200</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2452800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4947700</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1244600</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2554100</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>1337600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>1512900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>965100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1444000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3">
         <v>812300</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" s="3">
         <v>-75100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>4282100</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1090500</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1996400</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4459000</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1135600</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2078800</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>1222300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>1031500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>866300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1061400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3">
         <v>674300</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="3">
         <v>-615100</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1882,40 +1940,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1923,26 +1984,29 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>32500</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>4700</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2000,8 +2064,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2059,126 +2126,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3">
-        <v>136500</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-94100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
+        <v>142100</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>121200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>-176300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>186700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>34800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="3">
         <v>460000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="3">
         <v>-189000</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>4282100</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1090500</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1996400</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4459000</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1135600</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2078800</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>1222300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>1031500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>866300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1093900</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3">
         <v>674300</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" s="3">
         <v>-610400</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2236,131 +2312,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>4282100</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1090500</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1996400</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4459000</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1135600</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2078800</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>1222300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>1031500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>866300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1093900</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="3">
         <v>674300</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="3">
         <v>-610400</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2382,8 +2467,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2405,539 +2491,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>9581800</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3">
-        <v>7486600</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3">
-        <v>7624200</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9977500</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7795800</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3">
+        <v>7939200</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>7011300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>6664500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>5935800</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>6518800</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>7637400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
         <v>7459600</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>3826800</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3">
-        <v>5144400</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3">
-        <v>5706700</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3984900</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5356900</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5942400</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>3346900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>3339300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>2595700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3">
         <v>6688200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>4007700</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" s="3">
         <v>2185600</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>11962800</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3">
-        <v>11926300</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3">
-        <v>12645100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12456900</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3">
+        <v>12418900</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
+        <v>13167400</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>12701600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>12547000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>11737600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>8477800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>6644400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>10732100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>957600</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1018800</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1065800</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
+        <v>997100</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1060800</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1109800</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>1118800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>1141500</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>950900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>927900</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>866200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>961400</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>3191600</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2866900</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2352800</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3323400</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2985300</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2450000</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>2888100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>2202600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>2082900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1776100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>2081300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>1960300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>29520600</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="3">
-        <v>28443000</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3">
-        <v>29394700</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3">
+        <v>30739900</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3">
+        <v>29617800</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3">
+        <v>30608800</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
         <v>27066600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>25894900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>23302900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>24388700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>21237000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3">
         <v>23299000</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>3322200</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3">
-        <v>3243300</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3023300</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3459400</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3377300</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3148200</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>4119800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>4735100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>4475400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>4250100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>5006300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
         <v>5912500</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>42449200</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3">
-        <v>40697600</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3">
-        <v>82123300</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
+        <v>44202500</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3">
+        <v>42378500</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3">
+        <v>85515300</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>39752900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>32758000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>29446200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>29917900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>29300800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>30415800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>50268700</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3">
-        <v>49435900</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3">
-        <v>49857000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
+        <v>52345000</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
+        <v>51477800</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
+        <v>51916300</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>49138200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>48791100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>44900500</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>46282100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>46679300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>49016000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2995,8 +3109,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3054,67 +3171,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>1176400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2205800</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1976400</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1225000</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2296900</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2058000</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>2198700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>2079500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>2103800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2141900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>3008100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3">
         <v>3682200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3172,67 +3295,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>126737100</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="3">
-        <v>124025500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3">
-        <v>125570100</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3">
+        <v>131971800</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3">
+        <v>129148200</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3">
+        <v>130756700</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>122276200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>114258700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>104228700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>106980600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>105231400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
         <v>111122200</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3254,8 +3383,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3277,362 +3407,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>7617200</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7525400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3">
-        <v>7860700</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7931800</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3">
+        <v>7836300</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
+        <v>8185400</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>7630100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>7968000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>6849300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>7323200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>7014700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>7290500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>11521700</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3">
-        <v>10535800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3">
-        <v>11226400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>11997600</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
+        <v>10971000</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
+        <v>11690100</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>13483900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>14199500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>11154600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>12309400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>9679400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>15549500</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>14146200</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3">
-        <v>13525100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3">
-        <v>13578000</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14730500</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3">
+        <v>14083700</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3">
+        <v>14138800</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>13159200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>13669600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>13019000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>13447100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>12104000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>13152500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>33285100</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3">
-        <v>31586300</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3">
-        <v>32665100</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3">
+        <v>34659900</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="3">
+        <v>32891000</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3">
+        <v>34014300</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>34273200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>35837100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>31022900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>32601700</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>28798100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3">
         <v>30406400</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42308000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>44055500</v>
       </c>
       <c r="F61" s="3">
-        <v>44743200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>46591300</v>
       </c>
       <c r="H61" s="3">
-        <v>45574900</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>47457300</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>41718700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>31641400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>30594700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>29500500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>32396300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>33933700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>7572500</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6921900</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
-        <v>6846600</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7885300</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>7207800</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>7129400</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>7724200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>7449900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>6666000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>7278300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>7459000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>7842200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3690,8 +3839,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3749,8 +3901,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3808,67 +3963,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>86274800</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="3">
-        <v>86254800</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3">
-        <v>88248800</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="3">
+        <v>89838300</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="3">
+        <v>89817500</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3">
+        <v>91893800</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>86618300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>77980300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>70930800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>72227000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>71351800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>75100400</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3890,8 +4051,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3949,8 +4111,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4008,8 +4173,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4067,8 +4235,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4126,67 +4297,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>2177500</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1018800</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1264600</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2267500</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1060800</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1316900</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2709200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>-2439100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-2560500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2076800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-3148300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-3068300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4244,8 +4421,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4303,8 +4483,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4362,67 +4545,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>40462300</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="3">
-        <v>37770700</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="3">
-        <v>37321300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
+        <v>42133500</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3">
+        <v>39330800</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3">
+        <v>38862800</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
         <v>35657900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>36278400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>33297900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>34753600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>33879600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>36021900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4480,131 +4669,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>4282100</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1090500</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1996400</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4459000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1135600</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2078800</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>1222300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>1031500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>866300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1093900</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" s="3">
         <v>674300</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U81" s="3">
         <v>-610400</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4626,67 +4824,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>5090300</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4930300</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3">
-        <v>5030300</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5300500</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3">
+        <v>5133900</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3">
+        <v>5238100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>4833800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>4246600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>3795800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3921400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3">
         <v>3759800</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" s="3">
         <v>4048500</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4744,8 +4946,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4803,8 +5008,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4862,8 +5070,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4921,8 +5132,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4980,67 +5194,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>9847600</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3">
-        <v>5089100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3">
-        <v>7118400</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3">
+        <v>10254400</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3">
+        <v>5299300</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3">
+        <v>7412400</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>4869100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>6303700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>4586300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>6083400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3">
         <v>5331700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" s="3">
         <v>5744600</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5062,67 +5282,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-6059600</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-3993900</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-5025600</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6309900</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4158800</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-5233200</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4882100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-5017900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1928300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3733200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
         <v>-3787800</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3">
         <v>-5104900</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5180,8 +5404,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5239,67 +5466,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-2611600</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-3933900</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-6131400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2719500</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-4096400</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-6384600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4891500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-5612900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-4180100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-5231800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-3677900</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3">
         <v>-4880700</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5321,67 +5554,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1250500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1302200</v>
       </c>
       <c r="F96" s="3">
-        <v>-625800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-651700</v>
       </c>
       <c r="H96" s="3">
-        <v>-936400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-975100</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1248200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-941600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1168300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-746100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-624500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5439,8 +5676,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5498,8 +5738,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5557,181 +5800,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-5093800</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-1270500</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-338800</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-5304200</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-1323000</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-352800</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>403500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-423500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-848800</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1973600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1098400</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" s="3">
         <v>-103300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-22400</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
         <v>2400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>2400</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
         <v>3400</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3">
         <v>-48200</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="3">
         <v>-129100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>2095200</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-137600</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3">
-        <v>612900</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2181700</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-143300</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3">
+        <v>638200</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>383500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>269700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>-443600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-1118600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3">
         <v>507100</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3">
         <v>631500</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,287 +665,300 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12635800</v>
+        <v>24360300</v>
       </c>
       <c r="E8" s="3">
-        <v>26338500</v>
+        <v>12041800</v>
       </c>
       <c r="F8" s="3">
-        <v>12965300</v>
+        <v>25100500</v>
       </c>
       <c r="G8" s="3">
-        <v>25441800</v>
+        <v>12355900</v>
       </c>
       <c r="H8" s="3">
-        <v>12732500</v>
+        <v>24245900</v>
       </c>
       <c r="I8" s="3">
-        <v>26539400</v>
+        <v>12134100</v>
       </c>
       <c r="J8" s="3">
+        <v>25291900</v>
+      </c>
+      <c r="K8" s="3">
         <v>12956700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24202100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12183300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24981700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11416000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22247700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11197400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23304900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11527300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22538500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11820300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>24461000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12117200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5321400</v>
+        <v>10198500</v>
       </c>
       <c r="E9" s="3">
-        <v>11189100</v>
+        <v>5071200</v>
       </c>
       <c r="F9" s="3">
-        <v>5219700</v>
+        <v>10663100</v>
       </c>
       <c r="G9" s="3">
-        <v>10482200</v>
+        <v>4974300</v>
       </c>
       <c r="H9" s="3">
-        <v>5370400</v>
+        <v>9989500</v>
       </c>
       <c r="I9" s="3">
-        <v>11390000</v>
+        <v>5117900</v>
       </c>
       <c r="J9" s="3">
+        <v>10854600</v>
+      </c>
+      <c r="K9" s="3">
         <v>5447500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10072300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5112600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11323900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4968700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9871000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4695000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10603900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5053400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10019400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5232800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10430500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5278600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7314400</v>
+        <v>14161900</v>
       </c>
       <c r="E10" s="3">
-        <v>15149500</v>
+        <v>6970600</v>
       </c>
       <c r="F10" s="3">
-        <v>7745600</v>
+        <v>14437400</v>
       </c>
       <c r="G10" s="3">
-        <v>14959600</v>
+        <v>7381500</v>
       </c>
       <c r="H10" s="3">
-        <v>7362200</v>
+        <v>14256400</v>
       </c>
       <c r="I10" s="3">
-        <v>15149500</v>
+        <v>7016100</v>
       </c>
       <c r="J10" s="3">
+        <v>14437400</v>
+      </c>
+      <c r="K10" s="3">
         <v>7509200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14129700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7070700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13657800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6447300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12376700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6502400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12700900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6473900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12519200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6587400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>14030600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6838600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -968,8 +981,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,8 +1044,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1092,132 +1109,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>309900</v>
+        <v>4845900</v>
       </c>
       <c r="E14" s="3">
-        <v>213100</v>
+        <v>295400</v>
       </c>
       <c r="F14" s="3">
-        <v>-74700</v>
+        <v>203100</v>
       </c>
       <c r="G14" s="3">
-        <v>269500</v>
+        <v>-71200</v>
       </c>
       <c r="H14" s="3">
-        <v>30600</v>
+        <v>256800</v>
       </c>
       <c r="I14" s="3">
-        <v>211900</v>
+        <v>29200</v>
       </c>
       <c r="J14" s="3">
+        <v>202000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-24500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>229400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>123200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>218800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>16600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>68100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>17600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>824700</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>543000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1926200</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>438500</v>
+        <v>4938100</v>
       </c>
       <c r="E15" s="3">
-        <v>5300500</v>
+        <v>417900</v>
       </c>
       <c r="F15" s="3">
-        <v>449600</v>
+        <v>5051400</v>
       </c>
       <c r="G15" s="3">
-        <v>5133900</v>
+        <v>428400</v>
       </c>
       <c r="H15" s="3">
-        <v>382200</v>
+        <v>4892600</v>
       </c>
       <c r="I15" s="3">
-        <v>5236800</v>
+        <v>364200</v>
       </c>
       <c r="J15" s="3">
+        <v>4990700</v>
+      </c>
+      <c r="K15" s="3">
         <v>376100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4833800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>355300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4246600</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>3795800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>325000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3921400</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="3">
         <v>3759800</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="3">
         <v>4048500</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1237,132 +1263,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3">
-        <v>22330300</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3">
-        <v>22686800</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3">
-        <v>22200500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>26405600</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>21280700</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>21620400</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
+        <v>21157000</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>21392800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>22049300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3">
         <v>19667400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="3">
         <v>20511100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="3">
         <v>19971400</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="3">
         <v>23072400</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4008200</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2755000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4338900</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>-2045300</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3819800</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2625500</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4135000</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>2809200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>2932400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
         <v>2580300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
         <v>2793800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="3">
         <v>2567100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V18" s="3">
         <v>1388600</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1385,318 +1418,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
-        <v>26900</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-142100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
-        <v>98000</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
+        <v>25700</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-135400</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>-121200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>176300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3">
         <v>-186700</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="3">
         <v>-34800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="3">
         <v>-460000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="3">
         <v>189000</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3">
-        <v>9335600</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
-        <v>7746800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
-        <v>9675000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>2990900</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
+        <v>8885200</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
+        <v>7394400</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
+        <v>9220200</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>7521900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>7355300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>6189400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>6680300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>5866900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>5626100</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33100</v>
+        <v>607100</v>
       </c>
       <c r="E22" s="3">
-        <v>727600</v>
+        <v>31500</v>
       </c>
       <c r="F22" s="3">
-        <v>40400</v>
+        <v>693400</v>
       </c>
       <c r="G22" s="3">
-        <v>766800</v>
+        <v>38500</v>
       </c>
       <c r="H22" s="3">
-        <v>34300</v>
+        <v>730800</v>
       </c>
       <c r="I22" s="3">
-        <v>738700</v>
+        <v>32700</v>
       </c>
       <c r="J22" s="3">
+        <v>703900</v>
+      </c>
+      <c r="K22" s="3">
         <v>38000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>747000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>708600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>814700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>30700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>736000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
         <v>693400</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
         <v>792300</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3307500</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1846100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3698200</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>-2554300</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3152000</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1759300</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3524400</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>1941100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>2400100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3">
         <v>1578900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="3">
         <v>2022900</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23" s="3">
         <v>1413700</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="3">
         <v>785300</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-1640300</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3">
-        <v>601500</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1144100</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>486800</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1563200</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>573200</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1090400</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
         <v>603500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
         <v>887200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
         <v>613800</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3">
         <v>578900</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="3">
         <v>601400</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="3">
         <v>860400</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1757,132 +1806,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4947700</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1244600</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2554100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>-3041100</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4715200</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1186100</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2434000</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>1337600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>1512900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3">
         <v>965100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="3">
         <v>1444000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="3">
         <v>812300</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" s="3">
         <v>-75100</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3">
-        <v>4459000</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1135600</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2078800</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>-3232600</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4249400</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1082200</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1981100</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>1222300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>1031500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="3">
         <v>866300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="3">
         <v>1061400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="3">
         <v>674300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="3">
         <v>-615100</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1943,8 +2001,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1969,17 +2030,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1987,26 +2048,29 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>32500</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>4700</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2067,8 +2131,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2129,132 +2196,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-26900</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>142100</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-98000</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-98100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3">
+        <v>135400</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>121200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>-176300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="3">
         <v>186700</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="3">
         <v>34800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="3">
         <v>460000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V32" s="3">
         <v>-189000</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3">
-        <v>4459000</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1135600</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2078800</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>-3232600</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4249400</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1082200</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1981100</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>1222300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>1031500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="3">
         <v>866300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="3">
         <v>1093900</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" s="3">
         <v>674300</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" s="3">
         <v>-610400</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2315,137 +2391,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3">
-        <v>4459000</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1135600</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2078800</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>-3232600</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4249400</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1082200</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1981100</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>1222300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>1031500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="3">
         <v>866300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" s="3">
         <v>1093900</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="3">
         <v>674300</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V35" s="3">
         <v>-610400</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2468,8 +2553,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2492,566 +2578,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3">
-        <v>9977500</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3">
-        <v>7795800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3">
-        <v>7939200</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>7927900</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3">
+        <v>9508600</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7429400</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7566000</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>7011300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>6664500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
         <v>5935800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
         <v>6518800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3">
         <v>7637400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3">
         <v>7459600</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3984900</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3">
-        <v>5356900</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3">
-        <v>5942400</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>2728200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3797600</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
+        <v>5105100</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5663100</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
         <v>3346900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>3339300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3">
         <v>2595700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>6688200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="3">
         <v>4007700</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3">
         <v>2185600</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3">
-        <v>12456900</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3">
-        <v>12418900</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3">
-        <v>13167400</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>11950800</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3">
+        <v>11871400</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
+        <v>11835200</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3">
+        <v>12548500</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>12701600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>12547000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>11737600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
         <v>8477800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3">
         <v>6644400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3">
         <v>10732100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3">
-        <v>997100</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1060800</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1109800</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>933900</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
+        <v>950300</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1011000</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1057700</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>1118800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>1141500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>950900</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>927900</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3">
         <v>866200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="3">
         <v>961400</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3323400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2985300</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2450000</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>3126300</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3167200</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2845000</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2334800</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>2888100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>2202600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>2082900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>1776100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>2081300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
         <v>1960300</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3">
-        <v>30739900</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="3">
-        <v>29617800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3">
-        <v>30608800</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>26667100</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3">
+        <v>29295000</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3">
+        <v>28225600</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3">
+        <v>29170100</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3">
         <v>27066600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
         <v>25894900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3">
         <v>23302900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3">
         <v>24388700</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3">
         <v>21237000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="3">
         <v>23299000</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3459400</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3377300</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3148200</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>2571800</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3296800</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3218500</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3000200</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>4119800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>4735100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
         <v>4475400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>4250100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3">
         <v>5006300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3">
         <v>5912500</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3">
-        <v>44202500</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3">
-        <v>42378500</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
-        <v>85515300</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>43554900</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
+        <v>42124800</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3">
+        <v>40386500</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3">
+        <v>81495700</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>39752900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>32758000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>29446200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>29917900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
         <v>29300800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3">
         <v>30415800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3">
-        <v>52345000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3">
-        <v>51477800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
-        <v>51916300</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>44988500</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
+        <v>49884600</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
+        <v>49058100</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
+        <v>49476000</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>49138200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>48791100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
         <v>44900500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>46282100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3">
         <v>46679300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>49016000</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3112,8 +3226,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3174,70 +3291,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1225000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2296900</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2058000</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>2305600</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1167400</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2188900</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1961200</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>2198700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>2079500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
         <v>2103800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
         <v>2141900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3">
         <v>3008100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3">
         <v>3682200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3298,70 +3421,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3">
-        <v>131971800</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="3">
-        <v>129148200</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3">
-        <v>130756700</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>120088000</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="3">
+        <v>125768600</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3">
+        <v>123077700</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3">
+        <v>124610500</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>122276200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>114258700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3">
         <v>104228700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>106980600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3">
         <v>105231400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3">
         <v>111122200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3384,8 +3513,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3408,380 +3538,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3">
-        <v>7931800</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3">
-        <v>7836300</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3">
-        <v>8185400</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>7564800</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3">
+        <v>7559000</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3">
+        <v>7467900</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3">
+        <v>7800600</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>7630100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>7968000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>6849300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>7323200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3">
         <v>7014700</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3">
         <v>7290500</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3">
-        <v>11997600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3">
-        <v>10971000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3">
-        <v>11690100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>9440800</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
+        <v>11433600</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
+        <v>10455300</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
+        <v>11140600</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>13483900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>14199500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>11154600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>12309400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3">
         <v>9679400</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
         <v>15549500</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3">
-        <v>14730500</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3">
-        <v>14083700</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
-        <v>14138800</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>13803500</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3">
+        <v>14038100</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3">
+        <v>13421700</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3">
+        <v>13474200</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>13159200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>13669600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>13019000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>13447100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>12104000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>13152500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="3">
-        <v>34659900</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3">
-        <v>32891000</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="3">
-        <v>34014300</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>30809100</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3">
+        <v>33030700</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3">
+        <v>31345000</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3">
+        <v>32415500</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3">
         <v>34273200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3">
         <v>35837100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3">
         <v>31022900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3">
         <v>32601700</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3">
         <v>28798100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V60" s="3">
         <v>30406400</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>44136300</v>
       </c>
       <c r="E61" s="3">
-        <v>44055500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>41984700</v>
       </c>
       <c r="G61" s="3">
-        <v>46591300</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>44401300</v>
       </c>
       <c r="I61" s="3">
-        <v>47457300</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>45226600</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>41718700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>31641400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>30594700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>29500500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>32396300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>33933700</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3">
-        <v>7885300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
-        <v>7207800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
-        <v>7129400</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>7353500</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>7514600</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>6869000</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6794300</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>7724200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>7449900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>6666000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>7278300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>7459000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3">
         <v>7842200</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3842,8 +3991,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3904,8 +4056,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3966,70 +4121,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="3">
-        <v>89838300</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="3">
-        <v>89817500</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="3">
-        <v>91893800</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>85181200</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="3">
+        <v>85615500</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3">
+        <v>85595700</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3">
+        <v>87574400</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>86618300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>77980300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3">
         <v>70930800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>72227000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3">
         <v>71351800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3">
         <v>75100400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4052,8 +4213,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4114,8 +4276,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4176,8 +4341,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4238,8 +4406,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4300,70 +4471,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3">
-        <v>2267500</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1060800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1316900</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>-3036400</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2160900</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-1011000</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1255000</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>-2709200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>-2439100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>-2560500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2076800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3">
         <v>-3148300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3">
         <v>-3068300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4424,8 +4601,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4486,8 +4666,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4548,70 +4731,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3">
-        <v>42133500</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="3">
-        <v>39330800</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="3">
-        <v>38862800</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>34906700</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="3">
+        <v>40153100</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3">
+        <v>37482000</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3">
+        <v>37036100</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>35657900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>36278400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3">
         <v>33297900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>34753600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3">
         <v>33879600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3">
         <v>36021900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4672,137 +4861,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3">
-        <v>4459000</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1135600</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2078800</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>-3232600</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4249400</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1082200</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1981100</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>1222300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>1031500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P81" s="3">
         <v>866300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R81" s="3">
         <v>1093900</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T81" s="3">
         <v>674300</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V81" s="3">
         <v>-610400</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4825,70 +5023,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3">
-        <v>5300500</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3">
-        <v>5133900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3">
-        <v>5238100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>4938100</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5039700</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4904300</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4991800</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>4833800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>4246600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
         <v>3795800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R83" s="3">
         <v>3921400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T83" s="3">
         <v>3759800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V83" s="3">
         <v>4048500</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4949,8 +5151,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5011,8 +5216,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5073,8 +5281,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5135,8 +5346,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5197,70 +5411,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3">
-        <v>10254400</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3">
-        <v>5299300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3">
-        <v>7412400</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>6257300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3">
+        <v>9760700</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3">
+        <v>5061900</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3">
+        <v>7064000</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>4869100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>6303700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3">
         <v>4586300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R89" s="3">
         <v>6083400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T89" s="3">
         <v>5331700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V89" s="3">
         <v>5744600</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5283,70 +5503,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-6309900</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-4158800</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-5233200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-4886800</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-6013300</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3963400</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4987200</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-4882100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-5017900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1928300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3733200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3">
         <v>-3787800</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3">
         <v>-5104900</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5407,8 +5631,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5469,70 +5696,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-2719500</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-4096400</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-6384600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-3803400</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-2591700</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-3903800</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6084500</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-4891500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-5612900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3">
         <v>-4180100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
         <v>-5231800</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3">
         <v>-3677900</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3">
         <v>-4880700</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5555,70 +5788,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1552700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1302200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1241000</v>
       </c>
       <c r="G96" s="3">
-        <v>-651700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-621100</v>
       </c>
       <c r="I96" s="3">
-        <v>-975100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-929300</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1248200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-941600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1168300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-746100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-624500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5679,8 +5916,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5741,8 +5981,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5803,190 +6046,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-5304200</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1323000</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-352800</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-4059100</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-5054900</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1260800</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-336200</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>403500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-423500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3">
         <v>-848800</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1973600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1098400</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V100" s="3">
         <v>-103300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-49000</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="D101" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>2400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>2400</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R101" s="3">
         <v>3400</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3">
         <v>-48200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V101" s="3">
         <v>-129100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3">
-        <v>2181700</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-143300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3">
-        <v>638200</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-1580700</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3">
+        <v>2079200</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-136600</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3">
+        <v>608200</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>383500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>269700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3">
         <v>-443600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3">
         <v>-1118600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3">
         <v>507100</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V102" s="3">
         <v>631500</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,300 +665,313 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24360300</v>
+        <v>11864600</v>
       </c>
       <c r="E8" s="3">
-        <v>12041800</v>
+        <v>23560900</v>
       </c>
       <c r="F8" s="3">
-        <v>25100500</v>
+        <v>11646700</v>
       </c>
       <c r="G8" s="3">
-        <v>12355900</v>
+        <v>24276800</v>
       </c>
       <c r="H8" s="3">
-        <v>24245900</v>
+        <v>11950400</v>
       </c>
       <c r="I8" s="3">
-        <v>12134100</v>
+        <v>23450300</v>
       </c>
       <c r="J8" s="3">
+        <v>11735900</v>
+      </c>
+      <c r="K8" s="3">
         <v>25291900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12956700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24202100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12183300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24981700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11416000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22247700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11197400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23304900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11527300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22538500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11820300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>24461000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12117200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10198500</v>
+        <v>4852900</v>
       </c>
       <c r="E9" s="3">
-        <v>5071200</v>
+        <v>9863800</v>
       </c>
       <c r="F9" s="3">
-        <v>10663100</v>
+        <v>4904800</v>
       </c>
       <c r="G9" s="3">
-        <v>4974300</v>
+        <v>10313200</v>
       </c>
       <c r="H9" s="3">
-        <v>9989500</v>
+        <v>4811100</v>
       </c>
       <c r="I9" s="3">
-        <v>5117900</v>
+        <v>9661700</v>
       </c>
       <c r="J9" s="3">
+        <v>4950000</v>
+      </c>
+      <c r="K9" s="3">
         <v>10854600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5447500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10072300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5112600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11323900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4968700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9871000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4695000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10603900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5053400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10019400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5232800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10430500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5278600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14161900</v>
+        <v>7011700</v>
       </c>
       <c r="E10" s="3">
-        <v>6970600</v>
+        <v>13697100</v>
       </c>
       <c r="F10" s="3">
+        <v>6741900</v>
+      </c>
+      <c r="G10" s="3">
+        <v>13963600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>7139300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>13788600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6785900</v>
+      </c>
+      <c r="K10" s="3">
         <v>14437400</v>
       </c>
-      <c r="G10" s="3">
-        <v>7381500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>14256400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>7016100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>14437400</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7509200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14129700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7070700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13657800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6447300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12376700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6502400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12700900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6473900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12519200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6587400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>14030600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6838600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -982,8 +995,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,8 +1061,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,138 +1129,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4845900</v>
+        <v>36100</v>
       </c>
       <c r="E14" s="3">
-        <v>295400</v>
+        <v>4686900</v>
       </c>
       <c r="F14" s="3">
-        <v>203100</v>
+        <v>221300</v>
       </c>
       <c r="G14" s="3">
-        <v>-71200</v>
+        <v>196500</v>
       </c>
       <c r="H14" s="3">
-        <v>256800</v>
+        <v>-68900</v>
       </c>
       <c r="I14" s="3">
-        <v>29200</v>
+        <v>248400</v>
       </c>
       <c r="J14" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K14" s="3">
         <v>202000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-24500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>229400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>123200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>218800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>16600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>68100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>17600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>824700</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>543000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1926200</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4938100</v>
+        <v>409900</v>
       </c>
       <c r="E15" s="3">
-        <v>417900</v>
+        <v>4776100</v>
       </c>
       <c r="F15" s="3">
-        <v>5051400</v>
+        <v>404200</v>
       </c>
       <c r="G15" s="3">
-        <v>428400</v>
+        <v>4885600</v>
       </c>
       <c r="H15" s="3">
-        <v>4892600</v>
+        <v>414400</v>
       </c>
       <c r="I15" s="3">
-        <v>364200</v>
+        <v>4732100</v>
       </c>
       <c r="J15" s="3">
+        <v>352300</v>
+      </c>
+      <c r="K15" s="3">
         <v>4990700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>376100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4833800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>355300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4246600</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
         <v>3795800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>325000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3921400</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3">
         <v>3759800</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3">
         <v>4048500</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1264,138 +1290,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>26405600</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>21280700</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3">
-        <v>21620400</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>25539100</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>20582400</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3">
+        <v>20910900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>21157000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>21392800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>22049300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>19667400</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="3">
         <v>20511100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="3">
         <v>19971400</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="3">
         <v>23072400</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-2045300</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3819800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2625500</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1978200</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3694400</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2539300</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>4135000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>2809200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>2932400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2580300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
         <v>2793800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="3">
         <v>2567100</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="3">
         <v>1388600</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1419,333 +1452,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>98100</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
-        <v>25700</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-135400</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>94800</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>24800</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>93400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>-121200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>176300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-186700</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3">
         <v>-34800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="3">
         <v>-460000</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="3">
         <v>189000</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>2990900</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
-        <v>8885200</v>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
-        <v>7394400</v>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>9220200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>7521900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>7355300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>6189400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>6680300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>5866900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>5626100</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>607100</v>
+        <v>31600</v>
       </c>
       <c r="E22" s="3">
-        <v>31500</v>
+        <v>587100</v>
       </c>
       <c r="F22" s="3">
+        <v>30500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>670700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>37300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>706800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>703900</v>
+      </c>
+      <c r="L22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>747000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="O22" s="3">
+        <v>708600</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>814700</v>
+      </c>
+      <c r="R22" s="3">
+        <v>30700</v>
+      </c>
+      <c r="S22" s="3">
+        <v>736000</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>693400</v>
       </c>
-      <c r="G22" s="3">
-        <v>38500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>730800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>32700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>703900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>38000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>747000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>34700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>708600</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" s="3">
-        <v>814700</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>30700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>736000</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T22" s="3">
-        <v>693400</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
         <v>792300</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-2554300</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3152000</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1759300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2470500</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3048600</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1701600</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>3524400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>1941100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>2400100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1578900</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="3">
         <v>2022900</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="3">
         <v>1413700</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23" s="3">
         <v>785300</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>486800</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-1563200</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3">
-        <v>573200</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
+        <v>470800</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-1511900</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
+        <v>554400</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>1090400</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>603500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>887200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
         <v>613800</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
         <v>578900</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="3">
         <v>601400</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="3">
         <v>860400</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1809,138 +1858,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-3041100</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="3">
-        <v>4715200</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1186100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2941300</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4560400</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1147200</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>2434000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>1337600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>1512900</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>965100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3">
         <v>1444000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" s="3">
         <v>812300</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W26" s="3">
         <v>-75100</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-3232600</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4249400</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1082200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3272100</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4247700</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3">
+        <v>908900</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>1981100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>1222300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>1031500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>866300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3">
         <v>1061400</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="3">
         <v>674300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27" s="3">
         <v>-615100</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2004,8 +2062,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2033,17 +2094,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2051,26 +2112,29 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>32500</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>4700</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2134,8 +2198,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2199,138 +2266,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-98100</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3">
-        <v>135400</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
+        <v>131000</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>-93400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>121200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>-176300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>186700</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="3">
         <v>34800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="3">
         <v>460000</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W32" s="3">
         <v>-189000</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-3232600</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4249400</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1082200</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3272100</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4247700</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3">
+        <v>908900</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>1981100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>1222300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>1031500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>866300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3">
         <v>1093900</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" s="3">
         <v>674300</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33" s="3">
         <v>-610400</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2394,143 +2470,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-3232600</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3">
-        <v>4249400</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1082200</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3272100</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4247700</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
+        <v>908900</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>1981100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>1222300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>1031500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>866300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="3">
         <v>1093900</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="3">
         <v>674300</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W35" s="3">
         <v>-610400</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2554,8 +2639,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2579,593 +2665,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>7927900</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3">
-        <v>9508600</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3">
-        <v>7429400</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7667700</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3">
+        <v>9196500</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3">
+        <v>7185600</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>7566000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>7011300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>6664500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>5935800</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>6518800</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
         <v>7637400</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3">
         <v>7459600</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>2728200</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3">
-        <v>3797600</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3">
-        <v>5105100</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2638700</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3673000</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
+        <v>4937600</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>5663100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>3346900</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>3339300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3">
         <v>2595700</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>6688200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" s="3">
         <v>4007700</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3">
         <v>2185600</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>11950800</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3">
-        <v>11871400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3">
-        <v>11835200</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
+        <v>11558600</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3">
+        <v>11481800</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
+        <v>11446800</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>12548500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>12701600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>12547000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>11737600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>8477800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>6644400</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3">
         <v>10732100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>933900</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3">
-        <v>950300</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1011000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
+        <v>903300</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
+        <v>919100</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
+        <v>977800</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>1057700</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>1118800</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>1141500</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>950900</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>927900</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>866200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="3">
         <v>961400</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>3126300</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3167200</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2845000</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3023700</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3063200</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2751600</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>2334800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>2888100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>2202600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2082900</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>1776100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>2081300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
         <v>1960300</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>26667100</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="3">
-        <v>29295000</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3">
-        <v>28225600</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3">
+        <v>25792000</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3">
+        <v>28333600</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3">
+        <v>27299400</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
         <v>29170100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>27066600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>25894900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>23302900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>24388700</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3">
         <v>21237000</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="3">
         <v>23299000</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>2571800</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3">
-        <v>3296800</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3218500</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2487400</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3188600</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3112900</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>3000200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>4119800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>4735100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>4475400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>4250100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
         <v>5006300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3">
         <v>5912500</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>43554900</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3">
-        <v>42124800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3">
-        <v>40386500</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
+        <v>42125600</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3">
+        <v>40742400</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3">
+        <v>39061200</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>81495700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>39752900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>32758000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>29446200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>29917900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>29300800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
         <v>30415800</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>44988500</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3">
-        <v>49884600</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3">
-        <v>49058100</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
+        <v>43512100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
+        <v>48247600</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
+        <v>47448200</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>49476000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>49138200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>48791100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>44900500</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>46282100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>46679300</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>49016000</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3229,8 +3343,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3294,73 +3411,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>2305600</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1167400</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2188900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2230000</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1129100</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2117100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>1961200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>2198700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>2079500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2103800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>2141900</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3">
         <v>3008100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52" s="3">
         <v>3682200</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3424,73 +3547,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>120088000</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="3">
-        <v>125768600</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3">
-        <v>123077700</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3">
+        <v>116147100</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3">
+        <v>121641300</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3">
+        <v>119038800</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>124610500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>122276200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>114258700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>104228700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>106980600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
         <v>105231400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3">
         <v>111122200</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3514,8 +3643,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3539,398 +3669,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>7564800</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7559000</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3">
-        <v>7467900</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7316600</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3">
+        <v>7310900</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
+        <v>7222900</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>7800600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>7630100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>7968000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>6849300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>7323200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>7014700</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="3">
         <v>7290500</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>9440800</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3">
-        <v>11433600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3">
-        <v>10455300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9131000</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
+        <v>11058400</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
+        <v>10112200</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>11140600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>13483900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>14199500</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>11154600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>12309400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>9679400</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
         <v>15549500</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>13803500</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3">
-        <v>14038100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3">
-        <v>13421700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13350500</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3">
+        <v>13577400</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3">
+        <v>12981300</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>13474200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>13159200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>13669600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>13019000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>13447100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>12104000</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3">
         <v>13152500</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>30809100</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3">
-        <v>33030700</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3">
-        <v>31345000</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3">
+        <v>29798100</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="3">
+        <v>31946800</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3">
+        <v>30316300</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>32415500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>34273200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>35837100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>31022900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>32601700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3">
         <v>28798100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W60" s="3">
         <v>30406400</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>44136300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>42687900</v>
       </c>
       <c r="F61" s="3">
-        <v>41984700</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>40607000</v>
       </c>
       <c r="H61" s="3">
-        <v>44401300</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>42944200</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>45226600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>41718700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>31641400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>30594700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>29500500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>32396300</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>33933700</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>7353500</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3">
-        <v>7514600</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
-        <v>6869000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7112200</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>7268000</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6643600</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>6794300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>7724200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>7449900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>6666000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>7278300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>7459000</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3">
         <v>7842200</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3994,8 +4143,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4059,8 +4211,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4124,73 +4279,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>85181200</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="3">
-        <v>85615500</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3">
-        <v>85595700</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="3">
+        <v>82385900</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="3">
+        <v>82805900</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3">
+        <v>82786700</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>87574400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>86618300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>77980300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>70930800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>72227000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>71351800</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3">
         <v>75100400</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4214,8 +4375,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4279,8 +4441,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4344,8 +4509,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4409,8 +4577,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4474,73 +4645,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-3036400</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3">
-        <v>2160900</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1011000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2936800</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3">
+        <v>2090000</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-977800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1255000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>-2709200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-2439100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2560500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-2076800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-3148300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3">
         <v>-3068300</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4604,8 +4781,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4669,8 +4849,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4734,73 +4917,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>34906700</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="3">
-        <v>40153100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="3">
-        <v>37482000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
+        <v>33761200</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3">
+        <v>38835400</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3">
+        <v>36252000</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
         <v>37036100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>35657900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>36278400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>33297900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>34753600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>33879600</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3">
         <v>36021900</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4864,143 +5053,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-3232600</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="3">
-        <v>4249400</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1082200</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3272100</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3">
+        <v>4247700</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3">
+        <v>908900</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>1981100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>1222300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>1031500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>866300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" s="3">
         <v>1093900</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U81" s="3">
         <v>674300</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W81" s="3">
         <v>-610400</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5024,73 +5222,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>4938100</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="3">
-        <v>5039700</v>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="3">
-        <v>4904300</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3">
+        <v>-4724200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>4991800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>4833800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>4246600</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3795800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3">
         <v>3921400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" s="3">
         <v>3759800</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W83" s="3">
         <v>4048500</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5154,8 +5356,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5219,8 +5424,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5284,8 +5492,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5349,8 +5560,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5414,73 +5628,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>6257300</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="3">
-        <v>9760700</v>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="3">
-        <v>5061900</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-6609800</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>7064000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>4869100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>6303700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>4586300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3">
         <v>6083400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" s="3">
         <v>5331700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W89" s="3">
         <v>5744600</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5504,73 +5724,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-4886800</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>-6013300</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>-3963400</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
+        <v>5676000</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4987200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-4882100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-5017900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1928300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3733200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3">
         <v>-3787800</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3">
         <v>-5104900</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5634,8 +5858,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5699,73 +5926,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-3803400</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>-2591700</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
-        <v>-3903800</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3">
+        <v>6804000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6084500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4891500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-5612900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-4180100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-5231800</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3">
         <v>-3677900</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
         <v>-4880700</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5789,73 +6022,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1552700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1241000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-621100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>1496100</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-929300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1248200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-941600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1168300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-746100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-624500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5919,8 +6156,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5984,8 +6224,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6049,199 +6292,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-4059100</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
-        <v>-5054900</v>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="3">
-        <v>-1260800</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1281500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>-336200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>403500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-423500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-848800</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1973600</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1098400</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W100" s="3">
         <v>-103300</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>24500</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="3">
-        <v>-46700</v>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
-        <v>-22200</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>2400</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>2400</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3">
         <v>3400</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="3">
         <v>-48200</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W101" s="3">
         <v>-129100</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-1580700</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="3">
-        <v>2079200</v>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="3">
-        <v>-136600</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1088500</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>608200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>383500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>269700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-443600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3">
         <v>-1118600</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3">
         <v>507100</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W102" s="3">
         <v>631500</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -665,12 +665,8 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -772,25 +768,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11864600</v>
+        <v>11463300</v>
       </c>
       <c r="E8" s="3">
-        <v>23560900</v>
+        <v>22764000</v>
       </c>
       <c r="F8" s="3">
-        <v>11646700</v>
+        <v>11252700</v>
       </c>
       <c r="G8" s="3">
-        <v>24276800</v>
+        <v>23455700</v>
       </c>
       <c r="H8" s="3">
-        <v>11950400</v>
+        <v>11546200</v>
       </c>
       <c r="I8" s="3">
-        <v>23450300</v>
+        <v>22657100</v>
       </c>
       <c r="J8" s="3">
-        <v>11735900</v>
+        <v>11338900</v>
       </c>
       <c r="K8" s="3">
         <v>25291900</v>
@@ -840,25 +836,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4852900</v>
+        <v>4688700</v>
       </c>
       <c r="E9" s="3">
-        <v>9863800</v>
+        <v>9530200</v>
       </c>
       <c r="F9" s="3">
-        <v>4904800</v>
+        <v>4738900</v>
       </c>
       <c r="G9" s="3">
-        <v>10313200</v>
+        <v>9964400</v>
       </c>
       <c r="H9" s="3">
-        <v>4811100</v>
+        <v>4648400</v>
       </c>
       <c r="I9" s="3">
-        <v>9661700</v>
+        <v>9334900</v>
       </c>
       <c r="J9" s="3">
-        <v>4950000</v>
+        <v>4782500</v>
       </c>
       <c r="K9" s="3">
         <v>10854600</v>
@@ -908,25 +904,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7011700</v>
+        <v>6774600</v>
       </c>
       <c r="E10" s="3">
-        <v>13697100</v>
+        <v>13233800</v>
       </c>
       <c r="F10" s="3">
-        <v>6741900</v>
+        <v>6513800</v>
       </c>
       <c r="G10" s="3">
-        <v>13963600</v>
+        <v>13491300</v>
       </c>
       <c r="H10" s="3">
-        <v>7139300</v>
+        <v>6897800</v>
       </c>
       <c r="I10" s="3">
-        <v>13788600</v>
+        <v>13322200</v>
       </c>
       <c r="J10" s="3">
-        <v>6785900</v>
+        <v>6556400</v>
       </c>
       <c r="K10" s="3">
         <v>14437400</v>
@@ -1138,25 +1134,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>36100</v>
+        <v>34900</v>
       </c>
       <c r="E14" s="3">
-        <v>4686900</v>
+        <v>4528400</v>
       </c>
       <c r="F14" s="3">
-        <v>221300</v>
+        <v>213800</v>
       </c>
       <c r="G14" s="3">
-        <v>196500</v>
+        <v>189800</v>
       </c>
       <c r="H14" s="3">
-        <v>-68900</v>
+        <v>-66500</v>
       </c>
       <c r="I14" s="3">
-        <v>248400</v>
+        <v>240000</v>
       </c>
       <c r="J14" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="K14" s="3">
         <v>202000</v>
@@ -1206,25 +1202,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>409900</v>
+        <v>396000</v>
       </c>
       <c r="E15" s="3">
-        <v>4776100</v>
+        <v>4614500</v>
       </c>
       <c r="F15" s="3">
-        <v>404200</v>
+        <v>390500</v>
       </c>
       <c r="G15" s="3">
-        <v>4885600</v>
+        <v>4720400</v>
       </c>
       <c r="H15" s="3">
-        <v>414400</v>
+        <v>400400</v>
       </c>
       <c r="I15" s="3">
-        <v>4732100</v>
+        <v>4572000</v>
       </c>
       <c r="J15" s="3">
-        <v>352300</v>
+        <v>340400</v>
       </c>
       <c r="K15" s="3">
         <v>4990700</v>
@@ -1300,19 +1296,19 @@
         <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>25539100</v>
+        <v>24675300</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="3">
-        <v>20582400</v>
+        <v>19886200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="3">
-        <v>20910900</v>
+        <v>20203700</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>8</v>
@@ -1368,19 +1364,19 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>-1978200</v>
+        <v>-1911300</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="3">
-        <v>3694400</v>
+        <v>3569500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="3">
-        <v>2539300</v>
+        <v>2453500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>8</v>
@@ -1462,19 +1458,19 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>94800</v>
+        <v>91600</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="3">
-        <v>-131000</v>
+        <v>-126500</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>8</v>
@@ -1595,25 +1591,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31600</v>
+        <v>30500</v>
       </c>
       <c r="E22" s="3">
-        <v>587100</v>
+        <v>567300</v>
       </c>
       <c r="F22" s="3">
+        <v>29500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>648000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>682900</v>
+      </c>
+      <c r="J22" s="3">
         <v>30500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>670700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>37300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>706800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>31600</v>
       </c>
       <c r="K22" s="3">
         <v>703900</v>
@@ -1666,19 +1662,19 @@
         <v>8</v>
       </c>
       <c r="E23" s="3">
-        <v>-2470500</v>
+        <v>-2386900</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="3">
-        <v>3048600</v>
+        <v>2945500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="3">
-        <v>1701600</v>
+        <v>1644000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>8</v>
@@ -1734,19 +1730,19 @@
         <v>8</v>
       </c>
       <c r="E24" s="3">
-        <v>470800</v>
+        <v>454900</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="3">
-        <v>-1511900</v>
+        <v>-1460700</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="3">
-        <v>554400</v>
+        <v>535600</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
@@ -1870,19 +1866,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>-2941300</v>
+        <v>-2841800</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="3">
-        <v>4560400</v>
+        <v>4406200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="3">
-        <v>1147200</v>
+        <v>1108400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>8</v>
@@ -1938,19 +1934,19 @@
         <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>-3272100</v>
+        <v>-3161500</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="3">
-        <v>4247700</v>
+        <v>4104000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="3">
-        <v>908900</v>
+        <v>878200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>8</v>
@@ -2278,19 +2274,19 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-94800</v>
+        <v>-91600</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="3">
-        <v>-24800</v>
+        <v>-24000</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="3">
-        <v>131000</v>
+        <v>126500</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>8</v>
@@ -2346,19 +2342,19 @@
         <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>-3272100</v>
+        <v>-3161500</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>4247700</v>
+        <v>4104000</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="3">
-        <v>908900</v>
+        <v>878200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>8</v>
@@ -2482,19 +2478,19 @@
         <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>-3272100</v>
+        <v>-3161500</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="3">
-        <v>4247700</v>
+        <v>4104000</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="3">
-        <v>908900</v>
+        <v>878200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>8</v>
@@ -2671,23 +2667,23 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
+      <c r="D41" s="3">
+        <v>7408400</v>
       </c>
       <c r="E41" s="3">
-        <v>7667700</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
+        <v>8885500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6942600</v>
       </c>
       <c r="G41" s="3">
-        <v>9196500</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3">
-        <v>7185600</v>
+        <v>7070200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6501800</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -2739,23 +2735,23 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>2549500</v>
       </c>
       <c r="E42" s="3">
-        <v>2638700</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+        <v>3548700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4770500</v>
       </c>
       <c r="G42" s="3">
-        <v>3673000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3">
-        <v>4937600</v>
+        <v>5292000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3103600</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2807,23 +2803,23 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>11167600</v>
       </c>
       <c r="E43" s="3">
-        <v>11558600</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
+        <v>11093500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>11059600</v>
       </c>
       <c r="G43" s="3">
-        <v>11481800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3">
-        <v>11446800</v>
+        <v>11726200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>11778600</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -2875,23 +2871,23 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>872700</v>
       </c>
       <c r="E44" s="3">
-        <v>903300</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
+        <v>888000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>944700</v>
       </c>
       <c r="G44" s="3">
-        <v>919100</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3">
-        <v>977800</v>
+        <v>988400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1037500</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -2943,23 +2939,23 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>2921500</v>
       </c>
       <c r="E45" s="3">
-        <v>3023700</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+        <v>2959600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2658500</v>
       </c>
       <c r="G45" s="3">
-        <v>3063200</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2751600</v>
+        <v>2181800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2678200</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -3011,23 +3007,23 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>24919700</v>
       </c>
       <c r="E46" s="3">
-        <v>25792000</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
+        <v>27375300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>26376000</v>
       </c>
       <c r="G46" s="3">
-        <v>28333600</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3">
-        <v>27299400</v>
+        <v>27258600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>25099700</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -3079,23 +3075,23 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>2403300</v>
       </c>
       <c r="E47" s="3">
-        <v>2487400</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
+        <v>3080700</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3007600</v>
       </c>
       <c r="G47" s="3">
-        <v>3188600</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3112900</v>
+        <v>2803600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3820400</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3147,23 +3143,23 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>40700800</v>
       </c>
       <c r="E48" s="3">
-        <v>42125600</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
+        <v>39364400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>37740000</v>
       </c>
       <c r="G48" s="3">
-        <v>40742400</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
-        <v>39061200</v>
+        <v>76155300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>36864000</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -3215,23 +3211,23 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>42040400</v>
       </c>
       <c r="E49" s="3">
-        <v>43512100</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
+        <v>46615700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>45843300</v>
       </c>
       <c r="G49" s="3">
-        <v>48247600</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
-        <v>47448200</v>
+        <v>46233900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>45567300</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -3419,23 +3415,23 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>2154500</v>
       </c>
       <c r="E52" s="3">
-        <v>2230000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+        <v>1090900</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2045500</v>
       </c>
       <c r="G52" s="3">
-        <v>1129100</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2117100</v>
+        <v>1832700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2038900</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -3555,23 +3551,23 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
+      <c r="D54" s="3">
+        <v>112218600</v>
       </c>
       <c r="E54" s="3">
-        <v>116147100</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
+        <v>117527000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>115012500</v>
       </c>
       <c r="G54" s="3">
-        <v>121641300</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3">
-        <v>119038800</v>
+        <v>116444800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>113390300</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -3675,23 +3671,23 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>7069100</v>
       </c>
       <c r="E57" s="3">
-        <v>7316600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
+        <v>7063600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6978600</v>
       </c>
       <c r="G57" s="3">
-        <v>7310900</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3">
-        <v>7222900</v>
+        <v>7289500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>7075600</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -3743,23 +3739,23 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>8822200</v>
       </c>
       <c r="E58" s="3">
-        <v>9131000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+        <v>10684400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9770200</v>
       </c>
       <c r="G58" s="3">
-        <v>11058400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3">
-        <v>10112200</v>
+        <v>10410600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>12504000</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -3811,23 +3807,23 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="3">
+        <v>12898900</v>
       </c>
       <c r="E59" s="3">
-        <v>13350500</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
+        <v>13118200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>12542200</v>
       </c>
       <c r="G59" s="3">
-        <v>13577400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
-        <v>12981300</v>
+        <v>12591300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>12202900</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -3879,23 +3875,23 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
+      <c r="D60" s="3">
+        <v>28790200</v>
       </c>
       <c r="E60" s="3">
-        <v>29798100</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
+        <v>30866200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>29290900</v>
       </c>
       <c r="G60" s="3">
-        <v>31946800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="3">
-        <v>30316300</v>
+        <v>30291300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>31782600</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -3948,22 +3944,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>41244000</v>
       </c>
       <c r="E61" s="3">
-        <v>42687900</v>
+        <v>39233500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>41491700</v>
       </c>
       <c r="G61" s="3">
-        <v>40607000</v>
+        <v>42262900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>38686900</v>
       </c>
       <c r="I61" s="3">
-        <v>42944200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4015,23 +4011,23 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>6871600</v>
       </c>
       <c r="E62" s="3">
-        <v>7112200</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+        <v>7022200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6418900</v>
       </c>
       <c r="G62" s="3">
-        <v>7268000</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
-        <v>6643600</v>
+        <v>6349100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>7162900</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -4287,23 +4283,23 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
+      <c r="D66" s="3">
+        <v>79599300</v>
       </c>
       <c r="E66" s="3">
-        <v>82385900</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
+        <v>80005200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>79986600</v>
       </c>
       <c r="G66" s="3">
-        <v>82805900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="3">
-        <v>82786700</v>
+        <v>81835700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>80323700</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -4653,23 +4649,23 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>-2837500</v>
       </c>
       <c r="E72" s="3">
-        <v>-2936800</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
+        <v>2019300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-944700</v>
       </c>
       <c r="G72" s="3">
-        <v>2090000</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-977800</v>
+        <v>-1172700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-2512400</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -4925,23 +4921,23 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
+      <c r="D76" s="3">
+        <v>32619300</v>
       </c>
       <c r="E76" s="3">
-        <v>33761200</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
+        <v>37521800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>35025800</v>
       </c>
       <c r="G76" s="3">
-        <v>38835400</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="3">
-        <v>36252000</v>
+        <v>34609100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>33066600</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -5138,19 +5134,19 @@
         <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>-3272100</v>
+        <v>-3161500</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="3">
-        <v>4247700</v>
+        <v>4104000</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I81" s="3">
-        <v>908900</v>
+        <v>878200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>8</v>
@@ -5244,7 +5240,7 @@
         <v>8</v>
       </c>
       <c r="I83" s="3">
-        <v>-4724200</v>
+        <v>-4564400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -5652,7 +5648,7 @@
         <v>8</v>
       </c>
       <c r="I89" s="3">
-        <v>-6609800</v>
+        <v>-6386200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
@@ -5746,7 +5742,7 @@
         <v>8</v>
       </c>
       <c r="I91" s="3">
-        <v>5676000</v>
+        <v>5484000</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -5950,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="I94" s="3">
-        <v>6804000</v>
+        <v>6573800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -6044,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>1496100</v>
+        <v>1445500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6316,7 +6312,7 @@
         <v>8</v>
       </c>
       <c r="I100" s="3">
-        <v>-1281500</v>
+        <v>-1238200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -6384,7 +6380,7 @@
         <v>8</v>
       </c>
       <c r="I101" s="3">
-        <v>-24800</v>
+        <v>-24000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -6452,7 +6448,7 @@
         <v>8</v>
       </c>
       <c r="I102" s="3">
-        <v>-1088500</v>
+        <v>-1051600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,308 +666,333 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11463300</v>
+        <v>10983100</v>
       </c>
       <c r="E8" s="3">
-        <v>22764000</v>
+        <v>22475700</v>
       </c>
       <c r="F8" s="3">
-        <v>11252700</v>
+        <v>10906300</v>
       </c>
       <c r="G8" s="3">
-        <v>23455700</v>
+        <v>21657900</v>
       </c>
       <c r="H8" s="3">
-        <v>11546200</v>
+        <v>10705900</v>
       </c>
       <c r="I8" s="3">
+        <v>22315900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10985100</v>
+      </c>
+      <c r="K8" s="3">
         <v>22657100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11338900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>25291900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12956700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>24202100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>12183300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>24981700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>11416000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>22247700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>11197400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>23304900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>11527300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>22538500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>11820300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>24461000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>12117200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4688700</v>
+        <v>4674700</v>
       </c>
       <c r="E9" s="3">
-        <v>9530200</v>
+        <v>9587100</v>
       </c>
       <c r="F9" s="3">
-        <v>4738900</v>
+        <v>4460900</v>
       </c>
       <c r="G9" s="3">
-        <v>9964400</v>
+        <v>9067100</v>
       </c>
       <c r="H9" s="3">
-        <v>4648400</v>
+        <v>4508600</v>
       </c>
       <c r="I9" s="3">
+        <v>9480200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4422500</v>
+      </c>
+      <c r="K9" s="3">
         <v>9334900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4782500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10854600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5447500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>10072300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5112600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>11323900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4968700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>9871000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4695000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>10603900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>5053400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>10019400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>5232800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>10430500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>5278600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6774600</v>
+        <v>6308400</v>
       </c>
       <c r="E10" s="3">
-        <v>13233800</v>
+        <v>12888600</v>
       </c>
       <c r="F10" s="3">
-        <v>6513800</v>
+        <v>6445400</v>
       </c>
       <c r="G10" s="3">
-        <v>13491300</v>
+        <v>12590800</v>
       </c>
       <c r="H10" s="3">
-        <v>6897800</v>
+        <v>6197300</v>
       </c>
       <c r="I10" s="3">
+        <v>12835700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6562600</v>
+      </c>
+      <c r="K10" s="3">
         <v>13322200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6556400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>14437400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>7509200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>14129700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>7070700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>13657800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6447300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>12376700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>6502400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>12700900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>6473900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>12519200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>6587400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>14030600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>6838600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,144 +1161,162 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>34900</v>
+        <v>82000</v>
       </c>
       <c r="E14" s="3">
-        <v>4528400</v>
+        <v>1560000</v>
       </c>
       <c r="F14" s="3">
-        <v>213800</v>
+        <v>33200</v>
       </c>
       <c r="G14" s="3">
-        <v>189800</v>
+        <v>4308300</v>
       </c>
       <c r="H14" s="3">
-        <v>-66500</v>
+        <v>203400</v>
       </c>
       <c r="I14" s="3">
+        <v>180600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-63300</v>
+      </c>
+      <c r="K14" s="3">
         <v>240000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>27300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>202000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-24500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>229400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>123200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>218800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>16600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>68100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>17600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>824700</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>543000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>5900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>1926200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>396000</v>
+        <v>395400</v>
       </c>
       <c r="E15" s="3">
-        <v>4614500</v>
+        <v>4488900</v>
       </c>
       <c r="F15" s="3">
-        <v>390500</v>
+        <v>376800</v>
       </c>
       <c r="G15" s="3">
-        <v>4720400</v>
+        <v>4390300</v>
       </c>
       <c r="H15" s="3">
-        <v>400400</v>
+        <v>371600</v>
       </c>
       <c r="I15" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>380900</v>
+      </c>
+      <c r="K15" s="3">
         <v>4572000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>340400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>4990700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>376100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>4833800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>355300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>4246600</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
         <v>3795800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>325000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>3921400</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3">
         <v>3759800</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="3">
         <v>4048500</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,8 +1338,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1296,67 +1349,73 @@
         <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>24675300</v>
+        <v>18040800</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="3">
-        <v>19886200</v>
+        <v>23476300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="3">
+        <v>18919900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>20203700</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>21157000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>21392800</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>22049300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="3">
         <v>19667400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="3">
         <v>20511100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="3">
         <v>19971400</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="3">
         <v>23072400</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1364,67 +1423,73 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>-1911300</v>
+        <v>4434900</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="3">
-        <v>3569500</v>
+        <v>-1818400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="3">
+        <v>3396000</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>2453500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>4135000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>2809200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2932400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
         <v>2580300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="3">
         <v>2793800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="3">
         <v>2567100</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1388600</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,8 +1514,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1458,203 +1525,221 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>91600</v>
+        <v>87200</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="3">
-        <v>24000</v>
+        <v>87200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="3">
+        <v>22800</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>-126500</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>93400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>-121200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>176300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3">
         <v>-186700</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="3">
         <v>-34800</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="3">
         <v>-460000</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="3">
         <v>189000</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="E21" s="3">
+        <v>13401400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
+      <c r="G21" s="3">
+        <v>2659100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+      <c r="I21" s="3">
+        <v>12259700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>9220200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>7521900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>7355300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>6189400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>6680300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>5866900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
         <v>5626100</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>446300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>29100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>539700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>616500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K22" s="3">
+        <v>682900</v>
+      </c>
+      <c r="L22" s="3">
         <v>30500</v>
       </c>
-      <c r="E22" s="3">
-        <v>567300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>29500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>648000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>36000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>682900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>30500</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>703900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>38000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>747000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>34700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>708600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>814700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>30700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>736000</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
         <v>693400</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="3">
         <v>792300</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1662,67 +1747,73 @@
         <v>8</v>
       </c>
       <c r="E23" s="3">
-        <v>-2386900</v>
+        <v>4075800</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="3">
-        <v>2945500</v>
+        <v>-2270900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="3">
+        <v>2802300</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>1644000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>3524400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>1941100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3">
         <v>2400100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="3">
         <v>1578900</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="3">
         <v>2022900</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23" s="3">
         <v>1413700</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y23" s="3">
         <v>785300</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1730,67 +1821,73 @@
         <v>8</v>
       </c>
       <c r="E24" s="3">
-        <v>454900</v>
+        <v>565700</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="3">
-        <v>-1460700</v>
+        <v>432800</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="3">
+        <v>-1389700</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>535600</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>1090400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>603500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
         <v>887200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
         <v>613800</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="3">
         <v>578900</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="3">
         <v>601400</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y24" s="3">
         <v>860400</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,8 +1954,14 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1866,67 +1969,73 @@
         <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>-2841800</v>
+        <v>3510200</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="3">
-        <v>4406200</v>
+        <v>-2703700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="3">
+        <v>4192100</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>1108400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>2434000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>1337600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1512900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3">
         <v>965100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" s="3">
         <v>1444000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W26" s="3">
         <v>812300</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-75100</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,67 +2043,73 @@
         <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>-3161500</v>
+        <v>3016100</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="3">
-        <v>4104000</v>
+        <v>-3007800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="3">
+        <v>3904600</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>878200</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>1981100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>1222300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1031500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3">
         <v>866300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="3">
         <v>1061400</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27" s="3">
         <v>674300</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-615100</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2093,44 +2214,50 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>32500</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>4700</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,8 +2398,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2274,67 +2413,73 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-91600</v>
+        <v>-87200</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="3">
-        <v>-24000</v>
+        <v>-87200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>126500</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>-93400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>121200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-176300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="3">
         <v>186700</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="3">
         <v>34800</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W32" s="3">
         <v>460000</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-189000</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2342,67 +2487,73 @@
         <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>-3161500</v>
+        <v>3016100</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>4104000</v>
+        <v>-3007800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="3">
+        <v>3904600</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>878200</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>1981100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>1222300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1031500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3">
         <v>866300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" s="3">
         <v>1093900</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33" s="3">
         <v>674300</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-610400</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,8 +2620,14 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2478,140 +2635,152 @@
         <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>-3161500</v>
+        <v>3016100</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="3">
-        <v>4104000</v>
+        <v>-3007800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="3">
+        <v>3904600</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>878200</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>1981100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>1222300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1031500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="3">
         <v>866300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="3">
         <v>1093900</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W35" s="3">
         <v>674300</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-610400</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,25 +2833,27 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7408400</v>
+        <v>8947700</v>
       </c>
       <c r="E41" s="3">
-        <v>8885500</v>
+        <v>7048400</v>
       </c>
       <c r="F41" s="3">
-        <v>6942600</v>
+        <v>8453700</v>
       </c>
       <c r="G41" s="3">
-        <v>7070200</v>
+        <v>6605200</v>
       </c>
       <c r="H41" s="3">
-        <v>6501800</v>
+        <v>6726600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
@@ -2688,67 +2861,73 @@
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>7566000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>7011300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>6664500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>5935800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
         <v>6518800</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3">
         <v>7637400</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="3">
         <v>7459600</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2549500</v>
+        <v>2395500</v>
       </c>
       <c r="E42" s="3">
-        <v>3548700</v>
+        <v>2425600</v>
       </c>
       <c r="F42" s="3">
-        <v>4770500</v>
+        <v>3376300</v>
       </c>
       <c r="G42" s="3">
-        <v>5292000</v>
+        <v>4538700</v>
       </c>
       <c r="H42" s="3">
-        <v>3103600</v>
+        <v>5034900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -2756,67 +2935,73 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>5663100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>3346900</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3">
         <v>3339300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>2595700</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" s="3">
         <v>6688200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3">
         <v>4007700</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y42" s="3">
         <v>2185600</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11167600</v>
+        <v>11644200</v>
       </c>
       <c r="E43" s="3">
-        <v>11093500</v>
+        <v>10625000</v>
       </c>
       <c r="F43" s="3">
-        <v>11059600</v>
+        <v>10554400</v>
       </c>
       <c r="G43" s="3">
-        <v>11726200</v>
+        <v>10522200</v>
       </c>
       <c r="H43" s="3">
-        <v>11778600</v>
+        <v>11156400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -2824,67 +3009,73 @@
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>12548500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>12701600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>12547000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>11737600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>8477800</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3">
         <v>6644400</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y43" s="3">
         <v>10732100</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>872700</v>
+        <v>988100</v>
       </c>
       <c r="E44" s="3">
-        <v>888000</v>
+        <v>830300</v>
       </c>
       <c r="F44" s="3">
-        <v>944700</v>
+        <v>844900</v>
       </c>
       <c r="G44" s="3">
-        <v>988400</v>
+        <v>898800</v>
       </c>
       <c r="H44" s="3">
-        <v>1037500</v>
+        <v>940300</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -2892,67 +3083,73 @@
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>1057700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>1118800</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1141500</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>950900</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>927900</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="3">
         <v>866200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y44" s="3">
         <v>961400</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2921500</v>
+        <v>2837600</v>
       </c>
       <c r="E45" s="3">
-        <v>2959600</v>
+        <v>2779500</v>
       </c>
       <c r="F45" s="3">
-        <v>2658500</v>
+        <v>2815800</v>
       </c>
       <c r="G45" s="3">
-        <v>2181800</v>
+        <v>2529400</v>
       </c>
       <c r="H45" s="3">
-        <v>2678200</v>
+        <v>2075800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -2960,67 +3157,73 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>2334800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>2888100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2202600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>2082900</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>1776100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
         <v>2081300</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1960300</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24919700</v>
+        <v>26813100</v>
       </c>
       <c r="E46" s="3">
-        <v>27375300</v>
+        <v>23708700</v>
       </c>
       <c r="F46" s="3">
-        <v>26376000</v>
+        <v>26045100</v>
       </c>
       <c r="G46" s="3">
-        <v>27258600</v>
+        <v>25094300</v>
       </c>
       <c r="H46" s="3">
-        <v>25099700</v>
+        <v>25934000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
@@ -3028,67 +3231,73 @@
       <c r="J46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>29170100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>27066600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>25894900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>23302900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3">
         <v>24388700</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="3">
         <v>21237000</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y46" s="3">
         <v>23299000</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2403300</v>
+        <v>3414700</v>
       </c>
       <c r="E47" s="3">
-        <v>3080700</v>
+        <v>2286500</v>
       </c>
       <c r="F47" s="3">
-        <v>3007600</v>
+        <v>2931000</v>
       </c>
       <c r="G47" s="3">
-        <v>2803600</v>
+        <v>2861500</v>
       </c>
       <c r="H47" s="3">
-        <v>3820400</v>
+        <v>2667400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3096,67 +3305,73 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>3000200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>4119800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>4735100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>4475400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
         <v>4250100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3">
         <v>5006300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="3">
         <v>5912500</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40700800</v>
+        <v>39633200</v>
       </c>
       <c r="E48" s="3">
-        <v>39364400</v>
+        <v>38723000</v>
       </c>
       <c r="F48" s="3">
-        <v>37740000</v>
+        <v>37451600</v>
       </c>
       <c r="G48" s="3">
-        <v>76155300</v>
+        <v>35906200</v>
       </c>
       <c r="H48" s="3">
-        <v>36864000</v>
+        <v>72454800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
@@ -3164,67 +3379,73 @@
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>81495700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>39752900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>32758000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>29446200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>29917900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
         <v>29300800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3">
         <v>30415800</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>42040400</v>
+        <v>40615100</v>
       </c>
       <c r="E49" s="3">
-        <v>46615700</v>
+        <v>39997600</v>
       </c>
       <c r="F49" s="3">
-        <v>45843300</v>
+        <v>44350500</v>
       </c>
       <c r="G49" s="3">
-        <v>46233900</v>
+        <v>43615700</v>
       </c>
       <c r="H49" s="3">
-        <v>45567300</v>
+        <v>43987200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -3232,50 +3453,56 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>49476000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>49138200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>48791100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>44900500</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>46282100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>46679300</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>49016000</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,25 +3643,31 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2154500</v>
+        <v>1690700</v>
       </c>
       <c r="E52" s="3">
-        <v>1090900</v>
+        <v>2049900</v>
       </c>
       <c r="F52" s="3">
-        <v>2045500</v>
+        <v>1037900</v>
       </c>
       <c r="G52" s="3">
-        <v>1832700</v>
+        <v>1946100</v>
       </c>
       <c r="H52" s="3">
-        <v>2038900</v>
+        <v>1743700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -3436,50 +3675,56 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>1961200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>2198700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2079500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>2103800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3">
         <v>2141900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52" s="3">
         <v>3008100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="3">
         <v>3682200</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,25 +3791,31 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>112218600</v>
+        <v>112166900</v>
       </c>
       <c r="E54" s="3">
-        <v>117527000</v>
+        <v>106765700</v>
       </c>
       <c r="F54" s="3">
-        <v>115012500</v>
+        <v>111816100</v>
       </c>
       <c r="G54" s="3">
-        <v>116444800</v>
+        <v>109423700</v>
       </c>
       <c r="H54" s="3">
-        <v>113390300</v>
+        <v>110786500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
@@ -3572,50 +3823,56 @@
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>124610500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>122276200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>114258700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>104228700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
         <v>106980600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3">
         <v>105231400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y54" s="3">
         <v>111122200</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,25 +3925,27 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7069100</v>
+        <v>6993400</v>
       </c>
       <c r="E57" s="3">
-        <v>7063600</v>
+        <v>6725600</v>
       </c>
       <c r="F57" s="3">
-        <v>6978600</v>
+        <v>6720400</v>
       </c>
       <c r="G57" s="3">
-        <v>7289500</v>
+        <v>6639400</v>
       </c>
       <c r="H57" s="3">
-        <v>7075600</v>
+        <v>6935200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
@@ -3692,67 +3953,73 @@
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>7800600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>7630100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>7968000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>6849300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>7323200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="3">
         <v>7014700</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y57" s="3">
         <v>7290500</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8822200</v>
+        <v>8252300</v>
       </c>
       <c r="E58" s="3">
-        <v>10684400</v>
+        <v>8393500</v>
       </c>
       <c r="F58" s="3">
-        <v>9770200</v>
+        <v>10165200</v>
       </c>
       <c r="G58" s="3">
-        <v>10410600</v>
+        <v>9295400</v>
       </c>
       <c r="H58" s="3">
-        <v>12504000</v>
+        <v>9904700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -3760,67 +4027,73 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>11140600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>13483900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>14199500</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>11154600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>12309400</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
         <v>9679400</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3">
         <v>15549500</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12898900</v>
+        <v>13064000</v>
       </c>
       <c r="E59" s="3">
-        <v>13118200</v>
+        <v>12272100</v>
       </c>
       <c r="F59" s="3">
-        <v>12542200</v>
+        <v>12480700</v>
       </c>
       <c r="G59" s="3">
-        <v>12591300</v>
+        <v>11932700</v>
       </c>
       <c r="H59" s="3">
-        <v>12202900</v>
+        <v>11979400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -3828,67 +4101,73 @@
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>13474200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>13159200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>13669600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>13019000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>13447100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3">
         <v>12104000</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="3">
         <v>13152500</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28790200</v>
+        <v>28309800</v>
       </c>
       <c r="E60" s="3">
-        <v>30866200</v>
+        <v>27391200</v>
       </c>
       <c r="F60" s="3">
-        <v>29290900</v>
+        <v>29366300</v>
       </c>
       <c r="G60" s="3">
-        <v>30291300</v>
+        <v>27867600</v>
       </c>
       <c r="H60" s="3">
-        <v>31782600</v>
+        <v>28819400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
@@ -3896,67 +4175,73 @@
       <c r="J60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>32415500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>34273200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>35837100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>31022900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3">
         <v>32601700</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W60" s="3">
         <v>28798100</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y60" s="3">
         <v>30406400</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41244000</v>
+        <v>40081600</v>
       </c>
       <c r="E61" s="3">
-        <v>39233500</v>
+        <v>39239900</v>
       </c>
       <c r="F61" s="3">
-        <v>41491700</v>
+        <v>37327000</v>
       </c>
       <c r="G61" s="3">
-        <v>42262900</v>
+        <v>39475500</v>
       </c>
       <c r="H61" s="3">
-        <v>38686900</v>
+        <v>40209300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3965,66 +4250,72 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>45226600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>41718700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>31641400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>30594700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>29500500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>32396300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>33933700</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6871600</v>
+        <v>7074300</v>
       </c>
       <c r="E62" s="3">
-        <v>7022200</v>
+        <v>6537700</v>
       </c>
       <c r="F62" s="3">
-        <v>6418900</v>
+        <v>6681000</v>
       </c>
       <c r="G62" s="3">
-        <v>6349100</v>
+        <v>6107000</v>
       </c>
       <c r="H62" s="3">
-        <v>7162900</v>
+        <v>6040600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -4032,50 +4323,56 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>6794300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>7724200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>7449900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>6666000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>7278300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3">
         <v>7459000</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3">
         <v>7842200</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,25 +4587,31 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>79599300</v>
+        <v>78600200</v>
       </c>
       <c r="E66" s="3">
-        <v>80005200</v>
+        <v>75731400</v>
       </c>
       <c r="F66" s="3">
-        <v>79986600</v>
+        <v>76117500</v>
       </c>
       <c r="G66" s="3">
-        <v>81835700</v>
+        <v>76099900</v>
       </c>
       <c r="H66" s="3">
-        <v>80323700</v>
+        <v>77859100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
@@ -4304,50 +4619,56 @@
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>87574400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>86618300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>77980300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>70930800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>72227000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3">
         <v>71351800</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y66" s="3">
         <v>75100400</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,25 +4985,31 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2837500</v>
+        <v>-414100</v>
       </c>
       <c r="E72" s="3">
-        <v>2019300</v>
+        <v>-2699600</v>
       </c>
       <c r="F72" s="3">
-        <v>-944700</v>
+        <v>1921200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1172700</v>
+        <v>-898800</v>
       </c>
       <c r="H72" s="3">
-        <v>-2512400</v>
+        <v>-1115700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -4670,50 +5017,56 @@
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1255000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-2709200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2439100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-2560500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-2076800</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3">
         <v>-3148300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-3068300</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,25 +5281,31 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32619300</v>
+        <v>33566700</v>
       </c>
       <c r="E76" s="3">
-        <v>37521800</v>
+        <v>31034200</v>
       </c>
       <c r="F76" s="3">
-        <v>35025800</v>
+        <v>35698600</v>
       </c>
       <c r="G76" s="3">
-        <v>34609100</v>
+        <v>33323900</v>
       </c>
       <c r="H76" s="3">
-        <v>33066600</v>
+        <v>32927400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
@@ -4942,50 +5313,56 @@
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>37036100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>35657900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>36278400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>33297900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>34753600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3">
         <v>33879600</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y76" s="3">
         <v>36021900</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,81 +5429,93 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5134,67 +5523,73 @@
         <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>-3161500</v>
+        <v>3016100</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="3">
-        <v>4104000</v>
+        <v>-3007800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I81" s="3">
+        <v>3904600</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>878200</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>1981100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>1222300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1031500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" s="3">
         <v>866300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U81" s="3">
         <v>1093900</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W81" s="3">
         <v>674300</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-610400</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,76 +5614,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
+      <c r="E83" s="3">
+        <v>8879200</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
+      <c r="G83" s="3">
+        <v>4390300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="3">
+        <v>8840800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>-4564400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>4991800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>4833800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>4246600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3">
         <v>3795800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" s="3">
         <v>3921400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W83" s="3">
         <v>3759800</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y83" s="3">
         <v>4048500</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
+      <c r="E89" s="3">
+        <v>11661800</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
+      <c r="G89" s="3">
+        <v>5563100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="3">
+        <v>13178200</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>-6386200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>7064000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>4869100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>6303700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3">
         <v>4586300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" s="3">
         <v>6083400</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W89" s="3">
         <v>5331700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y89" s="3">
         <v>5744600</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +6160,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>-9080600</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>-4344600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="3">
+        <v>-8869900</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>5484000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-4987200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-4882100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-5017900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1928300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3733200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3">
         <v>-3787800</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-5104900</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6378,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3">
+        <v>-6202500</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="G94" s="3">
+        <v>-3381500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="3">
+        <v>-5774900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>6573800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-6084500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-4891500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-5612900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-4180100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3">
         <v>-5231800</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
         <v>-3677900</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-4880700</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6028,67 +6495,73 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-2207600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1380400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-1655500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>1445500</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-929300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1248200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-941600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1168300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-746100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-624500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,108 +6776,120 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
+      <c r="E100" s="3">
+        <v>-5017200</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
+      <c r="G100" s="3">
+        <v>-3608800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I100" s="3">
+        <v>-5615000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1238200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-336200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>403500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-423500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
         <v>-848800</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1973600</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1098400</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-103300</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
+      <c r="E101" s="3">
+        <v>51900</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+      <c r="G101" s="3">
+        <v>21800</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I101" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
         <v>-24000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>1200</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
-        <v>2400</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
@@ -6404,95 +6901,107 @@
         <v>8</v>
       </c>
       <c r="Q101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="3">
         <v>3400</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W101" s="3">
         <v>-48200</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-129100</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
+      <c r="E102" s="3">
+        <v>494000</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
+      <c r="G102" s="3">
+        <v>-1405300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I102" s="3">
+        <v>1727100</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1051600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>608200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>383500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>269700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3">
         <v>-443600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3">
         <v>-1118600</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W102" s="3">
         <v>507100</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y102" s="3">
         <v>631500</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10983100</v>
+        <v>21241600</v>
       </c>
       <c r="E8" s="3">
-        <v>22475700</v>
+        <v>10554500</v>
       </c>
       <c r="F8" s="3">
-        <v>10906300</v>
+        <v>21598700</v>
       </c>
       <c r="G8" s="3">
-        <v>21657900</v>
+        <v>10480700</v>
       </c>
       <c r="H8" s="3">
-        <v>10705900</v>
+        <v>20812700</v>
       </c>
       <c r="I8" s="3">
-        <v>22315900</v>
+        <v>10288200</v>
       </c>
       <c r="J8" s="3">
+        <v>21445100</v>
+      </c>
+      <c r="K8" s="3">
         <v>10985100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22657100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11338900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25291900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12956700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24202100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12183300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24981700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11416000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22247700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11197400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>23304900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11527300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>22538500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11820300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>24461000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12117200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4674700</v>
+        <v>9026500</v>
       </c>
       <c r="E9" s="3">
-        <v>9587100</v>
+        <v>4492300</v>
       </c>
       <c r="F9" s="3">
-        <v>4460900</v>
+        <v>9213000</v>
       </c>
       <c r="G9" s="3">
-        <v>9067100</v>
+        <v>4286800</v>
       </c>
       <c r="H9" s="3">
-        <v>4508600</v>
+        <v>8713300</v>
       </c>
       <c r="I9" s="3">
-        <v>9480200</v>
+        <v>4332700</v>
       </c>
       <c r="J9" s="3">
+        <v>9110300</v>
+      </c>
+      <c r="K9" s="3">
         <v>4422500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9334900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4782500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10854600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5447500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10072300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5112600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11323900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4968700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9871000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4695000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10603900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5053400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10019400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5232800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>10430500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5278600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6308400</v>
+        <v>12215200</v>
       </c>
       <c r="E10" s="3">
-        <v>12888600</v>
+        <v>6062200</v>
       </c>
       <c r="F10" s="3">
-        <v>6445400</v>
+        <v>12385700</v>
       </c>
       <c r="G10" s="3">
-        <v>12590800</v>
+        <v>6193900</v>
       </c>
       <c r="H10" s="3">
-        <v>6197300</v>
+        <v>12099500</v>
       </c>
       <c r="I10" s="3">
-        <v>12835700</v>
+        <v>5955500</v>
       </c>
       <c r="J10" s="3">
+        <v>12334800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6562600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13322200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6556400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14437400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7509200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14129700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7070700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13657800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6447300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12376700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6502400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12700900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6473900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>12519200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6587400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>14030600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6838600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>82000</v>
+        <v>123700</v>
       </c>
       <c r="E14" s="3">
-        <v>1560000</v>
+        <v>78800</v>
       </c>
       <c r="F14" s="3">
-        <v>33200</v>
+        <v>1499100</v>
       </c>
       <c r="G14" s="3">
-        <v>4308300</v>
+        <v>31900</v>
       </c>
       <c r="H14" s="3">
-        <v>203400</v>
+        <v>4140200</v>
       </c>
       <c r="I14" s="3">
-        <v>180600</v>
+        <v>195500</v>
       </c>
       <c r="J14" s="3">
+        <v>173500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-63300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>240000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>27300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>202000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-24500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>229400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>123200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>218800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>68100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>17600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>824700</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>543000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1926200</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>395400</v>
+        <v>4335700</v>
       </c>
       <c r="E15" s="3">
-        <v>4488900</v>
+        <v>380000</v>
       </c>
       <c r="F15" s="3">
-        <v>376800</v>
+        <v>4313800</v>
       </c>
       <c r="G15" s="3">
-        <v>4390300</v>
+        <v>362100</v>
       </c>
       <c r="H15" s="3">
-        <v>371600</v>
+        <v>4219000</v>
       </c>
       <c r="I15" s="3">
-        <v>4491000</v>
+        <v>357100</v>
       </c>
       <c r="J15" s="3">
+        <v>4315700</v>
+      </c>
+      <c r="K15" s="3">
         <v>380900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4572000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>340400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4990700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>376100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4833800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>355300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4246600</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="3">
         <v>3795800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>325000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3921400</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="3">
         <v>3759800</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="3">
         <v>4048500</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3">
-        <v>18040800</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3">
-        <v>23476300</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3">
-        <v>18919900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>18827900</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>17336800</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>22560200</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
+        <v>18181600</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>20203700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>21157000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3">
         <v>21392800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="3">
         <v>22049300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="3">
         <v>19667400</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="3">
         <v>20511100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="3">
         <v>19971400</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="3">
         <v>23072400</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4434900</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1818400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3396000</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>2413700</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4261900</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1747400</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3263500</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>2453500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>4135000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
         <v>2809200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
         <v>2932400</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="3">
         <v>2580300</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V18" s="3">
         <v>2793800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X18" s="3">
         <v>2567100</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="3">
         <v>1388600</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,105 +1548,109 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
-        <v>87200</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>87200</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
-        <v>22800</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
+        <v>83800</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3">
+        <v>83800</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>-126500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>93400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3">
         <v>-121200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="3">
         <v>176300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="3">
         <v>-186700</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="3">
         <v>-34800</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X20" s="3">
         <v>-460000</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="3">
         <v>189000</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3">
-        <v>13401400</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2659100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
-        <v>12259700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>6735400</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
+        <v>12878400</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2555300</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
+        <v>11781300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1622,272 +1658,284 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>9220200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>7521900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>7355300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>6189400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>6680300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3">
         <v>5866900</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3">
         <v>5626100</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30100</v>
+        <v>358100</v>
       </c>
       <c r="E22" s="3">
-        <v>446300</v>
+        <v>28900</v>
       </c>
       <c r="F22" s="3">
-        <v>29100</v>
+        <v>428900</v>
       </c>
       <c r="G22" s="3">
-        <v>539700</v>
+        <v>27900</v>
       </c>
       <c r="H22" s="3">
-        <v>28000</v>
+        <v>518600</v>
       </c>
       <c r="I22" s="3">
-        <v>616500</v>
+        <v>26900</v>
       </c>
       <c r="J22" s="3">
+        <v>592500</v>
+      </c>
+      <c r="K22" s="3">
         <v>34300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>682900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>30500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>703900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>38000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>747000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>34700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>708600</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
         <v>814700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>30700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>736000</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3">
         <v>693400</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="3">
         <v>792300</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4075800</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2270900</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2802300</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>2041700</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3916800</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-2182300</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2693000</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>1644000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>3524400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3">
         <v>1941100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="3">
         <v>2400100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23" s="3">
         <v>1578900</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="3">
         <v>2022900</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X23" s="3">
         <v>1413700</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="3">
         <v>785300</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3">
-        <v>565700</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3">
-        <v>432800</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-1389700</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>578500</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>543600</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>415900</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-1335500</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
         <v>535600</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
         <v>1090400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
         <v>603500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3">
         <v>887200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="3">
         <v>613800</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="3">
         <v>578900</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X24" s="3">
         <v>601400</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="3">
         <v>860400</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3510200</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2703700</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4192100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>1463200</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3373200</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-2598200</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4028500</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>1108400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>2434000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3">
         <v>1337600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="3">
         <v>1512900</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="3">
         <v>965100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" s="3">
         <v>1444000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X26" s="3">
         <v>812300</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-75100</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3016100</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3007800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3904600</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>1113100</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2898400</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-2890500</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3752200</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>878200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>1981100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="3">
         <v>1222300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="3">
         <v>1031500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="3">
         <v>866300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="3">
         <v>1061400</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X27" s="3">
         <v>674300</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-615100</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2220,17 +2280,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2238,26 +2298,29 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>32500</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>4700</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-87200</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-87200</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-22800</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>126500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>-93400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="3">
         <v>121200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="3">
         <v>-176300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="3">
         <v>186700</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V32" s="3">
         <v>34800</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="3">
         <v>460000</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-189000</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3">
-        <v>3016100</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3007800</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3904600</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>1113100</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2898400</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-2890500</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3752200</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>878200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>1981100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="3">
         <v>1222300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="3">
         <v>1031500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" s="3">
         <v>866300</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" s="3">
         <v>1093900</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X33" s="3">
         <v>674300</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-610400</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3">
-        <v>3016100</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3007800</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3">
-        <v>3904600</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>1113100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2898400</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-2890500</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3752200</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>878200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>1981100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="3">
         <v>1222300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" s="3">
         <v>1031500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="3">
         <v>866300</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V35" s="3">
         <v>1093900</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X35" s="3">
         <v>674300</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-610400</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,28 +2920,29 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8947700</v>
+        <v>8237500</v>
       </c>
       <c r="E41" s="3">
-        <v>7048400</v>
+        <v>8598600</v>
       </c>
       <c r="F41" s="3">
-        <v>8453700</v>
+        <v>6773300</v>
       </c>
       <c r="G41" s="3">
-        <v>6605200</v>
+        <v>8123800</v>
       </c>
       <c r="H41" s="3">
-        <v>6726600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
+        <v>6347500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>6464100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -2867,70 +2953,73 @@
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>7566000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
         <v>7011300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
         <v>6664500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3">
         <v>5935800</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3">
         <v>6518800</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X41" s="3">
         <v>7637400</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="3">
         <v>7459600</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2395500</v>
+        <v>3013100</v>
       </c>
       <c r="E42" s="3">
-        <v>2425600</v>
+        <v>2302000</v>
       </c>
       <c r="F42" s="3">
-        <v>3376300</v>
+        <v>2330900</v>
       </c>
       <c r="G42" s="3">
-        <v>4538700</v>
+        <v>3244500</v>
       </c>
       <c r="H42" s="3">
-        <v>5034900</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>4361600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>4838400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2941,70 +3030,73 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>5663100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3">
         <v>3346900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>3339300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="3">
         <v>2595700</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3">
         <v>6688200</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3">
         <v>4007700</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z42" s="3">
         <v>2185600</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11644200</v>
+        <v>11207800</v>
       </c>
       <c r="E43" s="3">
-        <v>10625000</v>
+        <v>11189800</v>
       </c>
       <c r="F43" s="3">
-        <v>10554400</v>
+        <v>10210400</v>
       </c>
       <c r="G43" s="3">
-        <v>10522200</v>
+        <v>10142600</v>
       </c>
       <c r="H43" s="3">
-        <v>11156400</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
+        <v>10111600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>10721100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -3015,70 +3107,73 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>12548500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>12701600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
         <v>12547000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3">
         <v>11737600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3">
         <v>8477800</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X43" s="3">
         <v>6644400</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="3">
         <v>10732100</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>988100</v>
+        <v>991400</v>
       </c>
       <c r="E44" s="3">
-        <v>830300</v>
+        <v>949500</v>
       </c>
       <c r="F44" s="3">
-        <v>844900</v>
+        <v>797900</v>
       </c>
       <c r="G44" s="3">
-        <v>898800</v>
+        <v>811900</v>
       </c>
       <c r="H44" s="3">
-        <v>940300</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+        <v>863700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>903600</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -3089,70 +3184,73 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>1057700</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>1118800</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>1141500</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3">
         <v>950900</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="3">
         <v>927900</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" s="3">
         <v>866200</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z44" s="3">
         <v>961400</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2837600</v>
+        <v>3002200</v>
       </c>
       <c r="E45" s="3">
-        <v>2779500</v>
+        <v>2726900</v>
       </c>
       <c r="F45" s="3">
-        <v>2815800</v>
+        <v>2671000</v>
       </c>
       <c r="G45" s="3">
-        <v>2529400</v>
+        <v>2705900</v>
       </c>
       <c r="H45" s="3">
-        <v>2075800</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+        <v>2430700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1994800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -3163,70 +3261,73 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>2334800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>2888100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>2202600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>2082900</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
         <v>1776100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="3">
         <v>2081300</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1960300</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26813100</v>
+        <v>26452000</v>
       </c>
       <c r="E46" s="3">
-        <v>23708700</v>
+        <v>25766800</v>
       </c>
       <c r="F46" s="3">
-        <v>26045100</v>
+        <v>22783600</v>
       </c>
       <c r="G46" s="3">
-        <v>25094300</v>
+        <v>25028800</v>
       </c>
       <c r="H46" s="3">
-        <v>25934000</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
+        <v>24115100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>24922000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -3237,70 +3338,73 @@
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
         <v>29170100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3">
         <v>27066600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3">
         <v>25894900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3">
         <v>23302900</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="3">
         <v>24388700</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X46" s="3">
         <v>21237000</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="3">
         <v>23299000</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3414700</v>
+        <v>3168700</v>
       </c>
       <c r="E47" s="3">
-        <v>2286500</v>
+        <v>3281400</v>
       </c>
       <c r="F47" s="3">
-        <v>2931000</v>
+        <v>2197300</v>
       </c>
       <c r="G47" s="3">
-        <v>2861500</v>
+        <v>2816700</v>
       </c>
       <c r="H47" s="3">
-        <v>2667400</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+        <v>2749800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2563300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3311,70 +3415,73 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>3000200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
         <v>4119800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>4735100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3">
         <v>4475400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3">
         <v>4250100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X47" s="3">
         <v>5006300</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="3">
         <v>5912500</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39633200</v>
+        <v>38748000</v>
       </c>
       <c r="E48" s="3">
-        <v>38723000</v>
+        <v>38086700</v>
       </c>
       <c r="F48" s="3">
-        <v>37451600</v>
+        <v>37212000</v>
       </c>
       <c r="G48" s="3">
-        <v>35906200</v>
+        <v>35990200</v>
       </c>
       <c r="H48" s="3">
-        <v>72454800</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
+        <v>34505100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>69627500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -3385,70 +3492,73 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>81495700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>39752900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>32758000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
         <v>29446200</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3">
         <v>29917900</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X48" s="3">
         <v>29300800</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3">
         <v>30415800</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40615100</v>
+        <v>38754000</v>
       </c>
       <c r="E49" s="3">
-        <v>39997600</v>
+        <v>39030300</v>
       </c>
       <c r="F49" s="3">
-        <v>44350500</v>
+        <v>38436800</v>
       </c>
       <c r="G49" s="3">
-        <v>43615700</v>
+        <v>42619900</v>
       </c>
       <c r="H49" s="3">
-        <v>43987200</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+        <v>41913700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>42270800</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -3459,50 +3569,53 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>49476000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
         <v>49138200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>48791100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3">
         <v>44900500</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>46282100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3">
         <v>46679300</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3">
         <v>49016000</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,28 +3765,31 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1690700</v>
+        <v>2434700</v>
       </c>
       <c r="E52" s="3">
-        <v>2049900</v>
+        <v>1624800</v>
       </c>
       <c r="F52" s="3">
-        <v>1037900</v>
+        <v>1969900</v>
       </c>
       <c r="G52" s="3">
-        <v>1946100</v>
+        <v>997400</v>
       </c>
       <c r="H52" s="3">
-        <v>1743700</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+        <v>1870100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1675600</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -3681,50 +3800,53 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>1961200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
         <v>2198700</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
         <v>2079500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3">
         <v>2103800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3">
         <v>2141900</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X52" s="3">
         <v>3008100</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3">
         <v>3682200</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,28 +3919,31 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>112166900</v>
+        <v>109557400</v>
       </c>
       <c r="E54" s="3">
-        <v>106765700</v>
+        <v>107790000</v>
       </c>
       <c r="F54" s="3">
-        <v>111816100</v>
+        <v>102599500</v>
       </c>
       <c r="G54" s="3">
-        <v>109423700</v>
+        <v>107452900</v>
       </c>
       <c r="H54" s="3">
-        <v>110786500</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
+        <v>105153900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>106463500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -3829,50 +3954,53 @@
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>124610500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3">
         <v>122276200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>114258700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3">
         <v>104228700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3">
         <v>106980600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X54" s="3">
         <v>105231400</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3">
         <v>111122200</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,28 +4056,29 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6993400</v>
+        <v>6877100</v>
       </c>
       <c r="E57" s="3">
-        <v>6725600</v>
+        <v>6720500</v>
       </c>
       <c r="F57" s="3">
-        <v>6720400</v>
+        <v>6463200</v>
       </c>
       <c r="G57" s="3">
-        <v>6639400</v>
+        <v>6458200</v>
       </c>
       <c r="H57" s="3">
-        <v>6935200</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
+        <v>6380400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>6664600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -3959,70 +4089,73 @@
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>7800600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>7630100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>7968000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3">
         <v>6849300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3">
         <v>7323200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X57" s="3">
         <v>7014700</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z57" s="3">
         <v>7290500</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8252300</v>
+        <v>7805700</v>
       </c>
       <c r="E58" s="3">
-        <v>8393500</v>
+        <v>7930300</v>
       </c>
       <c r="F58" s="3">
-        <v>10165200</v>
+        <v>8066000</v>
       </c>
       <c r="G58" s="3">
-        <v>9295400</v>
+        <v>9768500</v>
       </c>
       <c r="H58" s="3">
-        <v>9904700</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+        <v>8932700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>9518200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -4033,70 +4166,73 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>11140600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>13483900</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>14199500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3">
         <v>11154600</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
         <v>12309400</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3">
         <v>9679400</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3">
         <v>15549500</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13064000</v>
+        <v>12639100</v>
       </c>
       <c r="E59" s="3">
-        <v>12272100</v>
+        <v>12554300</v>
       </c>
       <c r="F59" s="3">
-        <v>12480700</v>
+        <v>11793300</v>
       </c>
       <c r="G59" s="3">
-        <v>11932700</v>
+        <v>11993700</v>
       </c>
       <c r="H59" s="3">
-        <v>11979400</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
+        <v>11467100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>11512000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -4107,70 +4243,73 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>13474200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>13159200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>13669600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>13019000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>13447100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X59" s="3">
         <v>12104000</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3">
         <v>13152500</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28309800</v>
+        <v>27321800</v>
       </c>
       <c r="E60" s="3">
-        <v>27391200</v>
+        <v>27205100</v>
       </c>
       <c r="F60" s="3">
-        <v>29366300</v>
+        <v>26322400</v>
       </c>
       <c r="G60" s="3">
-        <v>27867600</v>
+        <v>28220400</v>
       </c>
       <c r="H60" s="3">
-        <v>28819400</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
+        <v>26780200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>27694800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -4181,70 +4320,73 @@
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3">
         <v>32415500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3">
         <v>34273200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3">
         <v>35837100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3">
         <v>31022900</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V60" s="3">
         <v>32601700</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3">
         <v>28798100</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z60" s="3">
         <v>30406400</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40081600</v>
+        <v>40212200</v>
       </c>
       <c r="E61" s="3">
-        <v>39239900</v>
+        <v>38517600</v>
       </c>
       <c r="F61" s="3">
-        <v>37327000</v>
+        <v>37708700</v>
       </c>
       <c r="G61" s="3">
-        <v>39475500</v>
+        <v>35870500</v>
       </c>
       <c r="H61" s="3">
-        <v>40209300</v>
+        <v>37935100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>38640300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4256,69 +4398,72 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>45226600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>41718700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>31641400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>30594700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>29500500</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>32396300</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>33933700</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7074300</v>
+        <v>6309600</v>
       </c>
       <c r="E62" s="3">
-        <v>6537700</v>
+        <v>6798300</v>
       </c>
       <c r="F62" s="3">
-        <v>6681000</v>
+        <v>6282600</v>
       </c>
       <c r="G62" s="3">
-        <v>6107000</v>
+        <v>6420300</v>
       </c>
       <c r="H62" s="3">
-        <v>6040600</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+        <v>5868700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>5804900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -4329,50 +4474,53 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>6794300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>7724200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>7449900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>6666000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3">
         <v>7278300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3">
         <v>7459000</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="3">
         <v>7842200</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,28 +4747,31 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>78600200</v>
+        <v>76889600</v>
       </c>
       <c r="E66" s="3">
-        <v>75731400</v>
+        <v>75533100</v>
       </c>
       <c r="F66" s="3">
-        <v>76117500</v>
+        <v>72776300</v>
       </c>
       <c r="G66" s="3">
-        <v>76099900</v>
+        <v>73147300</v>
       </c>
       <c r="H66" s="3">
-        <v>77859100</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
+        <v>73130400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>74821000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -4625,50 +4782,53 @@
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>87574400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3">
         <v>86618300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>77980300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3">
         <v>70930800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3">
         <v>72227000</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X66" s="3">
         <v>71351800</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3">
         <v>75100400</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,28 +5161,31 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-414100</v>
+        <v>-358100</v>
       </c>
       <c r="E72" s="3">
-        <v>-2699600</v>
+        <v>-398000</v>
       </c>
       <c r="F72" s="3">
-        <v>1921200</v>
+        <v>-2594200</v>
       </c>
       <c r="G72" s="3">
-        <v>-898800</v>
+        <v>1846200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1115700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
+        <v>-863700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1072200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -5023,50 +5196,53 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1255000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>-2709200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2439100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3">
         <v>-2560500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3">
         <v>-2076800</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X72" s="3">
         <v>-3148300</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-3068300</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,28 +5469,31 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33566700</v>
+        <v>32667800</v>
       </c>
       <c r="E76" s="3">
-        <v>31034200</v>
+        <v>32256900</v>
       </c>
       <c r="F76" s="3">
-        <v>35698600</v>
+        <v>29823300</v>
       </c>
       <c r="G76" s="3">
-        <v>33323900</v>
+        <v>34305600</v>
       </c>
       <c r="H76" s="3">
-        <v>32927400</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
+        <v>32023500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>31642500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -5319,50 +5504,53 @@
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>37036100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3">
         <v>35657900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>36278400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3">
         <v>33297900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3">
         <v>34753600</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X76" s="3">
         <v>33879600</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3">
         <v>36021900</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3">
-        <v>3016100</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3007800</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3904600</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>1113100</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3">
+        <v>2898400</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-2890500</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3752200</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>878200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>1981100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P81" s="3">
         <v>1222300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R81" s="3">
         <v>1031500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T81" s="3">
         <v>866300</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V81" s="3">
         <v>1093900</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X81" s="3">
         <v>674300</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-610400</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3">
-        <v>8879200</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4390300</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3">
-        <v>8840800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>4335700</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
+        <v>8532800</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4219000</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3">
+        <v>8495900</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>-4564400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>4991800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
         <v>4833800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R83" s="3">
         <v>4246600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T83" s="3">
         <v>3795800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V83" s="3">
         <v>3921400</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X83" s="3">
         <v>3759800</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z83" s="3">
         <v>4048500</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3">
-        <v>11661800</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3">
-        <v>5563100</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3">
-        <v>13178200</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>5621300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3">
+        <v>11206800</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3">
+        <v>5346100</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3">
+        <v>12664000</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>-6386200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>7064000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3">
         <v>4869100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R89" s="3">
         <v>6303700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T89" s="3">
         <v>4586300</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V89" s="3">
         <v>6083400</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X89" s="3">
         <v>5331700</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z89" s="3">
         <v>5744600</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-9080600</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-4344600</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-8869900</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-3771200</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-8726300</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4175100</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-8523800</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>5484000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-4987200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
         <v>-4882100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
         <v>-5017900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1928300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3733200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3">
         <v>-3787800</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-5104900</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-6202500</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-3381500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-5774900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-4507300</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-5960500</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-3249500</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-5549500</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>6573800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-6084500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3">
         <v>-4891500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
         <v>-5612900</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3">
         <v>-4180100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3">
         <v>-5231800</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X94" s="3">
         <v>-3677900</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-4880700</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1060200</v>
       </c>
       <c r="E96" s="3">
-        <v>-2207600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-2121500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1380400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1326500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1655500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1590900</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>1445500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-929300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1248200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-941600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1168300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-746100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-624500</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-5017200</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-3608800</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-5615000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-1506100</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-4821400</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-3468000</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-5395900</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1238200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-336200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3">
         <v>403500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3">
         <v>-423500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" s="3">
         <v>-848800</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1973600</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X100" s="3">
         <v>-1098400</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-103300</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3">
-        <v>51900</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3">
-        <v>21800</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-61200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3">
+        <v>49900</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>-24000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
         <v>2400</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R101" s="3">
         <v>2400</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V101" s="3">
         <v>3400</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X101" s="3">
         <v>-48200</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-129100</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3">
-        <v>494000</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-1405300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1727100</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-360100</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3">
+        <v>474800</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-1350500</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1659700</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>-1051600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>608200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3">
         <v>383500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3">
         <v>269700</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3">
         <v>-443600</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V102" s="3">
         <v>-1118600</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X102" s="3">
         <v>507100</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z102" s="3">
         <v>631500</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,360 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21241600</v>
+        <v>11048100</v>
       </c>
       <c r="E8" s="3">
-        <v>10554500</v>
+        <v>21740000</v>
       </c>
       <c r="F8" s="3">
-        <v>21598700</v>
+        <v>10802100</v>
       </c>
       <c r="G8" s="3">
-        <v>10480700</v>
+        <v>22105400</v>
       </c>
       <c r="H8" s="3">
-        <v>20812700</v>
+        <v>10726600</v>
       </c>
       <c r="I8" s="3">
-        <v>10288200</v>
+        <v>21301000</v>
       </c>
       <c r="J8" s="3">
+        <v>10529600</v>
+      </c>
+      <c r="K8" s="3">
         <v>21445100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10985100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22657100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11338900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25291900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12956700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24202100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12183300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>24981700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11416000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22247700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11197400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>23304900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11527300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>22538500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11820300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>24461000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12117200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9026500</v>
+        <v>4667100</v>
       </c>
       <c r="E9" s="3">
-        <v>4492300</v>
+        <v>8713500</v>
       </c>
       <c r="F9" s="3">
-        <v>9213000</v>
+        <v>4597700</v>
       </c>
       <c r="G9" s="3">
-        <v>4286800</v>
+        <v>9429100</v>
       </c>
       <c r="H9" s="3">
-        <v>8713300</v>
+        <v>4387400</v>
       </c>
       <c r="I9" s="3">
-        <v>4332700</v>
+        <v>8917700</v>
       </c>
       <c r="J9" s="3">
+        <v>4434400</v>
+      </c>
+      <c r="K9" s="3">
         <v>9110300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4422500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9334900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4782500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10854600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5447500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10072300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5112600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11323900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4968700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9871000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4695000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10603900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5053400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>10019400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5232800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>10430500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5278600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12215200</v>
+        <v>6381000</v>
       </c>
       <c r="E10" s="3">
-        <v>6062200</v>
+        <v>13026400</v>
       </c>
       <c r="F10" s="3">
-        <v>12385700</v>
+        <v>6204400</v>
       </c>
       <c r="G10" s="3">
-        <v>6193900</v>
+        <v>12676300</v>
       </c>
       <c r="H10" s="3">
-        <v>12099500</v>
+        <v>6339200</v>
       </c>
       <c r="I10" s="3">
-        <v>5955500</v>
+        <v>12383300</v>
       </c>
       <c r="J10" s="3">
+        <v>6095200</v>
+      </c>
+      <c r="K10" s="3">
         <v>12334800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6562600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13322200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6556400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14437400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7509200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14129700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7070700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13657800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6447300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12376700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6502400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>12700900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6473900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>12519200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6587400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>14030600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6838600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,162 +1204,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>123700</v>
+        <v>57200</v>
       </c>
       <c r="E14" s="3">
-        <v>78800</v>
+        <v>55100</v>
       </c>
       <c r="F14" s="3">
-        <v>1499100</v>
+        <v>80600</v>
       </c>
       <c r="G14" s="3">
-        <v>31900</v>
+        <v>1534300</v>
       </c>
       <c r="H14" s="3">
-        <v>4140200</v>
+        <v>32700</v>
       </c>
       <c r="I14" s="3">
-        <v>195500</v>
+        <v>4237300</v>
       </c>
       <c r="J14" s="3">
+        <v>200100</v>
+      </c>
+      <c r="K14" s="3">
         <v>173500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-63300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>240000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>27300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>202000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-24500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>229400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>123200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>218800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>16600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>68100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>17600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>824700</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>543000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1926200</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4335700</v>
+        <v>381800</v>
       </c>
       <c r="E15" s="3">
-        <v>380000</v>
+        <v>4437400</v>
       </c>
       <c r="F15" s="3">
-        <v>4313800</v>
+        <v>388900</v>
       </c>
       <c r="G15" s="3">
-        <v>362100</v>
+        <v>4415000</v>
       </c>
       <c r="H15" s="3">
-        <v>4219000</v>
+        <v>370600</v>
       </c>
       <c r="I15" s="3">
-        <v>357100</v>
+        <v>4318000</v>
       </c>
       <c r="J15" s="3">
+        <v>365400</v>
+      </c>
+      <c r="K15" s="3">
         <v>4315700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>380900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4572000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>340400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4990700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>376100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4833800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>355300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4246600</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3">
         <v>3795800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>325000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3921400</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="3">
         <v>3759800</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA15" s="3">
         <v>4048500</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>18827900</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>17336800</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3">
-        <v>22560200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>19269600</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>17743500</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3">
+        <v>23089500</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>18181600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>20203700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>21157000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>21392800</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="3">
         <v>22049300</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="3">
         <v>19667400</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="3">
         <v>20511100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="3">
         <v>19971400</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="3">
         <v>23072400</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>2413700</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4261900</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1747400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2470300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4361900</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1788400</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>3263500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>2453500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>4135000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2809200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
         <v>2932400</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="3">
         <v>2580300</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="3">
         <v>2793800</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="3">
         <v>2567100</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="3">
         <v>1388600</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1583,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
-        <v>83800</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
-        <v>83800</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>85700</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
+        <v>85700</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>21900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>-126500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>93400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-121200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3">
         <v>176300</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="3">
         <v>-186700</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="3">
         <v>-34800</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-460000</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA20" s="3">
         <v>189000</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>6735400</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
-        <v>12878400</v>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
-        <v>2555300</v>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>11781300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>9220200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>7521900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>7355300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>6189400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>6680300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
         <v>5866900</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3">
         <v>5626100</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>358100</v>
+        <v>40800</v>
       </c>
       <c r="E22" s="3">
-        <v>28900</v>
+        <v>366500</v>
       </c>
       <c r="F22" s="3">
-        <v>428900</v>
+        <v>29600</v>
       </c>
       <c r="G22" s="3">
-        <v>27900</v>
+        <v>438900</v>
       </c>
       <c r="H22" s="3">
-        <v>518600</v>
+        <v>28600</v>
       </c>
       <c r="I22" s="3">
-        <v>26900</v>
+        <v>530800</v>
       </c>
       <c r="J22" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K22" s="3">
         <v>592500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>682900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>30500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>703900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>38000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>747000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>34700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>708600</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>814700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>30700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>736000</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="3">
         <v>693400</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="3">
         <v>792300</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>2041700</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3916800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2182300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2089600</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4008700</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-2233500</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>2693000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>1644000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>3524400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1941100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="3">
         <v>2400100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="3">
         <v>1578900</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23" s="3">
         <v>2022900</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1413700</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA23" s="3">
         <v>785300</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>578500</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
-        <v>543600</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3">
-        <v>415900</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
+        <v>592100</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>556300</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
+        <v>425700</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1335500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>535600</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>1090400</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
         <v>603500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
         <v>887200</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="3">
         <v>613800</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="3">
         <v>578900</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y24" s="3">
         <v>601400</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA24" s="3">
         <v>860400</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>1463200</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3373200</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2598200</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1497500</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3452300</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2659200</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>4028500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>1108400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>2434000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1337600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3">
         <v>1512900</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" s="3">
         <v>965100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W26" s="3">
         <v>1444000</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="3">
         <v>812300</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-75100</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>1113100</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2898400</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2890500</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1139200</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2966400</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-2958300</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>3752200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>878200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>1981100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1222300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3">
         <v>1031500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="3">
         <v>866300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27" s="3">
         <v>1061400</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="3">
         <v>674300</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-615100</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,17 +2345,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2301,26 +2363,29 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>32500</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>4700</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2541,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>14000</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-83800</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-83800</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>-21900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>126500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>-93400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>121200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="3">
         <v>-176300</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="3">
         <v>186700</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W32" s="3">
         <v>34800</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="3">
         <v>460000</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-189000</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>1113100</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2898400</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2890500</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1139200</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2966400</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-2958300</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>3752200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>878200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>1981100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1222300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3">
         <v>1031500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" s="3">
         <v>866300</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33" s="3">
         <v>1093900</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="3">
         <v>674300</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-610400</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>1113100</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2898400</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2890500</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1139200</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2966400</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-2958300</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>3752200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>878200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>1981100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1222300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="3">
         <v>1031500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="3">
         <v>866300</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W35" s="3">
         <v>1093900</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y35" s="3">
         <v>674300</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-610400</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,28 +3008,29 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8237500</v>
+        <v>8430800</v>
       </c>
       <c r="E41" s="3">
-        <v>8598600</v>
+        <v>8800300</v>
       </c>
       <c r="F41" s="3">
-        <v>6773300</v>
+        <v>6932300</v>
       </c>
       <c r="G41" s="3">
-        <v>8123800</v>
+        <v>8314400</v>
       </c>
       <c r="H41" s="3">
-        <v>6347500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>6464100</v>
+        <v>6496400</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -2956,70 +3044,73 @@
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>7566000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>7011300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>6664500</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
         <v>5935800</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3">
         <v>6518800</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="3">
         <v>7637400</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="3">
         <v>7459600</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3013100</v>
+        <v>3083800</v>
       </c>
       <c r="E42" s="3">
-        <v>2302000</v>
+        <v>2356000</v>
       </c>
       <c r="F42" s="3">
-        <v>2330900</v>
+        <v>2385600</v>
       </c>
       <c r="G42" s="3">
-        <v>3244500</v>
+        <v>3320700</v>
       </c>
       <c r="H42" s="3">
-        <v>4361600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>4838400</v>
+        <v>4464000</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -3033,70 +3124,73 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>5663100</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3">
         <v>3346900</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>3339300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" s="3">
         <v>2595700</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3">
         <v>6688200</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y42" s="3">
         <v>4007700</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA42" s="3">
         <v>2185600</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11207800</v>
+        <v>11470700</v>
       </c>
       <c r="E43" s="3">
-        <v>11189800</v>
+        <v>11452400</v>
       </c>
       <c r="F43" s="3">
-        <v>10210400</v>
+        <v>10449900</v>
       </c>
       <c r="G43" s="3">
-        <v>10142600</v>
+        <v>10380500</v>
       </c>
       <c r="H43" s="3">
-        <v>10111600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>10721100</v>
+        <v>10348900</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -3110,70 +3204,73 @@
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>12548500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>12701600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>12547000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>11737600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3">
         <v>8477800</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y43" s="3">
         <v>6644400</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="3">
         <v>10732100</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>991400</v>
+        <v>1014700</v>
       </c>
       <c r="E44" s="3">
-        <v>949500</v>
+        <v>971800</v>
       </c>
       <c r="F44" s="3">
-        <v>797900</v>
+        <v>816600</v>
       </c>
       <c r="G44" s="3">
-        <v>811900</v>
+        <v>830900</v>
       </c>
       <c r="H44" s="3">
-        <v>863700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>903600</v>
+        <v>884000</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -3187,70 +3284,73 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>1057700</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1118800</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>1141500</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>950900</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="3">
         <v>927900</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y44" s="3">
         <v>866200</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="3">
         <v>961400</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3002200</v>
+        <v>3072600</v>
       </c>
       <c r="E45" s="3">
-        <v>2726900</v>
+        <v>2790900</v>
       </c>
       <c r="F45" s="3">
-        <v>2671000</v>
+        <v>2733700</v>
       </c>
       <c r="G45" s="3">
-        <v>2705900</v>
+        <v>2769400</v>
       </c>
       <c r="H45" s="3">
-        <v>2430700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1994800</v>
+        <v>2487700</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -3264,70 +3364,73 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>2334800</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2888100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>2202600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>2082900</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
         <v>1776100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y45" s="3">
         <v>2081300</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1960300</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26452000</v>
+        <v>27072600</v>
       </c>
       <c r="E46" s="3">
-        <v>25766800</v>
+        <v>26371300</v>
       </c>
       <c r="F46" s="3">
-        <v>22783600</v>
+        <v>23318100</v>
       </c>
       <c r="G46" s="3">
-        <v>25028800</v>
+        <v>25616000</v>
       </c>
       <c r="H46" s="3">
-        <v>24115100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>24922000</v>
+        <v>24680900</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -3341,70 +3444,73 @@
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>29170100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>27066600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>25894900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3">
         <v>23302900</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="3">
         <v>24388700</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y46" s="3">
         <v>21237000</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA46" s="3">
         <v>23299000</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3168700</v>
+        <v>3243100</v>
       </c>
       <c r="E47" s="3">
-        <v>3281400</v>
+        <v>3358400</v>
       </c>
       <c r="F47" s="3">
-        <v>2197300</v>
+        <v>2248800</v>
       </c>
       <c r="G47" s="3">
-        <v>2816700</v>
+        <v>2882700</v>
       </c>
       <c r="H47" s="3">
-        <v>2749800</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2563300</v>
+        <v>2814300</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3418,70 +3524,73 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>3000200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>4119800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>4735100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
         <v>4475400</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3">
         <v>4250100</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="3">
         <v>5006300</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA47" s="3">
         <v>5912500</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38748000</v>
+        <v>39657100</v>
       </c>
       <c r="E48" s="3">
-        <v>38086700</v>
+        <v>38980300</v>
       </c>
       <c r="F48" s="3">
-        <v>37212000</v>
+        <v>38085000</v>
       </c>
       <c r="G48" s="3">
-        <v>35990200</v>
+        <v>36834500</v>
       </c>
       <c r="H48" s="3">
-        <v>34505100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>69627500</v>
+        <v>35314600</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -3495,70 +3604,73 @@
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>81495700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>39752900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>32758000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>29446200</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
         <v>29917900</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3">
         <v>29300800</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3">
         <v>30415800</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38754000</v>
+        <v>39663200</v>
       </c>
       <c r="E49" s="3">
-        <v>39030300</v>
+        <v>39945900</v>
       </c>
       <c r="F49" s="3">
-        <v>38436800</v>
+        <v>39338600</v>
       </c>
       <c r="G49" s="3">
-        <v>42619900</v>
+        <v>43619800</v>
       </c>
       <c r="H49" s="3">
-        <v>41913700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>42270800</v>
+        <v>42897100</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -3572,50 +3684,53 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>49476000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>49138200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>48791100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>44900500</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>46282100</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>46679300</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3">
         <v>49016000</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,28 +3886,31 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2434700</v>
+        <v>2491800</v>
       </c>
       <c r="E52" s="3">
-        <v>1624800</v>
+        <v>1662900</v>
       </c>
       <c r="F52" s="3">
-        <v>1969900</v>
+        <v>2016100</v>
       </c>
       <c r="G52" s="3">
-        <v>997400</v>
+        <v>1020800</v>
       </c>
       <c r="H52" s="3">
-        <v>1870100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1675600</v>
+        <v>1914000</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -3803,50 +3924,53 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>1961200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2198700</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>2079500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3">
         <v>2103800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52" s="3">
         <v>2141900</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="3">
         <v>3008100</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="3">
         <v>3682200</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,28 +4046,31 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>109557400</v>
+        <v>112127700</v>
       </c>
       <c r="E54" s="3">
-        <v>107790000</v>
+        <v>110318900</v>
       </c>
       <c r="F54" s="3">
-        <v>102599500</v>
+        <v>105006600</v>
       </c>
       <c r="G54" s="3">
-        <v>107452900</v>
+        <v>109973800</v>
       </c>
       <c r="H54" s="3">
-        <v>105153900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>106463500</v>
+        <v>107620900</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -3957,50 +4084,53 @@
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>124610500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>122276200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>114258700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
         <v>104228700</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3">
         <v>106980600</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y54" s="3">
         <v>105231400</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA54" s="3">
         <v>111122200</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,28 +4188,29 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6877100</v>
+        <v>7038400</v>
       </c>
       <c r="E57" s="3">
-        <v>6720500</v>
+        <v>6878200</v>
       </c>
       <c r="F57" s="3">
-        <v>6463200</v>
+        <v>6614800</v>
       </c>
       <c r="G57" s="3">
-        <v>6458200</v>
+        <v>6609700</v>
       </c>
       <c r="H57" s="3">
-        <v>6380400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>6664600</v>
+        <v>6530100</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -4092,70 +4224,73 @@
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>7800600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>7630100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>7968000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>6849300</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="3">
         <v>7323200</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y57" s="3">
         <v>7014700</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA57" s="3">
         <v>7290500</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7805700</v>
+        <v>7988800</v>
       </c>
       <c r="E58" s="3">
-        <v>7930300</v>
+        <v>8116400</v>
       </c>
       <c r="F58" s="3">
-        <v>8066000</v>
+        <v>8255200</v>
       </c>
       <c r="G58" s="3">
-        <v>9768500</v>
+        <v>9997700</v>
       </c>
       <c r="H58" s="3">
-        <v>8932700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>9518200</v>
+        <v>9142300</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -4169,70 +4304,73 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>11140600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>13483900</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>14199500</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>11154600</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
         <v>12309400</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3">
         <v>9679400</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="3">
         <v>15549500</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12639100</v>
+        <v>12935600</v>
       </c>
       <c r="E59" s="3">
-        <v>12554300</v>
+        <v>12848800</v>
       </c>
       <c r="F59" s="3">
-        <v>11793300</v>
+        <v>12069900</v>
       </c>
       <c r="G59" s="3">
-        <v>11993700</v>
+        <v>12275100</v>
       </c>
       <c r="H59" s="3">
-        <v>11467100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>11512000</v>
+        <v>11736100</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -4246,70 +4384,73 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>13474200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>13159200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>13669600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>13019000</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3">
         <v>13447100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="3">
         <v>12104000</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA59" s="3">
         <v>13152500</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27321800</v>
+        <v>27962800</v>
       </c>
       <c r="E60" s="3">
-        <v>27205100</v>
+        <v>27843300</v>
       </c>
       <c r="F60" s="3">
-        <v>26322400</v>
+        <v>26939900</v>
       </c>
       <c r="G60" s="3">
-        <v>28220400</v>
+        <v>28882500</v>
       </c>
       <c r="H60" s="3">
-        <v>26780200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>27694800</v>
+        <v>27408500</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -4323,70 +4464,73 @@
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>32415500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>34273200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>35837100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3">
         <v>31022900</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W60" s="3">
         <v>32601700</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y60" s="3">
         <v>28798100</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA60" s="3">
         <v>30406400</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40212200</v>
+        <v>41155600</v>
       </c>
       <c r="E61" s="3">
-        <v>38517600</v>
+        <v>39421300</v>
       </c>
       <c r="F61" s="3">
-        <v>37708700</v>
+        <v>38593400</v>
       </c>
       <c r="G61" s="3">
-        <v>35870500</v>
+        <v>36712100</v>
       </c>
       <c r="H61" s="3">
-        <v>37935100</v>
+        <v>38825100</v>
       </c>
       <c r="I61" s="3">
-        <v>38640300</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4401,69 +4545,72 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>45226600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>41718700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>31641400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>30594700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>29500500</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>32396300</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>33933700</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6309600</v>
+        <v>6457600</v>
       </c>
       <c r="E62" s="3">
-        <v>6798300</v>
+        <v>6957800</v>
       </c>
       <c r="F62" s="3">
-        <v>6282600</v>
+        <v>6430000</v>
       </c>
       <c r="G62" s="3">
-        <v>6420300</v>
+        <v>6570900</v>
       </c>
       <c r="H62" s="3">
-        <v>5868700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>5804900</v>
+        <v>6006400</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -4477,50 +4624,53 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>6794300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>7724200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>7449900</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>6666000</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3">
         <v>7278300</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3">
         <v>7459000</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3">
         <v>7842200</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,28 +4906,31 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>76889600</v>
+        <v>78693500</v>
       </c>
       <c r="E66" s="3">
-        <v>75533100</v>
+        <v>77305200</v>
       </c>
       <c r="F66" s="3">
-        <v>72776300</v>
+        <v>74483700</v>
       </c>
       <c r="G66" s="3">
-        <v>73147300</v>
+        <v>74863400</v>
       </c>
       <c r="H66" s="3">
-        <v>73130400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>74821000</v>
+        <v>74846100</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -4785,50 +4944,53 @@
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>87574400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>86618300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>77980300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>70930800</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3">
         <v>72227000</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y66" s="3">
         <v>71351800</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA66" s="3">
         <v>75100400</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,28 +5336,31 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-358100</v>
+        <v>-366500</v>
       </c>
       <c r="E72" s="3">
-        <v>-398000</v>
+        <v>-407300</v>
       </c>
       <c r="F72" s="3">
-        <v>-2594200</v>
+        <v>-2655100</v>
       </c>
       <c r="G72" s="3">
-        <v>1846200</v>
+        <v>1889500</v>
       </c>
       <c r="H72" s="3">
-        <v>-863700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1072200</v>
+        <v>-884000</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -5199,50 +5374,53 @@
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1255000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2709200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-2439100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-2560500</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3">
         <v>-2076800</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-3148300</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-3068300</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,28 +5656,31 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32667800</v>
+        <v>33434300</v>
       </c>
       <c r="E76" s="3">
-        <v>32256900</v>
+        <v>33013700</v>
       </c>
       <c r="F76" s="3">
-        <v>29823300</v>
+        <v>30522900</v>
       </c>
       <c r="G76" s="3">
-        <v>34305600</v>
+        <v>35110400</v>
       </c>
       <c r="H76" s="3">
-        <v>32023500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>31642500</v>
+        <v>32774800</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -5507,50 +5694,53 @@
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>37036100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>35657900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>36278400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>33297900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3">
         <v>34753600</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y76" s="3">
         <v>33879600</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA76" s="3">
         <v>36021900</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>1113100</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="3">
-        <v>2898400</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2890500</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1139200</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2966400</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-2958300</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>3752200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>878200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>1981100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1222300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" s="3">
         <v>1031500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U81" s="3">
         <v>866300</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W81" s="3">
         <v>1093900</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y81" s="3">
         <v>674300</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-610400</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6013,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>4335700</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="3">
-        <v>8532800</v>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="3">
-        <v>4219000</v>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>8495900</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>-4564400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>4991800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>4833800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3">
         <v>4246600</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" s="3">
         <v>3795800</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W83" s="3">
         <v>3921400</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y83" s="3">
         <v>3759800</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA83" s="3">
         <v>4048500</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>5621300</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="3">
-        <v>11206800</v>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="3">
-        <v>5346100</v>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>12664000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>-6386200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>7064000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>4869100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3">
         <v>6303700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" s="3">
         <v>4586300</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W89" s="3">
         <v>6083400</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y89" s="3">
         <v>5331700</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA89" s="3">
         <v>5744600</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-3771200</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>-8726300</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>-4175100</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8523800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>5484000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-4987200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-4882100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
         <v>-5017900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1928300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3733200</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-3787800</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-5104900</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-4507300</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>-5960500</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
-        <v>-3249500</v>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5549500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>6573800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-6084500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-4891500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-5612900</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3">
         <v>-4180100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
         <v>-5231800</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-3677900</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-4880700</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6953,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1060200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2121500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1326500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1590900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>1445500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-929300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1248200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-941600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1168300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-746100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-624500</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7271,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-1506100</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
-        <v>-4821400</v>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="3">
-        <v>-3468000</v>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5395900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1238200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-336200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>403500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
         <v>-423500</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" s="3">
         <v>-848800</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1973600</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-1098400</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-103300</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>31900</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="3">
-        <v>49900</v>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
-        <v>20900</v>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
         <v>-58800</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-24000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
         <v>2400</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3">
         <v>2400</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W101" s="3">
         <v>3400</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-48200</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-129100</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-360100</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="3">
-        <v>474800</v>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="3">
-        <v>-1350500</v>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>1659700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>-1051600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>608200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>383500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3">
         <v>269700</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3">
         <v>-443600</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W102" s="3">
         <v>-1118600</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y102" s="3">
         <v>507100</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA102" s="3">
         <v>631500</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AB102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -783,25 +783,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11048100</v>
+        <v>11450700</v>
       </c>
       <c r="E8" s="3">
-        <v>21740000</v>
+        <v>22532200</v>
       </c>
       <c r="F8" s="3">
-        <v>10802100</v>
+        <v>11195800</v>
       </c>
       <c r="G8" s="3">
-        <v>22105400</v>
+        <v>22911000</v>
       </c>
       <c r="H8" s="3">
-        <v>10726600</v>
+        <v>11117500</v>
       </c>
       <c r="I8" s="3">
-        <v>21301000</v>
+        <v>22077300</v>
       </c>
       <c r="J8" s="3">
-        <v>10529600</v>
+        <v>10913300</v>
       </c>
       <c r="K8" s="3">
         <v>21445100</v>
@@ -863,25 +863,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4667100</v>
+        <v>4837200</v>
       </c>
       <c r="E9" s="3">
-        <v>8713500</v>
+        <v>9031100</v>
       </c>
       <c r="F9" s="3">
-        <v>4597700</v>
+        <v>4765200</v>
       </c>
       <c r="G9" s="3">
-        <v>9429100</v>
+        <v>9772700</v>
       </c>
       <c r="H9" s="3">
-        <v>4387400</v>
+        <v>4547300</v>
       </c>
       <c r="I9" s="3">
-        <v>8917700</v>
+        <v>9242700</v>
       </c>
       <c r="J9" s="3">
-        <v>4434400</v>
+        <v>4596000</v>
       </c>
       <c r="K9" s="3">
         <v>9110300</v>
@@ -943,25 +943,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6381000</v>
+        <v>6613600</v>
       </c>
       <c r="E10" s="3">
-        <v>13026400</v>
+        <v>13501100</v>
       </c>
       <c r="F10" s="3">
-        <v>6204400</v>
+        <v>6430500</v>
       </c>
       <c r="G10" s="3">
-        <v>12676300</v>
+        <v>13138200</v>
       </c>
       <c r="H10" s="3">
-        <v>6339200</v>
+        <v>6570200</v>
       </c>
       <c r="I10" s="3">
-        <v>12383300</v>
+        <v>12834600</v>
       </c>
       <c r="J10" s="3">
-        <v>6095200</v>
+        <v>6317300</v>
       </c>
       <c r="K10" s="3">
         <v>12334800</v>
@@ -1213,25 +1213,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>57200</v>
+        <v>59200</v>
       </c>
       <c r="E14" s="3">
-        <v>55100</v>
+        <v>57100</v>
       </c>
       <c r="F14" s="3">
-        <v>80600</v>
+        <v>83600</v>
       </c>
       <c r="G14" s="3">
-        <v>1534300</v>
+        <v>1590200</v>
       </c>
       <c r="H14" s="3">
-        <v>32700</v>
+        <v>33900</v>
       </c>
       <c r="I14" s="3">
-        <v>4237300</v>
+        <v>4391800</v>
       </c>
       <c r="J14" s="3">
-        <v>200100</v>
+        <v>207400</v>
       </c>
       <c r="K14" s="3">
         <v>173500</v>
@@ -1293,25 +1293,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>381800</v>
+        <v>395700</v>
       </c>
       <c r="E15" s="3">
-        <v>4437400</v>
+        <v>4599100</v>
       </c>
       <c r="F15" s="3">
-        <v>388900</v>
+        <v>403100</v>
       </c>
       <c r="G15" s="3">
-        <v>4415000</v>
+        <v>4575900</v>
       </c>
       <c r="H15" s="3">
-        <v>370600</v>
+        <v>384100</v>
       </c>
       <c r="I15" s="3">
-        <v>4318000</v>
+        <v>4475300</v>
       </c>
       <c r="J15" s="3">
-        <v>365400</v>
+        <v>378800</v>
       </c>
       <c r="K15" s="3">
         <v>4315700</v>
@@ -1403,19 +1403,19 @@
         <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>19269600</v>
+        <v>19971900</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="3">
-        <v>17743500</v>
+        <v>18390200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="3">
-        <v>23089500</v>
+        <v>23930900</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>8</v>
@@ -1483,19 +1483,19 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>2470300</v>
+        <v>2560400</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="3">
-        <v>4361900</v>
+        <v>4520800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="3">
-        <v>-1788400</v>
+        <v>-1853600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>8</v>
@@ -1593,19 +1593,19 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="3">
-        <v>85700</v>
+        <v>88900</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="3">
-        <v>85700</v>
+        <v>88900</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>8</v>
@@ -1750,25 +1750,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40800</v>
+        <v>42300</v>
       </c>
       <c r="E22" s="3">
-        <v>366500</v>
+        <v>379800</v>
       </c>
       <c r="F22" s="3">
+        <v>30700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>454900</v>
+      </c>
+      <c r="H22" s="3">
         <v>29600</v>
       </c>
-      <c r="G22" s="3">
-        <v>438900</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>550200</v>
+      </c>
+      <c r="J22" s="3">
         <v>28600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>530800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>27600</v>
       </c>
       <c r="K22" s="3">
         <v>592500</v>
@@ -1833,19 +1833,19 @@
         <v>8</v>
       </c>
       <c r="E23" s="3">
-        <v>2089600</v>
+        <v>2165700</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="3">
-        <v>4008700</v>
+        <v>4154800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="3">
-        <v>-2233500</v>
+        <v>-2314900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>8</v>
@@ -1913,19 +1913,19 @@
         <v>8</v>
       </c>
       <c r="E24" s="3">
-        <v>592100</v>
+        <v>613600</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="3">
-        <v>556300</v>
+        <v>576600</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="3">
-        <v>425700</v>
+        <v>441200</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
@@ -2073,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>1497500</v>
+        <v>1552100</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="3">
-        <v>3452300</v>
+        <v>3578200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="3">
-        <v>-2659200</v>
+        <v>-2756100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>8</v>
@@ -2153,19 +2153,19 @@
         <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>1139200</v>
+        <v>1180700</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="3">
-        <v>2966400</v>
+        <v>3074500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="3">
-        <v>-2958300</v>
+        <v>-3066100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>8</v>
@@ -2553,19 +2553,19 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="3">
-        <v>-85700</v>
+        <v>-88900</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="3">
-        <v>-85700</v>
+        <v>-88900</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>8</v>
@@ -2633,19 +2633,19 @@
         <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>1139200</v>
+        <v>1180700</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>2966400</v>
+        <v>3074500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="3">
-        <v>-2958300</v>
+        <v>-3066100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>8</v>
@@ -2793,19 +2793,19 @@
         <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>1139200</v>
+        <v>1180700</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="3">
-        <v>2966400</v>
+        <v>3074500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="3">
-        <v>-2958300</v>
+        <v>-3066100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>8</v>
@@ -3015,19 +3015,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8430800</v>
+        <v>8738000</v>
       </c>
       <c r="E41" s="3">
-        <v>8800300</v>
+        <v>9121000</v>
       </c>
       <c r="F41" s="3">
-        <v>6932300</v>
+        <v>7184900</v>
       </c>
       <c r="G41" s="3">
-        <v>8314400</v>
+        <v>8617400</v>
       </c>
       <c r="H41" s="3">
-        <v>6496400</v>
+        <v>6733100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
@@ -3095,19 +3095,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3083800</v>
+        <v>3196200</v>
       </c>
       <c r="E42" s="3">
-        <v>2356000</v>
+        <v>2441900</v>
       </c>
       <c r="F42" s="3">
-        <v>2385600</v>
+        <v>2472500</v>
       </c>
       <c r="G42" s="3">
-        <v>3320700</v>
+        <v>3441700</v>
       </c>
       <c r="H42" s="3">
-        <v>4464000</v>
+        <v>4626600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -3175,19 +3175,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11470700</v>
+        <v>11888700</v>
       </c>
       <c r="E43" s="3">
-        <v>11452400</v>
+        <v>11869700</v>
       </c>
       <c r="F43" s="3">
-        <v>10449900</v>
+        <v>10830700</v>
       </c>
       <c r="G43" s="3">
-        <v>10380500</v>
+        <v>10758800</v>
       </c>
       <c r="H43" s="3">
-        <v>10348900</v>
+        <v>10726000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -3255,19 +3255,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1014700</v>
+        <v>1051700</v>
       </c>
       <c r="E44" s="3">
-        <v>971800</v>
+        <v>1007200</v>
       </c>
       <c r="F44" s="3">
-        <v>816600</v>
+        <v>846400</v>
       </c>
       <c r="G44" s="3">
-        <v>830900</v>
+        <v>861200</v>
       </c>
       <c r="H44" s="3">
-        <v>884000</v>
+        <v>916200</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -3335,19 +3335,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3072600</v>
+        <v>3184600</v>
       </c>
       <c r="E45" s="3">
-        <v>2790900</v>
+        <v>2892600</v>
       </c>
       <c r="F45" s="3">
-        <v>2733700</v>
+        <v>2833300</v>
       </c>
       <c r="G45" s="3">
-        <v>2769400</v>
+        <v>2870400</v>
       </c>
       <c r="H45" s="3">
-        <v>2487700</v>
+        <v>2578300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -3415,19 +3415,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27072600</v>
+        <v>28059200</v>
       </c>
       <c r="E46" s="3">
-        <v>26371300</v>
+        <v>27332400</v>
       </c>
       <c r="F46" s="3">
-        <v>23318100</v>
+        <v>24167900</v>
       </c>
       <c r="G46" s="3">
-        <v>25616000</v>
+        <v>26549500</v>
       </c>
       <c r="H46" s="3">
-        <v>24680900</v>
+        <v>25580300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
@@ -3495,19 +3495,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3243100</v>
+        <v>3361300</v>
       </c>
       <c r="E47" s="3">
-        <v>3358400</v>
+        <v>3480800</v>
       </c>
       <c r="F47" s="3">
-        <v>2248800</v>
+        <v>2330800</v>
       </c>
       <c r="G47" s="3">
-        <v>2882700</v>
+        <v>2987800</v>
       </c>
       <c r="H47" s="3">
-        <v>2814300</v>
+        <v>2916900</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3575,19 +3575,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39657100</v>
+        <v>41102200</v>
       </c>
       <c r="E48" s="3">
-        <v>38980300</v>
+        <v>40400800</v>
       </c>
       <c r="F48" s="3">
-        <v>38085000</v>
+        <v>39472900</v>
       </c>
       <c r="G48" s="3">
-        <v>36834500</v>
+        <v>38176900</v>
       </c>
       <c r="H48" s="3">
-        <v>35314600</v>
+        <v>36601500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
@@ -3655,19 +3655,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39663200</v>
+        <v>41108600</v>
       </c>
       <c r="E49" s="3">
-        <v>39945900</v>
+        <v>41401700</v>
       </c>
       <c r="F49" s="3">
-        <v>39338600</v>
+        <v>40772100</v>
       </c>
       <c r="G49" s="3">
-        <v>43619800</v>
+        <v>45209400</v>
       </c>
       <c r="H49" s="3">
-        <v>42897100</v>
+        <v>44460300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -3895,19 +3895,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2491800</v>
+        <v>2582600</v>
       </c>
       <c r="E52" s="3">
-        <v>1662900</v>
+        <v>1723500</v>
       </c>
       <c r="F52" s="3">
-        <v>2016100</v>
+        <v>2089600</v>
       </c>
       <c r="G52" s="3">
-        <v>1020800</v>
+        <v>1058000</v>
       </c>
       <c r="H52" s="3">
-        <v>1914000</v>
+        <v>1983800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -4055,19 +4055,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>112127700</v>
+        <v>116213900</v>
       </c>
       <c r="E54" s="3">
-        <v>110318900</v>
+        <v>114339100</v>
       </c>
       <c r="F54" s="3">
-        <v>105006600</v>
+        <v>108833300</v>
       </c>
       <c r="G54" s="3">
-        <v>109973800</v>
+        <v>113981500</v>
       </c>
       <c r="H54" s="3">
-        <v>107620900</v>
+        <v>111542800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
@@ -4195,19 +4195,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7038400</v>
+        <v>7294900</v>
       </c>
       <c r="E57" s="3">
-        <v>6878200</v>
+        <v>7128800</v>
       </c>
       <c r="F57" s="3">
-        <v>6614800</v>
+        <v>6855800</v>
       </c>
       <c r="G57" s="3">
-        <v>6609700</v>
+        <v>6850600</v>
       </c>
       <c r="H57" s="3">
-        <v>6530100</v>
+        <v>6768000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
@@ -4275,19 +4275,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7988800</v>
+        <v>8279900</v>
       </c>
       <c r="E58" s="3">
-        <v>8116400</v>
+        <v>8412200</v>
       </c>
       <c r="F58" s="3">
-        <v>8255200</v>
+        <v>8556000</v>
       </c>
       <c r="G58" s="3">
-        <v>9997700</v>
+        <v>10362100</v>
       </c>
       <c r="H58" s="3">
-        <v>9142300</v>
+        <v>9475400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -4355,19 +4355,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12935600</v>
+        <v>13407000</v>
       </c>
       <c r="E59" s="3">
-        <v>12848800</v>
+        <v>13317000</v>
       </c>
       <c r="F59" s="3">
-        <v>12069900</v>
+        <v>12509800</v>
       </c>
       <c r="G59" s="3">
-        <v>12275100</v>
+        <v>12722500</v>
       </c>
       <c r="H59" s="3">
-        <v>11736100</v>
+        <v>12163800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -4435,19 +4435,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27962800</v>
+        <v>28981800</v>
       </c>
       <c r="E60" s="3">
-        <v>27843300</v>
+        <v>28858000</v>
       </c>
       <c r="F60" s="3">
-        <v>26939900</v>
+        <v>27921700</v>
       </c>
       <c r="G60" s="3">
-        <v>28882500</v>
+        <v>29935100</v>
       </c>
       <c r="H60" s="3">
-        <v>27408500</v>
+        <v>28407300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
@@ -4515,19 +4515,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41155600</v>
+        <v>42655400</v>
       </c>
       <c r="E61" s="3">
-        <v>39421300</v>
+        <v>40857800</v>
       </c>
       <c r="F61" s="3">
-        <v>38593400</v>
+        <v>39999800</v>
       </c>
       <c r="G61" s="3">
-        <v>36712100</v>
+        <v>38049900</v>
       </c>
       <c r="H61" s="3">
-        <v>38825100</v>
+        <v>40240000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4595,19 +4595,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6457600</v>
+        <v>6692900</v>
       </c>
       <c r="E62" s="3">
-        <v>6957800</v>
+        <v>7211300</v>
       </c>
       <c r="F62" s="3">
-        <v>6430000</v>
+        <v>6664300</v>
       </c>
       <c r="G62" s="3">
-        <v>6570900</v>
+        <v>6810300</v>
       </c>
       <c r="H62" s="3">
-        <v>6006400</v>
+        <v>6225300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -4915,19 +4915,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>78693500</v>
+        <v>81561200</v>
       </c>
       <c r="E66" s="3">
-        <v>77305200</v>
+        <v>80122300</v>
       </c>
       <c r="F66" s="3">
-        <v>74483700</v>
+        <v>77198000</v>
       </c>
       <c r="G66" s="3">
-        <v>74863400</v>
+        <v>77591600</v>
       </c>
       <c r="H66" s="3">
-        <v>74846100</v>
+        <v>77573600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
@@ -5345,19 +5345,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-366500</v>
+        <v>-379800</v>
       </c>
       <c r="E72" s="3">
-        <v>-407300</v>
+        <v>-422100</v>
       </c>
       <c r="F72" s="3">
-        <v>-2655100</v>
+        <v>-2751900</v>
       </c>
       <c r="G72" s="3">
-        <v>1889500</v>
+        <v>1958400</v>
       </c>
       <c r="H72" s="3">
-        <v>-884000</v>
+        <v>-916200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -5665,19 +5665,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33434300</v>
+        <v>34652700</v>
       </c>
       <c r="E76" s="3">
-        <v>33013700</v>
+        <v>34216800</v>
       </c>
       <c r="F76" s="3">
-        <v>30522900</v>
+        <v>31635300</v>
       </c>
       <c r="G76" s="3">
-        <v>35110400</v>
+        <v>36389900</v>
       </c>
       <c r="H76" s="3">
-        <v>32774800</v>
+        <v>33969200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
@@ -5913,19 +5913,19 @@
         <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>1139200</v>
+        <v>1180700</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="3">
-        <v>2966400</v>
+        <v>3074500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I81" s="3">
-        <v>-2958300</v>
+        <v>-3066100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,359 +666,384 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11450700</v>
+        <v>11435600</v>
       </c>
       <c r="E8" s="3">
-        <v>22532200</v>
+        <v>23879200</v>
       </c>
       <c r="F8" s="3">
-        <v>11195800</v>
+        <v>11655300</v>
       </c>
       <c r="G8" s="3">
-        <v>22911000</v>
+        <v>22934700</v>
       </c>
       <c r="H8" s="3">
-        <v>11117500</v>
+        <v>11395800</v>
       </c>
       <c r="I8" s="3">
+        <v>23320300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11316100</v>
+      </c>
+      <c r="K8" s="3">
         <v>22077300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10913300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>21445100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10985100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>22657100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>11338900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>25291900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>12956700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>24202100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>12183300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>24981700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>11416000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>22247700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>11197400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>23304900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>11527300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>22538500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>11820300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>24461000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>12117200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4837200</v>
+        <v>5014000</v>
       </c>
       <c r="E9" s="3">
-        <v>9031100</v>
+        <v>9969900</v>
       </c>
       <c r="F9" s="3">
-        <v>4765200</v>
+        <v>4923600</v>
       </c>
       <c r="G9" s="3">
-        <v>9772700</v>
+        <v>9192400</v>
       </c>
       <c r="H9" s="3">
-        <v>4547300</v>
+        <v>4850400</v>
       </c>
       <c r="I9" s="3">
+        <v>9947300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4628500</v>
+      </c>
+      <c r="K9" s="3">
         <v>9242700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4596000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9110300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4422500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>9334900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4782500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>10854600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5447500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>10072300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>5112600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>11323900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4968700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>9871000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>4695000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>10603900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>5053400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>10019400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>5232800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>10430500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>5278600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6613600</v>
+        <v>6421600</v>
       </c>
       <c r="E10" s="3">
-        <v>13501100</v>
+        <v>13909200</v>
       </c>
       <c r="F10" s="3">
-        <v>6430500</v>
+        <v>6731700</v>
       </c>
       <c r="G10" s="3">
-        <v>13138200</v>
+        <v>13742300</v>
       </c>
       <c r="H10" s="3">
-        <v>6570200</v>
+        <v>6545400</v>
       </c>
       <c r="I10" s="3">
+        <v>13372900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6687500</v>
+      </c>
+      <c r="K10" s="3">
         <v>12834600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6317300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>12334800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6562600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>13322200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>6556400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>14437400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>7509200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>14129700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>7070700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>13657800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>6447300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>12376700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>6502400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>12700900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>6473900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>12519200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>6587400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>14030600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>6838600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,168 +1240,186 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>59200</v>
+        <v>-56000</v>
       </c>
       <c r="E14" s="3">
-        <v>57100</v>
+        <v>1572300</v>
       </c>
       <c r="F14" s="3">
-        <v>83600</v>
+        <v>60300</v>
       </c>
       <c r="G14" s="3">
-        <v>1590200</v>
+        <v>58200</v>
       </c>
       <c r="H14" s="3">
-        <v>33900</v>
+        <v>85100</v>
       </c>
       <c r="I14" s="3">
+        <v>1618600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K14" s="3">
         <v>4391800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>207400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>173500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-63300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>240000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>27300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>202000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>229400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>123200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>218800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>16600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>68100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>17600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>824700</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>543000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>5900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>1926200</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>395700</v>
+        <v>398500</v>
       </c>
       <c r="E15" s="3">
-        <v>4599100</v>
+        <v>4517600</v>
       </c>
       <c r="F15" s="3">
-        <v>403100</v>
+        <v>402800</v>
       </c>
       <c r="G15" s="3">
-        <v>4575900</v>
+        <v>4681300</v>
       </c>
       <c r="H15" s="3">
-        <v>384100</v>
+        <v>410300</v>
       </c>
       <c r="I15" s="3">
+        <v>4657600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>390900</v>
+      </c>
+      <c r="K15" s="3">
         <v>4475300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>378800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>4315700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>380900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>4572000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>340400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>4990700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>376100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>4833800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>355300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>4246600</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3">
         <v>3795800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>325000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>3921400</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA15" s="3">
         <v>3759800</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC15" s="3">
         <v>4048500</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,8 +1445,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1403,79 +1456,85 @@
         <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>19971900</v>
+        <v>21315100</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="3">
-        <v>18390200</v>
+        <v>20328600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="3">
+        <v>18718700</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>23930900</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>18181600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>20203700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>21157000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="3">
         <v>21392800</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="3">
         <v>22049300</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="3">
         <v>19667400</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="3">
         <v>20511100</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="3">
         <v>19971400</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC17" s="3">
         <v>23072400</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1483,79 +1542,85 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>2560400</v>
+        <v>2564100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="3">
-        <v>4520800</v>
+        <v>2606100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="3">
+        <v>4601600</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1853600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>3263500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>2453500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>4135000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
         <v>2809200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="3">
         <v>2932400</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="3">
         <v>2580300</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="3">
         <v>2793800</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="3">
         <v>2567100</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC18" s="3">
         <v>1388600</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,8 +1649,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1593,239 +1660,257 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-14800</v>
+        <v>18300</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
+        <v>90500</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>88900</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
-        <v>88900</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>21900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>-126500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>93400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3">
         <v>-121200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="3">
         <v>176300</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="3">
         <v>-186700</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-34800</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-460000</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC20" s="3">
         <v>189000</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="E21" s="3">
+        <v>11781300</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
+      <c r="G21" s="3">
+        <v>7272300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+      <c r="I21" s="3">
+        <v>13904900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>11781300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>9220200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>7521900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>7355300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>6189400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
         <v>6680300</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3">
         <v>5866900</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="3">
         <v>5626100</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>42300</v>
+        <v>52800</v>
       </c>
       <c r="E22" s="3">
-        <v>379800</v>
+        <v>607400</v>
       </c>
       <c r="F22" s="3">
+        <v>43100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>386600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>31200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>463100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>550200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>28600</v>
+      </c>
+      <c r="M22" s="3">
+        <v>592500</v>
+      </c>
+      <c r="N22" s="3">
+        <v>34300</v>
+      </c>
+      <c r="O22" s="3">
+        <v>682900</v>
+      </c>
+      <c r="P22" s="3">
+        <v>30500</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>703900</v>
+      </c>
+      <c r="R22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="S22" s="3">
+        <v>747000</v>
+      </c>
+      <c r="T22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="U22" s="3">
+        <v>708600</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
+        <v>814700</v>
+      </c>
+      <c r="X22" s="3">
         <v>30700</v>
       </c>
-      <c r="G22" s="3">
-        <v>454900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>29600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>550200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>28600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>592500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>34300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>682900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>30500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>703900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>38000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>747000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>34700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>708600</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U22" s="3">
-        <v>814700</v>
-      </c>
-      <c r="V22" s="3">
-        <v>30700</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>736000</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="3">
         <v>693400</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="3">
         <v>792300</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1833,79 +1918,85 @@
         <v>8</v>
       </c>
       <c r="E23" s="3">
-        <v>2165700</v>
+        <v>1975000</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="3">
-        <v>4154800</v>
+        <v>2204400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="3">
+        <v>4229000</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2314900</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>2693000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>1644000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3">
         <v>3524400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="3">
         <v>1941100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="3">
         <v>2400100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23" s="3">
         <v>1578900</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y23" s="3">
         <v>2022900</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA23" s="3">
         <v>1413700</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC23" s="3">
         <v>785300</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1913,79 +2004,85 @@
         <v>8</v>
       </c>
       <c r="E24" s="3">
-        <v>613600</v>
+        <v>737700</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="3">
-        <v>576600</v>
+        <v>624600</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="3">
+        <v>586900</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>441200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1335500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>535600</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1090400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
         <v>603500</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="3">
         <v>887200</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="3">
         <v>613800</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y24" s="3">
         <v>578900</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA24" s="3">
         <v>601400</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC24" s="3">
         <v>860400</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,8 +2161,14 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2073,79 +2176,85 @@
         <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>1552100</v>
+        <v>1237400</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="3">
-        <v>3578200</v>
+        <v>1579800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="3">
+        <v>3642100</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2756100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>4028500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>1108400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>2434000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3">
         <v>1337600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" s="3">
         <v>1512900</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W26" s="3">
         <v>965100</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="3">
         <v>1444000</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA26" s="3">
         <v>812300</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-75100</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2153,79 +2262,85 @@
         <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>1180700</v>
+        <v>893800</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="3">
-        <v>3074500</v>
+        <v>1201800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="3">
+        <v>3129500</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3066100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>3752200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>878200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1981100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3">
         <v>1222300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="3">
         <v>1031500</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27" s="3">
         <v>866300</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="3">
         <v>1061400</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="3">
         <v>674300</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-615100</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2348,44 +2469,50 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>32500</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3">
         <v>4700</v>
       </c>
-      <c r="AB29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,8 +2677,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2553,79 +2692,85 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>14800</v>
+        <v>-18300</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="3">
+        <v>15100</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-90500</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>-88900</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-88900</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>-21900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>126500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-93400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="3">
         <v>121200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="3">
         <v>-176300</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W32" s="3">
         <v>186700</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="3">
         <v>34800</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA32" s="3">
         <v>460000</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-189000</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2633,79 +2778,85 @@
         <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>1180700</v>
+        <v>893800</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>3074500</v>
+        <v>1201800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="3">
+        <v>3129500</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3066100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>3752200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>878200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1981100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3">
         <v>1222300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" s="3">
         <v>1031500</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33" s="3">
         <v>866300</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="3">
         <v>1093900</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA33" s="3">
         <v>674300</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-610400</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,8 +2935,14 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2793,164 +2950,176 @@
         <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>1180700</v>
+        <v>893800</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="3">
-        <v>3074500</v>
+        <v>1201800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="3">
+        <v>3129500</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3066100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>3752200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>878200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1981100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="3">
         <v>1222300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="3">
         <v>1031500</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W35" s="3">
         <v>866300</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1093900</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA35" s="3">
         <v>674300</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-610400</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,25 +3180,27 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8738000</v>
+        <v>6465700</v>
       </c>
       <c r="E41" s="3">
-        <v>9121000</v>
+        <v>8894100</v>
       </c>
       <c r="F41" s="3">
-        <v>7184900</v>
+        <v>9284000</v>
       </c>
       <c r="G41" s="3">
-        <v>8617400</v>
+        <v>7313200</v>
       </c>
       <c r="H41" s="3">
-        <v>6733100</v>
+        <v>8771400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
@@ -3047,67 +3220,73 @@
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>7566000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>7011300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
         <v>6664500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3">
         <v>5935800</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="3">
         <v>6518800</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="3">
         <v>7637400</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="3">
         <v>7459600</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3196200</v>
+        <v>4896700</v>
       </c>
       <c r="E42" s="3">
-        <v>2441900</v>
+        <v>3253300</v>
       </c>
       <c r="F42" s="3">
-        <v>2472500</v>
+        <v>2485500</v>
       </c>
       <c r="G42" s="3">
-        <v>3441700</v>
+        <v>2516700</v>
       </c>
       <c r="H42" s="3">
-        <v>4626600</v>
+        <v>3503200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -3127,67 +3306,73 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3">
         <v>5663100</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>3346900</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" s="3">
         <v>3339300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3">
         <v>2595700</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y42" s="3">
         <v>6688200</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA42" s="3">
         <v>4007700</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC42" s="3">
         <v>2185600</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11888700</v>
+        <v>12949700</v>
       </c>
       <c r="E43" s="3">
-        <v>11869700</v>
+        <v>12101100</v>
       </c>
       <c r="F43" s="3">
-        <v>10830700</v>
+        <v>12081700</v>
       </c>
       <c r="G43" s="3">
-        <v>10758800</v>
+        <v>11024200</v>
       </c>
       <c r="H43" s="3">
-        <v>10726000</v>
+        <v>10951000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -3207,67 +3392,73 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>12548500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>12701600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>12547000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3">
         <v>11737600</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y43" s="3">
         <v>8477800</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="3">
         <v>6644400</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC43" s="3">
         <v>10732100</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1051700</v>
+        <v>1128600</v>
       </c>
       <c r="E44" s="3">
-        <v>1007200</v>
+        <v>1070400</v>
       </c>
       <c r="F44" s="3">
-        <v>846400</v>
+        <v>1025200</v>
       </c>
       <c r="G44" s="3">
-        <v>861200</v>
+        <v>861500</v>
       </c>
       <c r="H44" s="3">
-        <v>916200</v>
+        <v>876600</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -3287,67 +3478,73 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1057700</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>1118800</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>1141500</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="3">
         <v>950900</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y44" s="3">
         <v>927900</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="3">
         <v>866200</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC44" s="3">
         <v>961400</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3184600</v>
+        <v>3423500</v>
       </c>
       <c r="E45" s="3">
-        <v>2892600</v>
+        <v>3241500</v>
       </c>
       <c r="F45" s="3">
-        <v>2833300</v>
+        <v>2944200</v>
       </c>
       <c r="G45" s="3">
-        <v>2870400</v>
+        <v>2883900</v>
       </c>
       <c r="H45" s="3">
-        <v>2578300</v>
+        <v>2921600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -3367,67 +3564,73 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2334800</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>2888100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>2202600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
         <v>2082900</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1776100</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="3">
         <v>2081300</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC45" s="3">
         <v>1960300</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28059200</v>
+        <v>28864200</v>
       </c>
       <c r="E46" s="3">
-        <v>27332400</v>
+        <v>28560500</v>
       </c>
       <c r="F46" s="3">
-        <v>24167900</v>
+        <v>27820600</v>
       </c>
       <c r="G46" s="3">
-        <v>26549500</v>
+        <v>24599600</v>
       </c>
       <c r="H46" s="3">
-        <v>25580300</v>
+        <v>27023700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
@@ -3447,67 +3650,73 @@
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>29170100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>27066600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3">
         <v>25894900</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="3">
         <v>23302900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y46" s="3">
         <v>24388700</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA46" s="3">
         <v>21237000</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC46" s="3">
         <v>23299000</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3361300</v>
+        <v>3358900</v>
       </c>
       <c r="E47" s="3">
-        <v>3480800</v>
+        <v>3421300</v>
       </c>
       <c r="F47" s="3">
-        <v>2330800</v>
+        <v>3543000</v>
       </c>
       <c r="G47" s="3">
-        <v>2987800</v>
+        <v>2372400</v>
       </c>
       <c r="H47" s="3">
-        <v>2916900</v>
+        <v>3041200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3527,67 +3736,73 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3000200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>4119800</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
         <v>4735100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3">
         <v>4475400</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="3">
         <v>4250100</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA47" s="3">
         <v>5006300</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC47" s="3">
         <v>5912500</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41102200</v>
+        <v>42619400</v>
       </c>
       <c r="E48" s="3">
-        <v>40400800</v>
+        <v>41836500</v>
       </c>
       <c r="F48" s="3">
-        <v>39472900</v>
+        <v>41122500</v>
       </c>
       <c r="G48" s="3">
-        <v>38176900</v>
+        <v>40178100</v>
       </c>
       <c r="H48" s="3">
-        <v>36601500</v>
+        <v>38858900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
@@ -3607,67 +3822,73 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>81495700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>39752900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>32758000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
         <v>29446200</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3">
         <v>29917900</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3">
         <v>29300800</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC48" s="3">
         <v>30415800</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>41108600</v>
+        <v>40985700</v>
       </c>
       <c r="E49" s="3">
-        <v>41401700</v>
+        <v>41842900</v>
       </c>
       <c r="F49" s="3">
-        <v>40772100</v>
+        <v>42141300</v>
       </c>
       <c r="G49" s="3">
-        <v>45209400</v>
+        <v>41500500</v>
       </c>
       <c r="H49" s="3">
-        <v>44460300</v>
+        <v>46017000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -3687,50 +3908,56 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>49476000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>49138200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>48791100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>44900500</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>46282100</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3">
         <v>46679300</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="3">
         <v>49016000</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,25 +4122,31 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2582600</v>
+        <v>2254000</v>
       </c>
       <c r="E52" s="3">
-        <v>1723500</v>
+        <v>2628700</v>
       </c>
       <c r="F52" s="3">
-        <v>2089600</v>
+        <v>1754300</v>
       </c>
       <c r="G52" s="3">
-        <v>1058000</v>
+        <v>2126900</v>
       </c>
       <c r="H52" s="3">
-        <v>1983800</v>
+        <v>1076900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -3927,50 +4166,56 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1961200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>2198700</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3">
         <v>2079500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52" s="3">
         <v>2103800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2141900</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="3">
         <v>3008100</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC52" s="3">
         <v>3682200</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,25 +4294,31 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>116213900</v>
+        <v>118082100</v>
       </c>
       <c r="E54" s="3">
-        <v>114339100</v>
+        <v>118289900</v>
       </c>
       <c r="F54" s="3">
-        <v>108833300</v>
+        <v>116381700</v>
       </c>
       <c r="G54" s="3">
-        <v>113981500</v>
+        <v>110777500</v>
       </c>
       <c r="H54" s="3">
-        <v>111542800</v>
+        <v>116017700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
@@ -4087,50 +4338,56 @@
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>124610500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>122276200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
         <v>114258700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3">
         <v>104228700</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y54" s="3">
         <v>106980600</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA54" s="3">
         <v>105231400</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC54" s="3">
         <v>111122200</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,25 +4448,27 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7294900</v>
+        <v>7610500</v>
       </c>
       <c r="E57" s="3">
-        <v>7128800</v>
+        <v>7425200</v>
       </c>
       <c r="F57" s="3">
-        <v>6855800</v>
+        <v>7256200</v>
       </c>
       <c r="G57" s="3">
-        <v>6850600</v>
+        <v>6978300</v>
       </c>
       <c r="H57" s="3">
-        <v>6768000</v>
+        <v>6972900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
@@ -4227,67 +4488,73 @@
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>7800600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>7630100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>7968000</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="3">
         <v>6849300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y57" s="3">
         <v>7323200</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA57" s="3">
         <v>7014700</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC57" s="3">
         <v>7290500</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8279900</v>
+        <v>9955900</v>
       </c>
       <c r="E58" s="3">
-        <v>8412200</v>
+        <v>8427800</v>
       </c>
       <c r="F58" s="3">
-        <v>8556000</v>
+        <v>8562400</v>
       </c>
       <c r="G58" s="3">
-        <v>10362100</v>
+        <v>8708900</v>
       </c>
       <c r="H58" s="3">
-        <v>9475400</v>
+        <v>10547200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -4307,67 +4574,73 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>11140600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>13483900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>14199500</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
         <v>11154600</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3">
         <v>12309400</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="3">
         <v>9679400</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="3">
         <v>15549500</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13407000</v>
+        <v>13903900</v>
       </c>
       <c r="E59" s="3">
-        <v>13317000</v>
+        <v>13646500</v>
       </c>
       <c r="F59" s="3">
-        <v>12509800</v>
+        <v>13554900</v>
       </c>
       <c r="G59" s="3">
-        <v>12722500</v>
+        <v>12733300</v>
       </c>
       <c r="H59" s="3">
-        <v>12163800</v>
+        <v>12949700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -4387,67 +4660,73 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>13474200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>13159200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>13669600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3">
         <v>13019000</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="3">
         <v>13447100</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA59" s="3">
         <v>12104000</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC59" s="3">
         <v>13152500</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28981800</v>
+        <v>31470200</v>
       </c>
       <c r="E60" s="3">
-        <v>28858000</v>
+        <v>29499500</v>
       </c>
       <c r="F60" s="3">
-        <v>27921700</v>
+        <v>29373500</v>
       </c>
       <c r="G60" s="3">
-        <v>29935100</v>
+        <v>28420500</v>
       </c>
       <c r="H60" s="3">
-        <v>28407300</v>
+        <v>30469800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
@@ -4467,67 +4746,73 @@
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>32415500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>34273200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3">
         <v>35837100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W60" s="3">
         <v>31022900</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y60" s="3">
         <v>32601700</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA60" s="3">
         <v>28798100</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC60" s="3">
         <v>30406400</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42655400</v>
+        <v>41817100</v>
       </c>
       <c r="E61" s="3">
-        <v>40857800</v>
+        <v>43417400</v>
       </c>
       <c r="F61" s="3">
-        <v>39999800</v>
+        <v>41587700</v>
       </c>
       <c r="G61" s="3">
-        <v>38049900</v>
+        <v>40714400</v>
       </c>
       <c r="H61" s="3">
-        <v>40240000</v>
+        <v>38729600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4548,66 +4833,72 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>45226600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>41718700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>31641400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>30594700</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>29500500</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>32396300</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>33933700</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6692900</v>
+        <v>7150600</v>
       </c>
       <c r="E62" s="3">
-        <v>7211300</v>
+        <v>6812500</v>
       </c>
       <c r="F62" s="3">
-        <v>6664300</v>
+        <v>7340200</v>
       </c>
       <c r="G62" s="3">
-        <v>6810300</v>
+        <v>6783400</v>
       </c>
       <c r="H62" s="3">
-        <v>6225300</v>
+        <v>6932000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -4627,50 +4918,56 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>6794300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>7724200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>7449900</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3">
         <v>6666000</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3">
         <v>7278300</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3">
         <v>7459000</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC62" s="3">
         <v>7842200</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,25 +5218,31 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>81561200</v>
+        <v>83853900</v>
       </c>
       <c r="E66" s="3">
-        <v>80122300</v>
+        <v>83018200</v>
       </c>
       <c r="F66" s="3">
-        <v>77198000</v>
+        <v>81553600</v>
       </c>
       <c r="G66" s="3">
-        <v>77591600</v>
+        <v>78577100</v>
       </c>
       <c r="H66" s="3">
-        <v>77573600</v>
+        <v>78977700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
@@ -4947,50 +5262,56 @@
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>87574400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>86618300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>77980300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3">
         <v>70930800</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y66" s="3">
         <v>72227000</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA66" s="3">
         <v>71351800</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC66" s="3">
         <v>75100400</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,25 +5680,31 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-379800</v>
+        <v>-337100</v>
       </c>
       <c r="E72" s="3">
-        <v>-422100</v>
+        <v>-386600</v>
       </c>
       <c r="F72" s="3">
-        <v>-2751900</v>
+        <v>-429700</v>
       </c>
       <c r="G72" s="3">
-        <v>1958400</v>
+        <v>-2801000</v>
       </c>
       <c r="H72" s="3">
-        <v>-916200</v>
+        <v>1993300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -5377,50 +5724,56 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1255000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-2709200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-2439100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3">
         <v>-2560500</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-2076800</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-3148300</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-3068300</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,25 +6024,31 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34652700</v>
+        <v>34228200</v>
       </c>
       <c r="E76" s="3">
-        <v>34216800</v>
+        <v>35271700</v>
       </c>
       <c r="F76" s="3">
-        <v>31635300</v>
+        <v>34828000</v>
       </c>
       <c r="G76" s="3">
-        <v>36389900</v>
+        <v>32200400</v>
       </c>
       <c r="H76" s="3">
-        <v>33969200</v>
+        <v>37040000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
@@ -5697,50 +6068,56 @@
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>37036100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>35657900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>36278400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3">
         <v>33297900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y76" s="3">
         <v>34753600</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA76" s="3">
         <v>33879600</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC76" s="3">
         <v>36021900</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,93 +6196,105 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5913,79 +6302,85 @@
         <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>1180700</v>
+        <v>893800</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="3">
-        <v>3074500</v>
+        <v>1201800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I81" s="3">
+        <v>3129500</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3066100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>3752200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>878200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1981100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" s="3">
         <v>1222300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U81" s="3">
         <v>1031500</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W81" s="3">
         <v>866300</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y81" s="3">
         <v>1093900</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA81" s="3">
         <v>674300</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-610400</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,88 +6409,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
+      <c r="E83" s="3">
+        <v>9198900</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
+      <c r="G83" s="3">
+        <v>4681300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+      <c r="I83" s="3">
+        <v>9212900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>8495900</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>-4564400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>4991800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3">
         <v>4833800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" s="3">
         <v>4246600</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W83" s="3">
         <v>3795800</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y83" s="3">
         <v>3921400</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA83" s="3">
         <v>3759800</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC83" s="3">
         <v>4048500</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6921,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
+      <c r="E89" s="3">
+        <v>12099000</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
+      <c r="G89" s="3">
+        <v>6069400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
+      <c r="I89" s="3">
+        <v>12100000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>12664000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>-6386200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>7064000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3">
         <v>4869100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" s="3">
         <v>6303700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W89" s="3">
         <v>4586300</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y89" s="3">
         <v>6083400</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA89" s="3">
         <v>5331700</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC89" s="3">
         <v>5744600</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +7043,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-4996000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3781000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4563000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4186000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-5151000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-3395000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-8523800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>5484000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-4987200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
         <v>-4882100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3">
         <v>-5017900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1928300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-3733200</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-3787800</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-5104900</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7297,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3">
+        <v>-11251500</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="G94" s="3">
+        <v>-4866500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+      <c r="I94" s="3">
+        <v>-6435600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-5549500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>6573800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-6084500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-4891500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3">
         <v>-5612900</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
         <v>-4180100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-5231800</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-3677900</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-4880700</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7419,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6963,79 +7430,85 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-2004100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1144700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-2290600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1590900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>1445500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-929300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1248200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-941600</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1168300</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-746100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-624500</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,132 +7759,144 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
+      <c r="E100" s="3">
+        <v>-3600100</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
+      <c r="G100" s="3">
+        <v>-1626100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
+      <c r="I100" s="3">
+        <v>-5205700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-5395900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1238200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-336200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
         <v>403500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" s="3">
         <v>-423500</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W100" s="3">
         <v>-848800</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-1973600</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-1098400</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-103300</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
+      <c r="E101" s="3">
+        <v>-65700</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+      <c r="G101" s="3">
+        <v>34500</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="I101" s="3">
+        <v>53800</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-58800</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>-24000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
         <v>1200</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>2400</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
@@ -7411,107 +7908,119 @@
         <v>8</v>
       </c>
       <c r="U101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W101" s="3">
         <v>-1100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y101" s="3">
         <v>3400</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-48200</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-129100</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
+      <c r="E102" s="3">
+        <v>-2818200</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
+      <c r="G102" s="3">
+        <v>-388800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
+      <c r="I102" s="3">
+        <v>512600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>1659700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>-1051600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>608200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3">
         <v>383500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3">
         <v>269700</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W102" s="3">
         <v>-443600</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-1118600</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA102" s="3">
         <v>507100</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC102" s="3">
         <v>631500</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,397 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11435600</v>
+        <v>23356900</v>
       </c>
       <c r="E8" s="3">
-        <v>23879200</v>
+        <v>11512100</v>
       </c>
       <c r="F8" s="3">
-        <v>11655300</v>
+        <v>24038800</v>
       </c>
       <c r="G8" s="3">
-        <v>22934700</v>
+        <v>11733200</v>
       </c>
       <c r="H8" s="3">
-        <v>11395800</v>
+        <v>23088100</v>
       </c>
       <c r="I8" s="3">
-        <v>23320300</v>
+        <v>11471900</v>
       </c>
       <c r="J8" s="3">
+        <v>23476200</v>
+      </c>
+      <c r="K8" s="3">
         <v>11316100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22077300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10913300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21445100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10985100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22657100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11338900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25291900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12956700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>24202100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12183300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>24981700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11416000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>22247700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11197400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>23304900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11527300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>22538500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11820300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>24461000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>12117200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5014000</v>
+        <v>9714600</v>
       </c>
       <c r="E9" s="3">
-        <v>9969900</v>
+        <v>5047600</v>
       </c>
       <c r="F9" s="3">
-        <v>4923600</v>
+        <v>10036600</v>
       </c>
       <c r="G9" s="3">
-        <v>9192400</v>
+        <v>4956500</v>
       </c>
       <c r="H9" s="3">
-        <v>4850400</v>
+        <v>9253900</v>
       </c>
       <c r="I9" s="3">
-        <v>9947300</v>
+        <v>4882800</v>
       </c>
       <c r="J9" s="3">
+        <v>10013800</v>
+      </c>
+      <c r="K9" s="3">
         <v>4628500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9242700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4596000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9110300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4422500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9334900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4782500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10854600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5447500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10072300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5112600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11323900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4968700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9871000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4695000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>10603900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5053400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>10019400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>5232800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>10430500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>5278600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6421600</v>
+        <v>13642300</v>
       </c>
       <c r="E10" s="3">
-        <v>13909200</v>
+        <v>6464500</v>
       </c>
       <c r="F10" s="3">
-        <v>6731700</v>
+        <v>14002200</v>
       </c>
       <c r="G10" s="3">
-        <v>13742300</v>
+        <v>6776700</v>
       </c>
       <c r="H10" s="3">
-        <v>6545400</v>
+        <v>13834200</v>
       </c>
       <c r="I10" s="3">
-        <v>13372900</v>
+        <v>6589200</v>
       </c>
       <c r="J10" s="3">
+        <v>13462400</v>
+      </c>
+      <c r="K10" s="3">
         <v>6687500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12834600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6317300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12334800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6562600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13322200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6556400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14437400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7509200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>14129700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7070700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13657800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6447300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>12376700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6502400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>12700900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6473900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>12519200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6587400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>14030600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>6838600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,180 +1262,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-56000</v>
+        <v>300300</v>
       </c>
       <c r="E14" s="3">
-        <v>1572300</v>
+        <v>-56400</v>
       </c>
       <c r="F14" s="3">
-        <v>60300</v>
+        <v>1582800</v>
       </c>
       <c r="G14" s="3">
-        <v>58200</v>
+        <v>60700</v>
       </c>
       <c r="H14" s="3">
-        <v>85100</v>
+        <v>58500</v>
       </c>
       <c r="I14" s="3">
-        <v>1618600</v>
+        <v>85600</v>
       </c>
       <c r="J14" s="3">
+        <v>1629400</v>
+      </c>
+      <c r="K14" s="3">
         <v>34500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4391800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>207400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>173500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-63300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>240000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>27300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>202000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-24500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>229400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>123200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>218800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>16600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>68100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>17600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>824700</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>543000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>5900</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1926200</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>398500</v>
+        <v>4714800</v>
       </c>
       <c r="E15" s="3">
-        <v>4517600</v>
+        <v>401100</v>
       </c>
       <c r="F15" s="3">
-        <v>402800</v>
+        <v>4547800</v>
       </c>
       <c r="G15" s="3">
-        <v>4681300</v>
+        <v>405500</v>
       </c>
       <c r="H15" s="3">
-        <v>410300</v>
+        <v>4712600</v>
       </c>
       <c r="I15" s="3">
-        <v>4657600</v>
+        <v>413000</v>
       </c>
       <c r="J15" s="3">
+        <v>4688700</v>
+      </c>
+      <c r="K15" s="3">
         <v>390900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4475300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>378800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4315700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>380900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4572000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>340400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4990700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>376100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4833800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>355300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4246600</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="3">
         <v>3795800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>325000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3921400</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB15" s="3">
         <v>3759800</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC15" s="3">
+      <c r="AC15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD15" s="3">
         <v>4048500</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3">
-        <v>21315100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3">
-        <v>20328600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3">
-        <v>18718700</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>21034800</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>21457600</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>20464600</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
+        <v>18843800</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>23930900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>18181600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3">
         <v>20203700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="3">
         <v>21157000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="3">
         <v>21392800</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="3">
         <v>22049300</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="3">
         <v>19667400</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="3">
         <v>20511100</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB17" s="3">
         <v>19971400</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD17" s="3">
         <v>23072400</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2564100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2606100</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4601600</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>2322100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2581200</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2623500</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4632400</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1853600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>3263500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
         <v>2453500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
         <v>4135000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="3">
         <v>2809200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V18" s="3">
         <v>2932400</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X18" s="3">
         <v>2580300</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="3">
         <v>2793800</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB18" s="3">
         <v>2567100</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD18" s="3">
         <v>1388600</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
-        <v>18300</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
-        <v>90500</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>88900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>21900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3">
         <v>-126500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="3">
         <v>93400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="3">
         <v>-121200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="3">
         <v>176300</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X20" s="3">
         <v>-186700</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-34800</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-460000</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD20" s="3">
         <v>189000</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>7099800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
+        <v>11860100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
+        <v>7320900</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
+        <v>13997900</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>11781300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
-        <v>7272300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
-        <v>13904900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
-        <v>11781300</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>9220200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>7521900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>7355300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3">
         <v>6189400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3">
         <v>6680300</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB21" s="3">
         <v>5866900</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD21" s="3">
         <v>5626100</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52800</v>
+        <v>704700</v>
       </c>
       <c r="E22" s="3">
-        <v>607400</v>
+        <v>53100</v>
       </c>
       <c r="F22" s="3">
-        <v>43100</v>
+        <v>611400</v>
       </c>
       <c r="G22" s="3">
-        <v>386600</v>
+        <v>43400</v>
       </c>
       <c r="H22" s="3">
-        <v>31200</v>
+        <v>389200</v>
       </c>
       <c r="I22" s="3">
-        <v>463100</v>
+        <v>31400</v>
       </c>
       <c r="J22" s="3">
+        <v>466200</v>
+      </c>
+      <c r="K22" s="3">
         <v>30200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>550200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>592500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>34300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>682900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>30500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>703900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>38000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>747000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>34700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>708600</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3">
         <v>814700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>30700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>736000</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB22" s="3">
         <v>693400</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD22" s="3">
         <v>792300</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1975000</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2204400</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="3">
-        <v>4229000</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>1680400</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1988200</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2219200</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4257300</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2314900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>2693000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3">
         <v>1644000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="3">
         <v>3524400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23" s="3">
         <v>1941100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="3">
         <v>2400100</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X23" s="3">
         <v>1578900</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="3">
         <v>2022900</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB23" s="3">
         <v>1413700</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD23" s="3">
         <v>785300</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3">
-        <v>737700</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3">
-        <v>624600</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3">
-        <v>586900</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>499800</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>742600</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>628800</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
+        <v>590800</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
         <v>441200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1335500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
         <v>535600</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3">
         <v>1090400</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="3">
         <v>603500</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="3">
         <v>887200</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X24" s="3">
         <v>613800</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="3">
         <v>578900</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB24" s="3">
         <v>601400</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD24" s="3">
         <v>860400</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1237400</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1579800</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3642100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>1180600</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1245600</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1590400</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3666400</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2756100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>4028500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3">
         <v>1108400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="3">
         <v>2434000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="3">
         <v>1337600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" s="3">
         <v>1512900</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X26" s="3">
         <v>965100</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="3">
         <v>1444000</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB26" s="3">
         <v>812300</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC26" s="3">
+      <c r="AC26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-75100</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3">
-        <v>893800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1201800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3129500</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>865100</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
+        <v>899800</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1209900</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3150400</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>-3066100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>3752200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="3">
         <v>878200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="3">
         <v>1981100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="3">
         <v>1222300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="3">
         <v>1031500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X27" s="3">
         <v>866300</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1061400</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB27" s="3">
         <v>674300</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC27" s="3">
+      <c r="AC27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-615100</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2475,17 +2535,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2493,26 +2553,29 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>32500</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC29" s="3">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3">
         <v>4700</v>
       </c>
-      <c r="AD29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>15100</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-90500</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-91100</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>-88900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>-21900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="3">
         <v>126500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="3">
         <v>-93400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="3">
         <v>121200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V32" s="3">
         <v>-176300</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="3">
         <v>186700</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="3">
         <v>34800</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB32" s="3">
         <v>460000</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-189000</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3">
-        <v>893800</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1201800</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3129500</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>865100</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3">
+        <v>899800</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1209900</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3150400</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>-3066100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>3752200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="3">
         <v>878200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="3">
         <v>1981100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" s="3">
         <v>1222300</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" s="3">
         <v>1031500</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X33" s="3">
         <v>866300</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1093900</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB33" s="3">
         <v>674300</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-610400</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3">
-        <v>893800</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1201800</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3">
-        <v>3129500</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>865100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
+        <v>899800</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1209900</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3150400</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>-3066100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>3752200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="3">
         <v>878200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" s="3">
         <v>1981100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="3">
         <v>1222300</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V35" s="3">
         <v>1031500</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X35" s="3">
         <v>866300</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1093900</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="3">
         <v>674300</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC35" s="3">
+      <c r="AC35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-610400</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,28 +3267,29 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6465700</v>
+        <v>6528500</v>
       </c>
       <c r="E41" s="3">
-        <v>8894100</v>
+        <v>6508900</v>
       </c>
       <c r="F41" s="3">
-        <v>9284000</v>
+        <v>8953600</v>
       </c>
       <c r="G41" s="3">
-        <v>7313200</v>
+        <v>9346000</v>
       </c>
       <c r="H41" s="3">
-        <v>8771400</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
+        <v>7362100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>8830000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -3226,70 +3312,73 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
         <v>7566000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3">
         <v>7011300</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3">
         <v>6664500</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X41" s="3">
         <v>5935800</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="3">
         <v>6518800</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB41" s="3">
         <v>7637400</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD41" s="3">
         <v>7459600</v>
       </c>
-      <c r="AD41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4896700</v>
+        <v>3598100</v>
       </c>
       <c r="E42" s="3">
-        <v>3253300</v>
+        <v>4929400</v>
       </c>
       <c r="F42" s="3">
-        <v>2485500</v>
+        <v>3275100</v>
       </c>
       <c r="G42" s="3">
-        <v>2516700</v>
+        <v>2502100</v>
       </c>
       <c r="H42" s="3">
-        <v>3503200</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>2533500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3526600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -3312,71 +3401,74 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>5663100</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="3">
         <v>3346900</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3">
         <v>3339300</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3">
         <v>2595700</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z42" s="3">
         <v>6688200</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB42" s="3">
         <v>4007700</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD42" s="3">
         <v>2185600</v>
       </c>
-      <c r="AD42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12949700</v>
+        <v>13604400</v>
       </c>
       <c r="E43" s="3">
-        <v>12101100</v>
+        <v>13036300</v>
       </c>
       <c r="F43" s="3">
-        <v>12081700</v>
+        <v>12182000</v>
       </c>
       <c r="G43" s="3">
+        <v>12162500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>11097900</v>
+      </c>
+      <c r="I43" s="3">
         <v>11024200</v>
       </c>
-      <c r="H43" s="3">
-        <v>10951000</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3398,70 +3490,73 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
         <v>12548500</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3">
         <v>12701600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3">
         <v>12547000</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X43" s="3">
         <v>11737600</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="3">
         <v>8477800</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB43" s="3">
         <v>6644400</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC43" s="3">
+      <c r="AC43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD43" s="3">
         <v>10732100</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1128600</v>
+        <v>1181700</v>
       </c>
       <c r="E44" s="3">
-        <v>1070400</v>
+        <v>1136100</v>
       </c>
       <c r="F44" s="3">
-        <v>1025200</v>
+        <v>1077600</v>
       </c>
       <c r="G44" s="3">
-        <v>861500</v>
+        <v>1032100</v>
       </c>
       <c r="H44" s="3">
-        <v>876600</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+        <v>867300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>882500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -3484,70 +3579,73 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>1057700</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3">
         <v>1118800</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="3">
         <v>1141500</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" s="3">
         <v>950900</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z44" s="3">
         <v>927900</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB44" s="3">
         <v>866200</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC44" s="3">
+      <c r="AC44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD44" s="3">
         <v>961400</v>
       </c>
-      <c r="AD44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3423500</v>
+        <v>3668600</v>
       </c>
       <c r="E45" s="3">
-        <v>3241500</v>
+        <v>3446400</v>
       </c>
       <c r="F45" s="3">
-        <v>2944200</v>
+        <v>3263100</v>
       </c>
       <c r="G45" s="3">
-        <v>2883900</v>
+        <v>2963900</v>
       </c>
       <c r="H45" s="3">
-        <v>2921600</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+        <v>2903200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2941200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -3570,70 +3668,73 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>2334800</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>2888100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
         <v>2202600</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="3">
         <v>2082900</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1776100</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB45" s="3">
         <v>2081300</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC45" s="3">
+      <c r="AC45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD45" s="3">
         <v>1960300</v>
       </c>
-      <c r="AD45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28864200</v>
+        <v>28581200</v>
       </c>
       <c r="E46" s="3">
-        <v>28560500</v>
+        <v>29057100</v>
       </c>
       <c r="F46" s="3">
-        <v>27820600</v>
+        <v>28751400</v>
       </c>
       <c r="G46" s="3">
-        <v>24599600</v>
+        <v>28006600</v>
       </c>
       <c r="H46" s="3">
-        <v>27023700</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
+        <v>24764100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>27204400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -3656,70 +3757,73 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3">
         <v>29170100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3">
         <v>27066600</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="3">
         <v>25894900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X46" s="3">
         <v>23302900</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="3">
         <v>24388700</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB46" s="3">
         <v>21237000</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC46" s="3">
+      <c r="AC46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD46" s="3">
         <v>23299000</v>
       </c>
-      <c r="AD46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3358900</v>
+        <v>3297800</v>
       </c>
       <c r="E47" s="3">
-        <v>3421300</v>
+        <v>3381300</v>
       </c>
       <c r="F47" s="3">
-        <v>3543000</v>
+        <v>3444200</v>
       </c>
       <c r="G47" s="3">
-        <v>2372400</v>
+        <v>3566700</v>
       </c>
       <c r="H47" s="3">
-        <v>3041200</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+        <v>2388300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3061500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3742,70 +3846,73 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>3000200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3">
         <v>4119800</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3">
         <v>4735100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X47" s="3">
         <v>4475400</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="3">
         <v>4250100</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB47" s="3">
         <v>5006300</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC47" s="3">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD47" s="3">
         <v>5912500</v>
       </c>
-      <c r="AD47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42619400</v>
+        <v>44096900</v>
       </c>
       <c r="E48" s="3">
-        <v>41836500</v>
+        <v>42904300</v>
       </c>
       <c r="F48" s="3">
-        <v>41122500</v>
+        <v>42116200</v>
       </c>
       <c r="G48" s="3">
-        <v>40178100</v>
+        <v>41397400</v>
       </c>
       <c r="H48" s="3">
-        <v>38858900</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
+        <v>40446700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>39118700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -3828,70 +3935,73 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>81495700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
         <v>39752900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3">
         <v>32758000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X48" s="3">
         <v>29446200</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3">
         <v>29917900</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB48" s="3">
         <v>29300800</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC48" s="3">
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD48" s="3">
         <v>30415800</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40985700</v>
+        <v>42356900</v>
       </c>
       <c r="E49" s="3">
-        <v>41842900</v>
+        <v>41259800</v>
       </c>
       <c r="F49" s="3">
-        <v>42141300</v>
+        <v>42122700</v>
       </c>
       <c r="G49" s="3">
-        <v>41500500</v>
+        <v>42423000</v>
       </c>
       <c r="H49" s="3">
-        <v>46017000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+        <v>41778000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>46324700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -3914,50 +4024,53 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>49476000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3">
         <v>49138200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>48791100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3">
         <v>44900500</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3">
         <v>46282100</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB49" s="3">
         <v>46679300</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD49" s="3">
         <v>49016000</v>
       </c>
-      <c r="AD49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,28 +4244,31 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2254000</v>
+        <v>2002300</v>
       </c>
       <c r="E52" s="3">
-        <v>2628700</v>
+        <v>2269000</v>
       </c>
       <c r="F52" s="3">
-        <v>1754300</v>
+        <v>2646300</v>
       </c>
       <c r="G52" s="3">
-        <v>2126900</v>
+        <v>1766000</v>
       </c>
       <c r="H52" s="3">
-        <v>1076900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+        <v>2141100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1084100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -4172,50 +4291,53 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
         <v>1961200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3">
         <v>2198700</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3">
         <v>2079500</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X52" s="3">
         <v>2103800</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3">
         <v>2141900</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB52" s="3">
         <v>3008100</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD52" s="3">
         <v>3682200</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,28 +4422,31 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>118082100</v>
+        <v>120335100</v>
       </c>
       <c r="E54" s="3">
-        <v>118289900</v>
+        <v>118871600</v>
       </c>
       <c r="F54" s="3">
-        <v>116381700</v>
+        <v>119080800</v>
       </c>
       <c r="G54" s="3">
-        <v>110777500</v>
+        <v>117159800</v>
       </c>
       <c r="H54" s="3">
-        <v>116017700</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
+        <v>111518100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>116793300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -4344,50 +4469,53 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>124610500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3">
         <v>122276200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3">
         <v>114258700</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X54" s="3">
         <v>104228700</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3">
         <v>106980600</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB54" s="3">
         <v>105231400</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD54" s="3">
         <v>111122200</v>
       </c>
-      <c r="AD54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,28 +4579,29 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7610500</v>
+        <v>7958400</v>
       </c>
       <c r="E57" s="3">
-        <v>7425200</v>
+        <v>7661300</v>
       </c>
       <c r="F57" s="3">
-        <v>7256200</v>
+        <v>7474900</v>
       </c>
       <c r="G57" s="3">
-        <v>6978300</v>
+        <v>7304700</v>
       </c>
       <c r="H57" s="3">
-        <v>6972900</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
+        <v>7025000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>7019500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -4494,70 +4624,73 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>7800600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3">
         <v>7630100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3">
         <v>7968000</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X57" s="3">
         <v>6849300</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z57" s="3">
         <v>7323200</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB57" s="3">
         <v>7014700</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD57" s="3">
         <v>7290500</v>
       </c>
-      <c r="AD57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9955900</v>
+        <v>11492500</v>
       </c>
       <c r="E58" s="3">
-        <v>8427800</v>
+        <v>10022500</v>
       </c>
       <c r="F58" s="3">
-        <v>8562400</v>
+        <v>8484200</v>
       </c>
       <c r="G58" s="3">
-        <v>8708900</v>
+        <v>8619700</v>
       </c>
       <c r="H58" s="3">
-        <v>10547200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+        <v>8767100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>10617700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -4580,70 +4713,73 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>11140600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3">
         <v>13483900</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
         <v>14199500</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3">
         <v>11154600</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3">
         <v>12309400</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB58" s="3">
         <v>9679400</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD58" s="3">
         <v>15549500</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13903900</v>
+        <v>14073800</v>
       </c>
       <c r="E59" s="3">
-        <v>13646500</v>
+        <v>13996800</v>
       </c>
       <c r="F59" s="3">
-        <v>13554900</v>
+        <v>13737700</v>
       </c>
       <c r="G59" s="3">
-        <v>12733300</v>
+        <v>13645600</v>
       </c>
       <c r="H59" s="3">
-        <v>12949700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
+        <v>12818400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>13036300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -4666,70 +4802,73 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>13474200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>13159200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>13669600</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X59" s="3">
         <v>13019000</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3">
         <v>13447100</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB59" s="3">
         <v>12104000</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD59" s="3">
         <v>13152500</v>
       </c>
-      <c r="AD59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31470200</v>
+        <v>33524700</v>
       </c>
       <c r="E60" s="3">
-        <v>29499500</v>
+        <v>31680700</v>
       </c>
       <c r="F60" s="3">
-        <v>29373500</v>
+        <v>29696800</v>
       </c>
       <c r="G60" s="3">
-        <v>28420500</v>
+        <v>29569900</v>
       </c>
       <c r="H60" s="3">
-        <v>30469800</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
+        <v>28610500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>30673500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -4752,70 +4891,73 @@
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3">
         <v>32415500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3">
         <v>34273200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V60" s="3">
         <v>35837100</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3">
         <v>31022900</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z60" s="3">
         <v>32601700</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB60" s="3">
         <v>28798100</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC60" s="3">
+      <c r="AC60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD60" s="3">
         <v>30406400</v>
       </c>
-      <c r="AD60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41817100</v>
+        <v>42153100</v>
       </c>
       <c r="E61" s="3">
-        <v>43417400</v>
+        <v>42096700</v>
       </c>
       <c r="F61" s="3">
-        <v>41587700</v>
+        <v>43707700</v>
       </c>
       <c r="G61" s="3">
-        <v>40714400</v>
+        <v>41865800</v>
       </c>
       <c r="H61" s="3">
-        <v>38729600</v>
+        <v>40986600</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>38988600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4839,69 +4981,72 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>45226600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>41718700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>31641400</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>30594700</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>29500500</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>32396300</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>33933700</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7150600</v>
+        <v>7357800</v>
       </c>
       <c r="E62" s="3">
-        <v>6812500</v>
+        <v>7198400</v>
       </c>
       <c r="F62" s="3">
-        <v>7340200</v>
+        <v>6858000</v>
       </c>
       <c r="G62" s="3">
-        <v>6783400</v>
+        <v>7389200</v>
       </c>
       <c r="H62" s="3">
-        <v>6932000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+        <v>6828700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6978400</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -4924,50 +5069,53 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>6794300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>7724200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3">
         <v>7449900</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3">
         <v>6666000</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="3">
         <v>7278300</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB62" s="3">
         <v>7459000</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC62" s="3">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD62" s="3">
         <v>7842200</v>
       </c>
-      <c r="AD62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,28 +5378,31 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>83853900</v>
+        <v>86308500</v>
       </c>
       <c r="E66" s="3">
-        <v>83018200</v>
+        <v>84414500</v>
       </c>
       <c r="F66" s="3">
-        <v>81553600</v>
+        <v>83573300</v>
       </c>
       <c r="G66" s="3">
-        <v>78577100</v>
+        <v>82098900</v>
       </c>
       <c r="H66" s="3">
-        <v>78977700</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
+        <v>79102400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>79505700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -5268,50 +5425,53 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>87574400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3">
         <v>86618300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3">
         <v>77980300</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X66" s="3">
         <v>70930800</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3">
         <v>72227000</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB66" s="3">
         <v>71351800</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD66" s="3">
         <v>75100400</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,28 +5856,31 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-337100</v>
+        <v>-660200</v>
       </c>
       <c r="E72" s="3">
-        <v>-386600</v>
+        <v>-339300</v>
       </c>
       <c r="F72" s="3">
-        <v>-429700</v>
+        <v>-389200</v>
       </c>
       <c r="G72" s="3">
-        <v>-2801000</v>
+        <v>-432600</v>
       </c>
       <c r="H72" s="3">
-        <v>1993300</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
+        <v>-2819700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>2006700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -5730,50 +5903,53 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1255000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3">
         <v>-2709200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3">
         <v>-2439100</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X72" s="3">
         <v>-2560500</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-2076800</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-3148300</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-3068300</v>
       </c>
-      <c r="AD72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,28 +6212,31 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34228200</v>
+        <v>34026600</v>
       </c>
       <c r="E76" s="3">
-        <v>35271700</v>
+        <v>34457000</v>
       </c>
       <c r="F76" s="3">
-        <v>34828000</v>
+        <v>35507500</v>
       </c>
       <c r="G76" s="3">
-        <v>32200400</v>
+        <v>35060900</v>
       </c>
       <c r="H76" s="3">
-        <v>37040000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
+        <v>32415700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>37287600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -6074,50 +6259,53 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>37036100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3">
         <v>35657900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3">
         <v>36278400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X76" s="3">
         <v>33297900</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3">
         <v>34753600</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB76" s="3">
         <v>33879600</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD76" s="3">
         <v>36021900</v>
       </c>
-      <c r="AD76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3">
-        <v>893800</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1201800</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3129500</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>865100</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3">
+        <v>899800</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1209900</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3150400</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>-3066100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>3752200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P81" s="3">
         <v>878200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R81" s="3">
         <v>1981100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T81" s="3">
         <v>1222300</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V81" s="3">
         <v>1031500</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X81" s="3">
         <v>866300</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1093900</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB81" s="3">
         <v>674300</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC81" s="3">
+      <c r="AC81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-610400</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,31 +6608,32 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3">
-        <v>9198900</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4681300</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3">
-        <v>9212900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>4714800</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
+        <v>9260400</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4712600</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3">
+        <v>9274500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -6443,62 +6641,65 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>8495900</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
         <v>-4564400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R83" s="3">
         <v>4991800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T83" s="3">
         <v>4833800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V83" s="3">
         <v>4246600</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X83" s="3">
         <v>3795800</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z83" s="3">
         <v>3921400</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB83" s="3">
         <v>3759800</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC83" s="3">
+      <c r="AC83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD83" s="3">
         <v>4048500</v>
       </c>
-      <c r="AD83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,31 +7140,34 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3">
-        <v>12099000</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3">
-        <v>6069400</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3">
-        <v>12100000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>6218400</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3">
+        <v>12179900</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3">
+        <v>6110000</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3">
+        <v>12180900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
@@ -6959,62 +7175,65 @@
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>12664000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3">
         <v>-6386200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R89" s="3">
         <v>7064000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T89" s="3">
         <v>4869100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V89" s="3">
         <v>6303700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X89" s="3">
         <v>4586300</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z89" s="3">
         <v>6083400</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB89" s="3">
         <v>5331700</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC89" s="3">
+      <c r="AC89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD89" s="3">
         <v>5744600</v>
       </c>
-      <c r="AD89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3690000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4996000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3781000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4563000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4186000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5151000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3395000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-8523800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
         <v>5484000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
         <v>-4987200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3">
         <v>-4882100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3">
         <v>-5017900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1928300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3733200</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-3787800</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC91" s="3">
+      <c r="AC91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-5104900</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,31 +7529,34 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-11251500</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-4866500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-6435600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-4312500</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-11326700</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-4899000</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6478600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -7335,62 +7564,65 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-5549500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3">
         <v>6573800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
         <v>-6084500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3">
         <v>-4891500</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3">
         <v>-5612900</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X94" s="3">
         <v>-4180100</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-5231800</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-3677900</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC94" s="3">
+      <c r="AC94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-4880700</v>
       </c>
-      <c r="AD94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,31 +7653,32 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1153500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2004100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-2017500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1144700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1152400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2290600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-2305900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7454,61 +7687,64 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1590900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>1445500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-929300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1248200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-941600</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1168300</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-746100</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-624500</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,31 +8007,34 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-3600100</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1626100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-5205700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-1928600</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-3624100</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1637000</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-5240500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -7797,85 +8042,88 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-5395900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1238200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3">
         <v>-336200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" s="3">
         <v>403500</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V100" s="3">
         <v>-423500</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X100" s="3">
         <v>-848800</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-1973600</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-1098400</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC100" s="3">
+      <c r="AC100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-103300</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-65700</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3">
-        <v>34500</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3">
-        <v>53800</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-66100</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3">
+        <v>34700</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3">
+        <v>54200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -7883,85 +8131,88 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-58800</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
         <v>-24000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3">
         <v>2400</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V101" s="3">
         <v>2400</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X101" s="3">
         <v>-1100</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z101" s="3">
         <v>3400</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-48200</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC101" s="3">
+      <c r="AC101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD101" s="3">
         <v>-129100</v>
       </c>
-      <c r="AD101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-2818200</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-388800</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3">
-        <v>512600</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-2837100</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-391400</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3">
+        <v>516000</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
@@ -7969,58 +8220,61 @@
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>1659700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3">
         <v>-1051600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3">
         <v>608200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3">
         <v>383500</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V102" s="3">
         <v>269700</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X102" s="3">
         <v>-443600</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-1118600</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB102" s="3">
         <v>507100</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AC102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD102" s="3">
         <v>631500</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="92">
   <si>
     <t>ORAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,411 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23356900</v>
+        <v>11933900</v>
       </c>
       <c r="E8" s="3">
-        <v>11512100</v>
+        <v>23376300</v>
       </c>
       <c r="F8" s="3">
-        <v>24038800</v>
+        <v>11521600</v>
       </c>
       <c r="G8" s="3">
-        <v>11733200</v>
+        <v>24058800</v>
       </c>
       <c r="H8" s="3">
-        <v>23088100</v>
+        <v>11743000</v>
       </c>
       <c r="I8" s="3">
-        <v>11471900</v>
+        <v>23107200</v>
       </c>
       <c r="J8" s="3">
+        <v>11481500</v>
+      </c>
+      <c r="K8" s="3">
         <v>23476200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11316100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22077300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10913300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21445100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10985100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22657100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11338900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25291900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12956700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>24202100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12183300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>24981700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11416000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>22247700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11197400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>23304900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11527300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>22538500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11820300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>24461000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>12117200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9714600</v>
+        <v>5091900</v>
       </c>
       <c r="E9" s="3">
-        <v>5047600</v>
+        <v>9722700</v>
       </c>
       <c r="F9" s="3">
-        <v>10036600</v>
+        <v>5051800</v>
       </c>
       <c r="G9" s="3">
-        <v>4956500</v>
+        <v>10044900</v>
       </c>
       <c r="H9" s="3">
-        <v>9253900</v>
+        <v>4960600</v>
       </c>
       <c r="I9" s="3">
-        <v>4882800</v>
+        <v>9261600</v>
       </c>
       <c r="J9" s="3">
+        <v>4886800</v>
+      </c>
+      <c r="K9" s="3">
         <v>10013800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4628500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9242700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4596000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9110300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4422500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9334900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4782500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10854600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5447500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10072300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5112600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11323900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4968700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9871000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4695000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>10603900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5053400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>10019400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>5232800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>10430500</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>5278600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13642300</v>
+        <v>6842000</v>
       </c>
       <c r="E10" s="3">
-        <v>6464500</v>
+        <v>13653600</v>
       </c>
       <c r="F10" s="3">
-        <v>14002200</v>
+        <v>6469900</v>
       </c>
       <c r="G10" s="3">
-        <v>6776700</v>
+        <v>14013900</v>
       </c>
       <c r="H10" s="3">
-        <v>13834200</v>
+        <v>6782300</v>
       </c>
       <c r="I10" s="3">
-        <v>6589200</v>
+        <v>13845700</v>
       </c>
       <c r="J10" s="3">
+        <v>6594600</v>
+      </c>
+      <c r="K10" s="3">
         <v>13462400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6687500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12834600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6317300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12334800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6562600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13322200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6556400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14437400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7509200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>14129700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7070700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>13657800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6447300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>12376700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6502400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>12700900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6473900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>12519200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6587400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>14030600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>6838600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1101,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1191,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,186 +1283,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>300300</v>
+        <v>31500</v>
       </c>
       <c r="E14" s="3">
+        <v>300500</v>
+      </c>
+      <c r="F14" s="3">
         <v>-56400</v>
       </c>
-      <c r="F14" s="3">
-        <v>1582800</v>
-      </c>
       <c r="G14" s="3">
-        <v>60700</v>
+        <v>1584100</v>
       </c>
       <c r="H14" s="3">
-        <v>58500</v>
+        <v>60800</v>
       </c>
       <c r="I14" s="3">
-        <v>85600</v>
+        <v>58600</v>
       </c>
       <c r="J14" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K14" s="3">
         <v>1629400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>34500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4391800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>207400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>173500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-63300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>240000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>27300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>202000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-24500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>229400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>123200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>218800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>16600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>68100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>17600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>824700</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>543000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>5900</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1926200</v>
       </c>
-      <c r="AE14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4714800</v>
+        <v>412300</v>
       </c>
       <c r="E15" s="3">
-        <v>401100</v>
+        <v>4718700</v>
       </c>
       <c r="F15" s="3">
-        <v>4547800</v>
+        <v>401500</v>
       </c>
       <c r="G15" s="3">
-        <v>405500</v>
+        <v>4551600</v>
       </c>
       <c r="H15" s="3">
-        <v>4712600</v>
+        <v>405800</v>
       </c>
       <c r="I15" s="3">
-        <v>413000</v>
+        <v>4716500</v>
       </c>
       <c r="J15" s="3">
+        <v>413400</v>
+      </c>
+      <c r="K15" s="3">
         <v>4688700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>390900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4475300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>378800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4315700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>380900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4572000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>340400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4990700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>376100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4833800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>355300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4246600</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="3">
         <v>3795800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>325000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3921400</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC15" s="3">
         <v>3759800</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD15" s="3">
+      <c r="AD15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE15" s="3">
         <v>4048500</v>
       </c>
-      <c r="AE15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>21034800</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>21457600</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3">
-        <v>20464600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>21052300</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>21475400</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3">
+        <v>20481500</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>18843800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>23930900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>18181600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>20203700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="3">
         <v>21157000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="3">
         <v>21392800</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="3">
         <v>22049300</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="3">
         <v>19667400</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="3">
         <v>20511100</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC17" s="3">
         <v>19971400</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE17" s="3">
         <v>23072400</v>
       </c>
-      <c r="AE17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>2322100</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2581200</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2623500</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2324100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2583400</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2625700</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>4632400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1853600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>3263500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2453500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
         <v>4135000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="3">
         <v>2809200</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="3">
         <v>2932400</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="3">
         <v>2580300</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="3">
         <v>2793800</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC18" s="3">
         <v>2567100</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE18" s="3">
         <v>1388600</v>
       </c>
-      <c r="AE18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1718,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>62900</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
         <v>18400</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
         <v>-15200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>91100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>88900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>21900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-126500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3">
         <v>93400</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="3">
         <v>-121200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="3">
         <v>176300</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-186700</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-34800</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-460000</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE20" s="3">
         <v>189000</v>
       </c>
-      <c r="AE20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>7099800</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
-        <v>11860100</v>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
-        <v>7320900</v>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>13997900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>11781300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>9220200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>7521900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>7355300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
         <v>6189400</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3">
         <v>6680300</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="3">
         <v>5866900</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE21" s="3">
         <v>5626100</v>
       </c>
-      <c r="AE21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>704700</v>
+        <v>80300</v>
       </c>
       <c r="E22" s="3">
-        <v>53100</v>
+        <v>705300</v>
       </c>
       <c r="F22" s="3">
-        <v>611400</v>
+        <v>53200</v>
       </c>
       <c r="G22" s="3">
+        <v>611900</v>
+      </c>
+      <c r="H22" s="3">
         <v>43400</v>
       </c>
-      <c r="H22" s="3">
-        <v>389200</v>
-      </c>
       <c r="I22" s="3">
-        <v>31400</v>
+        <v>389500</v>
       </c>
       <c r="J22" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K22" s="3">
         <v>466200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>30200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>550200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>592500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>34300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>682900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>30500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>703900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>38000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>747000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>34700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>708600</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="3">
         <v>814700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>30700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>736000</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="3">
         <v>693400</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE22" s="3">
         <v>792300</v>
       </c>
-      <c r="AE22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>1680400</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1988200</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2219200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1681800</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1989900</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2221000</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>4257300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2314900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>2693000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1644000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="3">
         <v>3524400</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="3">
         <v>1941100</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23" s="3">
         <v>2400100</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1578900</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA23" s="3">
         <v>2022900</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC23" s="3">
         <v>1413700</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE23" s="3">
         <v>785300</v>
       </c>
-      <c r="AE23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>499800</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
-        <v>742600</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3">
-        <v>628800</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
+        <v>500200</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>743200</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
+        <v>629300</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>590800</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>441200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>-1335500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
         <v>535600</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
         <v>1090400</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="3">
         <v>603500</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="3">
         <v>887200</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y24" s="3">
         <v>613800</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA24" s="3">
         <v>578900</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC24" s="3">
         <v>601400</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE24" s="3">
         <v>860400</v>
       </c>
-      <c r="AE24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2268,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>1180600</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1245600</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1590400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1181600</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1246700</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1591700</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>3666400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2756100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>4028500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1108400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3">
         <v>2434000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" s="3">
         <v>1337600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W26" s="3">
         <v>1512900</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="3">
         <v>965100</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA26" s="3">
         <v>1444000</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC26" s="3">
         <v>812300</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD26" s="3">
+      <c r="AD26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-75100</v>
       </c>
-      <c r="AE26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>865100</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="3">
-        <v>899800</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1209900</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>865800</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>900600</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1210900</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>3150400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>-3066100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>3752200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>878200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3">
         <v>1981100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="3">
         <v>1222300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27" s="3">
         <v>1031500</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="3">
         <v>866300</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="3">
         <v>1061400</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC27" s="3">
         <v>674300</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD27" s="3">
+      <c r="AD27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-615100</v>
       </c>
-      <c r="AE27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2538,17 +2600,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2556,26 +2618,29 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>32500</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD29" s="3">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3">
         <v>4700</v>
       </c>
-      <c r="AE29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2820,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-62900</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
         <v>-18400</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
         <v>15200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>-91100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>-88900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>-21900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>126500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="3">
         <v>-93400</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="3">
         <v>121200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W32" s="3">
         <v>-176300</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="3">
         <v>186700</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA32" s="3">
         <v>34800</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC32" s="3">
         <v>460000</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD32" s="3">
+      <c r="AD32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE32" s="3">
         <v>-189000</v>
       </c>
-      <c r="AE32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>865100</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="3">
-        <v>899800</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1209900</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>865800</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3">
+        <v>900600</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1210900</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>3150400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>-3066100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>3752200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>878200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3">
         <v>1981100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" s="3">
         <v>1222300</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33" s="3">
         <v>1031500</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="3">
         <v>866300</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA33" s="3">
         <v>1093900</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC33" s="3">
         <v>674300</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD33" s="3">
+      <c r="AD33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-610400</v>
       </c>
-      <c r="AE33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3096,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>865100</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3">
-        <v>899800</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1209900</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>865800</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3">
+        <v>900600</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1210900</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>3150400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>-3066100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>3752200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>878200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="3">
         <v>1981100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="3">
         <v>1222300</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W35" s="3">
         <v>1031500</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y35" s="3">
         <v>866300</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA35" s="3">
         <v>1093900</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC35" s="3">
         <v>674300</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD35" s="3">
+      <c r="AD35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-610400</v>
       </c>
-      <c r="AE35" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,28 +3355,29 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6528500</v>
+        <v>6533900</v>
       </c>
       <c r="E41" s="3">
-        <v>6508900</v>
+        <v>6514300</v>
       </c>
       <c r="F41" s="3">
-        <v>8953600</v>
+        <v>8961000</v>
       </c>
       <c r="G41" s="3">
-        <v>9346000</v>
+        <v>9353800</v>
       </c>
       <c r="H41" s="3">
-        <v>7362100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>8830000</v>
+        <v>7368200</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -3315,70 +3403,73 @@
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>7566000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
         <v>7011300</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3">
         <v>6664500</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="3">
         <v>5935800</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="3">
         <v>6518800</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="3">
         <v>7637400</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD41" s="3">
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE41" s="3">
         <v>7459600</v>
       </c>
-      <c r="AE41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3598100</v>
+        <v>3601100</v>
       </c>
       <c r="E42" s="3">
-        <v>4929400</v>
+        <v>4933500</v>
       </c>
       <c r="F42" s="3">
-        <v>3275100</v>
+        <v>3277800</v>
       </c>
       <c r="G42" s="3">
-        <v>2502100</v>
+        <v>2504200</v>
       </c>
       <c r="H42" s="3">
-        <v>2533500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3526600</v>
+        <v>2535600</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -3404,70 +3495,73 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>5663100</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" s="3">
         <v>3346900</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3">
         <v>3339300</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y42" s="3">
         <v>2595700</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA42" s="3">
         <v>6688200</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC42" s="3">
         <v>4007700</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD42" s="3">
+      <c r="AD42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE42" s="3">
         <v>2185600</v>
       </c>
-      <c r="AE42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13604400</v>
+        <v>13615700</v>
       </c>
       <c r="E43" s="3">
-        <v>13036300</v>
+        <v>13047100</v>
       </c>
       <c r="F43" s="3">
-        <v>12182000</v>
+        <v>12192100</v>
       </c>
       <c r="G43" s="3">
-        <v>12162500</v>
+        <v>12172600</v>
       </c>
       <c r="H43" s="3">
-        <v>11097900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>11024200</v>
+        <v>11107100</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -3493,70 +3587,73 @@
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>12548500</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>12701600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3">
         <v>12547000</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y43" s="3">
         <v>11737600</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="3">
         <v>8477800</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC43" s="3">
         <v>6644400</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD43" s="3">
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE43" s="3">
         <v>10732100</v>
       </c>
-      <c r="AE43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1181700</v>
+        <v>1182700</v>
       </c>
       <c r="E44" s="3">
-        <v>1136100</v>
+        <v>1137100</v>
       </c>
       <c r="F44" s="3">
-        <v>1077600</v>
+        <v>1078500</v>
       </c>
       <c r="G44" s="3">
-        <v>1032100</v>
+        <v>1032900</v>
       </c>
       <c r="H44" s="3">
-        <v>867300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>882500</v>
+        <v>868000</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -3582,70 +3679,73 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>1057700</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>1118800</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="3">
         <v>1141500</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y44" s="3">
         <v>950900</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="3">
         <v>927900</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC44" s="3">
         <v>866200</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD44" s="3">
+      <c r="AD44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE44" s="3">
         <v>961400</v>
       </c>
-      <c r="AE44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3668600</v>
+        <v>3671600</v>
       </c>
       <c r="E45" s="3">
-        <v>3446400</v>
+        <v>3449200</v>
       </c>
       <c r="F45" s="3">
-        <v>3263100</v>
+        <v>3265900</v>
       </c>
       <c r="G45" s="3">
-        <v>2963900</v>
+        <v>2966400</v>
       </c>
       <c r="H45" s="3">
-        <v>2903200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2941200</v>
+        <v>2905600</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -3671,70 +3771,73 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>2334800</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>2888100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
         <v>2202600</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y45" s="3">
         <v>2082900</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1776100</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB45" s="3">
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC45" s="3">
         <v>2081300</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD45" s="3">
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE45" s="3">
         <v>1960300</v>
       </c>
-      <c r="AE45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28581200</v>
+        <v>28604900</v>
       </c>
       <c r="E46" s="3">
-        <v>29057100</v>
+        <v>29081300</v>
       </c>
       <c r="F46" s="3">
-        <v>28751400</v>
+        <v>28775300</v>
       </c>
       <c r="G46" s="3">
-        <v>28006600</v>
+        <v>28029900</v>
       </c>
       <c r="H46" s="3">
-        <v>24764100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>27204400</v>
+        <v>24784700</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -3760,70 +3863,73 @@
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>29170100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3">
         <v>27066600</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="3">
         <v>25894900</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y46" s="3">
         <v>23302900</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA46" s="3">
         <v>24388700</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC46" s="3">
         <v>21237000</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD46" s="3">
+      <c r="AD46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE46" s="3">
         <v>23299000</v>
       </c>
-      <c r="AE46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3297800</v>
+        <v>3300600</v>
       </c>
       <c r="E47" s="3">
-        <v>3381300</v>
+        <v>3384100</v>
       </c>
       <c r="F47" s="3">
-        <v>3444200</v>
+        <v>3447000</v>
       </c>
       <c r="G47" s="3">
-        <v>3566700</v>
+        <v>3569700</v>
       </c>
       <c r="H47" s="3">
-        <v>2388300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3061500</v>
+        <v>2390300</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3849,70 +3955,73 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>3000200</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
         <v>4119800</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3">
         <v>4735100</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="3">
         <v>4475400</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA47" s="3">
         <v>4250100</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC47" s="3">
         <v>5006300</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD47" s="3">
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE47" s="3">
         <v>5912500</v>
       </c>
-      <c r="AE47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>44096900</v>
+        <v>44133500</v>
       </c>
       <c r="E48" s="3">
-        <v>42904300</v>
+        <v>42940000</v>
       </c>
       <c r="F48" s="3">
-        <v>42116200</v>
+        <v>42151200</v>
       </c>
       <c r="G48" s="3">
-        <v>41397400</v>
+        <v>41431800</v>
       </c>
       <c r="H48" s="3">
-        <v>40446700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>39118700</v>
+        <v>40480300</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -3938,70 +4047,73 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>81495700</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>39752900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
         <v>32758000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3">
         <v>29446200</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3">
         <v>29917900</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC48" s="3">
         <v>29300800</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD48" s="3">
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE48" s="3">
         <v>30415800</v>
       </c>
-      <c r="AE48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>42356900</v>
+        <v>42392000</v>
       </c>
       <c r="E49" s="3">
-        <v>41259800</v>
+        <v>41294000</v>
       </c>
       <c r="F49" s="3">
-        <v>42122700</v>
+        <v>42157700</v>
       </c>
       <c r="G49" s="3">
-        <v>42423000</v>
+        <v>42458200</v>
       </c>
       <c r="H49" s="3">
-        <v>41778000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>46324700</v>
+        <v>41812600</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -4027,50 +4139,53 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>49476000</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>49138200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>48791100</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>44900500</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3">
         <v>46282100</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="3">
         <v>46679300</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD49" s="3">
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE49" s="3">
         <v>49016000</v>
       </c>
-      <c r="AE49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,28 +4365,31 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2002300</v>
+        <v>2004000</v>
       </c>
       <c r="E52" s="3">
-        <v>2269000</v>
+        <v>2270900</v>
       </c>
       <c r="F52" s="3">
-        <v>2646300</v>
+        <v>2648500</v>
       </c>
       <c r="G52" s="3">
-        <v>1766000</v>
+        <v>1767500</v>
       </c>
       <c r="H52" s="3">
-        <v>2141100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1084100</v>
+        <v>2142900</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -4294,50 +4415,53 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>1961200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3">
         <v>2198700</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52" s="3">
         <v>2079500</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2103800</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="3">
         <v>2141900</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC52" s="3">
         <v>3008100</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD52" s="3">
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE52" s="3">
         <v>3682200</v>
       </c>
-      <c r="AE52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,28 +4549,31 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>120335100</v>
+        <v>120435000</v>
       </c>
       <c r="E54" s="3">
-        <v>118871600</v>
+        <v>118970300</v>
       </c>
       <c r="F54" s="3">
-        <v>119080800</v>
+        <v>119179700</v>
       </c>
       <c r="G54" s="3">
-        <v>117159800</v>
+        <v>117257000</v>
       </c>
       <c r="H54" s="3">
-        <v>111518100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>116793300</v>
+        <v>111610700</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -4472,50 +4599,53 @@
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>124610500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
         <v>122276200</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3">
         <v>114258700</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y54" s="3">
         <v>104228700</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA54" s="3">
         <v>106980600</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC54" s="3">
         <v>105231400</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD54" s="3">
+      <c r="AD54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE54" s="3">
         <v>111122200</v>
       </c>
-      <c r="AE54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,28 +4711,29 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7958400</v>
+        <v>7965000</v>
       </c>
       <c r="E57" s="3">
-        <v>7661300</v>
+        <v>7667700</v>
       </c>
       <c r="F57" s="3">
-        <v>7474900</v>
+        <v>7481100</v>
       </c>
       <c r="G57" s="3">
-        <v>7304700</v>
+        <v>7310700</v>
       </c>
       <c r="H57" s="3">
-        <v>7025000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>7019500</v>
+        <v>7030800</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -4627,70 +4759,73 @@
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>7800600</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>7630100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="3">
         <v>7968000</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y57" s="3">
         <v>6849300</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA57" s="3">
         <v>7323200</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC57" s="3">
         <v>7014700</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD57" s="3">
+      <c r="AD57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE57" s="3">
         <v>7290500</v>
       </c>
-      <c r="AE57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11492500</v>
+        <v>11502100</v>
       </c>
       <c r="E58" s="3">
-        <v>10022500</v>
+        <v>10030800</v>
       </c>
       <c r="F58" s="3">
-        <v>8484200</v>
+        <v>8491200</v>
       </c>
       <c r="G58" s="3">
-        <v>8619700</v>
+        <v>8626800</v>
       </c>
       <c r="H58" s="3">
-        <v>8767100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>10617700</v>
+        <v>8774400</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -4716,70 +4851,73 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>11140600</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>13483900</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
         <v>14199500</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3">
         <v>11154600</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="3">
         <v>12309400</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="3">
         <v>9679400</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD58" s="3">
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE58" s="3">
         <v>15549500</v>
       </c>
-      <c r="AE58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14073800</v>
+        <v>14085500</v>
       </c>
       <c r="E59" s="3">
-        <v>13996800</v>
+        <v>14008400</v>
       </c>
       <c r="F59" s="3">
-        <v>13737700</v>
+        <v>13749100</v>
       </c>
       <c r="G59" s="3">
-        <v>13645600</v>
+        <v>13656900</v>
       </c>
       <c r="H59" s="3">
-        <v>12818400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>13036300</v>
+        <v>12829000</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -4805,70 +4943,73 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>13474200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>13159200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3">
         <v>13669600</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="3">
         <v>13019000</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA59" s="3">
         <v>13447100</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC59" s="3">
         <v>12104000</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD59" s="3">
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE59" s="3">
         <v>13152500</v>
       </c>
-      <c r="AE59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33524700</v>
+        <v>33552500</v>
       </c>
       <c r="E60" s="3">
-        <v>31680700</v>
+        <v>31707000</v>
       </c>
       <c r="F60" s="3">
-        <v>29696800</v>
+        <v>29721400</v>
       </c>
       <c r="G60" s="3">
-        <v>29569900</v>
+        <v>29594500</v>
       </c>
       <c r="H60" s="3">
-        <v>28610500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>30673500</v>
+        <v>28634200</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -4894,70 +5035,73 @@
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>32415500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3">
         <v>34273200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W60" s="3">
         <v>35837100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y60" s="3">
         <v>31022900</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA60" s="3">
         <v>32601700</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC60" s="3">
         <v>28798100</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD60" s="3">
+      <c r="AD60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE60" s="3">
         <v>30406400</v>
       </c>
-      <c r="AE60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42153100</v>
+        <v>42188100</v>
       </c>
       <c r="E61" s="3">
-        <v>42096700</v>
+        <v>42131600</v>
       </c>
       <c r="F61" s="3">
-        <v>43707700</v>
+        <v>43743900</v>
       </c>
       <c r="G61" s="3">
-        <v>41865800</v>
+        <v>41900500</v>
       </c>
       <c r="H61" s="3">
-        <v>40986600</v>
+        <v>41020600</v>
       </c>
       <c r="I61" s="3">
-        <v>38988600</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4984,69 +5128,72 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>45226600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>41718700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>31641400</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>30594700</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>29500500</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>32396300</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
         <v>33933700</v>
       </c>
-      <c r="AE61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7357800</v>
+        <v>7363900</v>
       </c>
       <c r="E62" s="3">
-        <v>7198400</v>
+        <v>7204400</v>
       </c>
       <c r="F62" s="3">
-        <v>6858000</v>
+        <v>6863700</v>
       </c>
       <c r="G62" s="3">
-        <v>7389200</v>
+        <v>7395400</v>
       </c>
       <c r="H62" s="3">
-        <v>6828700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>6978400</v>
+        <v>6834400</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -5072,50 +5219,53 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>6794300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>7724200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3">
         <v>7449900</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3">
         <v>6666000</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3">
         <v>7278300</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC62" s="3">
         <v>7459000</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD62" s="3">
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE62" s="3">
         <v>7842200</v>
       </c>
-      <c r="AE62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,28 +5537,31 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>86308500</v>
+        <v>86380100</v>
       </c>
       <c r="E66" s="3">
-        <v>84414500</v>
+        <v>84484600</v>
       </c>
       <c r="F66" s="3">
-        <v>83573300</v>
+        <v>83642700</v>
       </c>
       <c r="G66" s="3">
-        <v>82098900</v>
+        <v>82167100</v>
       </c>
       <c r="H66" s="3">
-        <v>79102400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>79505700</v>
+        <v>79168100</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -5428,50 +5587,53 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>87574400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>86618300</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3">
         <v>77980300</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y66" s="3">
         <v>70930800</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA66" s="3">
         <v>72227000</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC66" s="3">
         <v>71351800</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD66" s="3">
+      <c r="AD66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE66" s="3">
         <v>75100400</v>
       </c>
-      <c r="AE66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,28 +6031,31 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-660200</v>
+        <v>-660800</v>
       </c>
       <c r="E72" s="3">
-        <v>-339300</v>
+        <v>-339600</v>
       </c>
       <c r="F72" s="3">
-        <v>-389200</v>
+        <v>-389500</v>
       </c>
       <c r="G72" s="3">
-        <v>-432600</v>
+        <v>-432900</v>
       </c>
       <c r="H72" s="3">
-        <v>-2819700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>2006700</v>
+        <v>-2822100</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -5906,50 +6081,53 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1255000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-2709200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3">
         <v>-2439100</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-2560500</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-2076800</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-3148300</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD72" s="3">
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-3068300</v>
       </c>
-      <c r="AE72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,28 +6399,31 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34026600</v>
+        <v>34054900</v>
       </c>
       <c r="E76" s="3">
-        <v>34457000</v>
+        <v>34485600</v>
       </c>
       <c r="F76" s="3">
-        <v>35507500</v>
+        <v>35537000</v>
       </c>
       <c r="G76" s="3">
-        <v>35060900</v>
+        <v>35090000</v>
       </c>
       <c r="H76" s="3">
-        <v>32415700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>37287600</v>
+        <v>32442600</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -6262,50 +6449,53 @@
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>37036100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>35657900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3">
         <v>36278400</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y76" s="3">
         <v>33297900</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA76" s="3">
         <v>34753600</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC76" s="3">
         <v>33879600</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD76" s="3">
+      <c r="AD76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE76" s="3">
         <v>36021900</v>
       </c>
-      <c r="AE76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6583,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>865100</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="3">
-        <v>899800</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1209900</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>865800</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3">
+        <v>900600</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1210900</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>3150400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>-3066100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>3752200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>878200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" s="3">
         <v>1981100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U81" s="3">
         <v>1222300</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W81" s="3">
         <v>1031500</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y81" s="3">
         <v>866300</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA81" s="3">
         <v>1093900</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC81" s="3">
         <v>674300</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD81" s="3">
+      <c r="AD81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-610400</v>
       </c>
-      <c r="AE81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6808,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>4714800</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="3">
-        <v>9260400</v>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="3">
-        <v>4712600</v>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>9274500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>8495900</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>-4564400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3">
         <v>4991800</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" s="3">
         <v>4833800</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W83" s="3">
         <v>4246600</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y83" s="3">
         <v>3795800</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA83" s="3">
         <v>3921400</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC83" s="3">
         <v>3759800</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD83" s="3">
+      <c r="AD83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE83" s="3">
         <v>4048500</v>
       </c>
-      <c r="AE83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>6218400</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="3">
-        <v>12179900</v>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="3">
-        <v>6110000</v>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>12180900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>12664000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-6386200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3">
         <v>7064000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" s="3">
         <v>4869100</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W89" s="3">
         <v>6303700</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y89" s="3">
         <v>4586300</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA89" s="3">
         <v>6083400</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC89" s="3">
         <v>5331700</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD89" s="3">
+      <c r="AD89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE89" s="3">
         <v>5744600</v>
       </c>
-      <c r="AE89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7486,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7289,73 +7511,76 @@
         <v>-5151000</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3395000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-8523800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>5484000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
         <v>-4987200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3">
         <v>-4882100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3">
         <v>-5017900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1928300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3733200</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-3787800</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD91" s="3">
+      <c r="AD91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-5104900</v>
       </c>
-      <c r="AE91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7760,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-4312500</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>-11326700</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
-        <v>-4899000</v>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6478600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-5549500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>6573800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-6084500</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3">
         <v>-4891500</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
         <v>-5612900</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-4180100</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-5231800</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-3677900</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD94" s="3">
+      <c r="AD94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-4880700</v>
       </c>
-      <c r="AE94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,35 +7888,36 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1153500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2017500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1152400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2305900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7690,61 +7925,64 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1590900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>1445500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-929300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1248200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-941600</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1168300</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-746100</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-1193800</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-624500</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8254,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-1928600</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
-        <v>-3624100</v>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="3">
-        <v>-1637000</v>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5240500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-5395900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1238200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
         <v>-336200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" s="3">
         <v>403500</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W100" s="3">
         <v>-423500</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-848800</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-1973600</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-1098400</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD100" s="3">
+      <c r="AD100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-103300</v>
       </c>
-      <c r="AE100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>43400</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="3">
-        <v>-66100</v>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
-        <v>34700</v>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
         <v>54200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>-58800</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="3">
         <v>2400</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W101" s="3">
         <v>2400</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA101" s="3">
         <v>3400</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB101" s="3">
+      <c r="AB101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-48200</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD101" s="3">
+      <c r="AD101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE101" s="3">
         <v>-129100</v>
       </c>
-      <c r="AE101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>20600</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="3">
-        <v>-2837100</v>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="3">
-        <v>-391400</v>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>516000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>1659700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-1051600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3">
         <v>608200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3">
         <v>383500</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W102" s="3">
         <v>269700</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-443600</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-1118600</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC102" s="3">
         <v>507100</v>
       </c>
-      <c r="AC102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD102" s="3">
+      <c r="AD102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE102" s="3">
         <v>631500</v>
       </c>
-      <c r="AE102" s="3" t="s">
+      <c r="AF102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
